--- a/annotating/Annotator_4o.xlsx
+++ b/annotating/Annotator_4o.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Baldw\Desktop\UMO\PERC\privacy_stories_1.1\annotating\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C52FE9-F81A-4CE2-9934-518787ADC971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="555" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="141">
-  <si>
-    <t>File</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="219">
   <si>
     <t>Prompt</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Target File Path</t>
   </si>
   <si>
@@ -58,88 +58,14 @@
     <t>Please provide any stories which this output is missing</t>
   </si>
   <si>
-    <t>Actual_Budget\Accounts_&amp;_Transactions.txt</t>
-  </si>
-  <si>
-    <t>Actual_Budget\Backup_&amp;_Restore.txt</t>
-  </si>
-  <si>
-    <t>Akaunting\CreatingAnewAccount.txt</t>
-  </si>
-  <si>
-    <t>Attendize\features.txt</t>
-  </si>
-  <si>
-    <t>Mattermost_Architecture\Navigation.txt</t>
-  </si>
-  <si>
-    <t>Monica\README.txt</t>
-  </si>
-  <si>
-    <t>OpenTracks\data-structure.txt</t>
-  </si>
-  <si>
-    <t>Synapse\account_data_callbacks.txt</t>
-  </si>
-  <si>
-    <t>Synapse\account_validity_callbacks.txt</t>
-  </si>
-  <si>
-    <t>Synapse\password_auth_provider_callbacks.txt</t>
-  </si>
-  <si>
-    <t>TracDev_Docs\DatabaseSchema.txt</t>
-  </si>
-  <si>
-    <t>TracDev_Docs\INotificationDistributor.txt</t>
-  </si>
-  <si>
-    <t>TracDev_Docs\INotificationSubscriber.txt</t>
-  </si>
-  <si>
-    <t>Zulip\file.txt</t>
-  </si>
-  <si>
-    <t>element-android\add_threePids.txt</t>
-  </si>
-  <si>
-    <t>friendica\account-basics.txt</t>
-  </si>
-  <si>
-    <t>gotosocial\signups.txt</t>
-  </si>
-  <si>
-    <t>invoiceninja\userdetails.txt</t>
-  </si>
-  <si>
-    <t>jitsi-meet\configurations.txt</t>
-  </si>
-  <si>
-    <t>joinlemmy\Getting Started.txt</t>
-  </si>
-  <si>
-    <t>koel\profile-preferences.txt</t>
-  </si>
-  <si>
-    <t>lh-ehr\Direct_Messaging_README.txt</t>
-  </si>
-  <si>
-    <t>openMRS\Architecture.txt</t>
-  </si>
-  <si>
-    <t>peertube\managing-users.txt</t>
-  </si>
-  <si>
-    <t>sharetribe\analyrics-events.txt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -201,7 +127,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -211,6 +138,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 Using Actual
 Accounts &amp; Transactions
 overview
@@ -270,17 +199,79 @@
 Adding a new account
 Closing or deleting an account
 Renaming an existing account
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; Collect, Use &lt;/Actions&gt; &lt;Data Types&gt; Account Data, Account Balance, Bank Account, Assets &lt;/Data Types&gt; &lt;Purposes&gt; Personal analytics, functionality, account management &lt;/Purposes&gt; &lt;Stories&gt; 1. We collect account data, account balance, bank account, and assets for personal analytics. We collect account data, account balance, bank account, and assets for account management. We collect account data, account balance, bank account, and assets for Functionality. We use account data, account balance, bank account, and assets for personal analytics. We use account data, account balance, bank account, and assets for account management. We use account data, account balance, bank account, and assets for Functionality.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; Using Actual
+Accounts &amp; Transactions
+overview
+ You can add as many accounts as you like. Adding all of your accounts (including things like mortgages) is a nice way to get an overview of all your finances.
+Off-budget accounts
+​
+Actual makes a distinction between accounts being
+for budget or off budget. 
+Off budget accounts don't effect the budget and are meant to track stuff like investments and mortgages. Transactions in off budget accounts can't be categorized; they simply track balances over time.
+For budget
+accounts affect the budget, and transactions can be categorized. These are accounts where you want to track cash flow and use the budget, like checking accounts and credit cards.
+Depending on your usage, savings accounts can either be on or off the budget. If you're not sure, we recommend keeping it on budget at the start.
+Adding a new account
+​
+You can add an account to your budget at any time, however when you first install Actual you can use the
+Add Account
+button in the middle of the screen.
+You can also add an account using the
++ Add account
+button in the sidebar.
+Two successive screens will appear with boxes asking you to fill in a few options
+Create a Local Account or Link to GoCardless (See
+Connecting Your Bank
+)
+Give your account a name
+Is the account on or off budget
+The current account balance
+Off budget means that the balance is not reflected when you assign money to categories in your budget register
+Here you can see how that looks when the options are completed.
+If you select the Off Budget checkbox then change the account type the Off Budget checkbox will reset and will need to be re-selected each time the account type is changed
+You can now see the account in the sidebar of Actual
+Closing or deleting an account
+​
+Navigate to the account by clicking on it in the sidebar
+Click on the 3 dots (top right of the transactions list) to show the actions menu
+Select
+Close Account
+You need to select another account to transfer the existing balance to. Choose the account that you have moved funds to.
+Press
+Close Account
+You can still access this account under
+Closed Accounts
+in the sidebar, and even reopen it from the same actions menu.
+If you want to delete an account
+even if it has existing balances, in the popup after selecting
+Close Account
+, click the
+force close
+at the bottom.
+Renaming an existing account
+​
+Click the account name in the sidebar of Actual
+Hovering your cursor close to the account name at the top will reveal two icons.
+The page icon allows you to write a note about this account, and the pencil icon allows you to rename the account.
+After editing a note for the account or its name, hit 'Enter' to save your changes.
+Off-budget accounts
+Adding a new account
+Closing or deleting an account
+Renaming an existing account &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -342,7 +333,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -352,6 +344,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 Using Actual
 Backup &amp; Restore
 Backing up your Actual budget
@@ -375,17 +369,43 @@
 Click
 Backup Now
 Manually creating a backup from the desktop app
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; Collect Process &lt;/Actions&gt; &lt;Data Types&gt; account information &lt;/Data Types&gt; &lt;Purposes&gt; account management, functionality &lt;/Purposes&gt; &lt;Stories&gt; 1. We collect account information for account management. We process account information for account management. We collect account information for functionality. We process account information for functionality.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; Using Actual
+Backup &amp; Restore
+Backing up your Actual budget
+Backing up your Actual budget
+If your budget is very old, you may have trouble restoring large backups. If you’re encountering this issue, click “Reset Sync” under 'Settings' &gt; 'Show advanced settings' to reset sync, then make the export again. This should reduce the file size.
+You can export your data from Actual at any time. To do so,
+Login to your budget, click 'More' &gt; 'Settings'
+Scroll down to the Export section and click Export Data
+Save the file somewhere on your computer - that is it done.
+Login to your budget, click 'More' &gt; 'Settings'
+Scroll down to the Export section and click Export Data
+Save the file somewhere on your computer - that is it done.
+Manually creating a backup from the desktop app
+​
+This will force a backup to be created right now. Do this if you are going to do something that you might want to revert later (and don't want to use
+undo
+).
+Select the
+File &gt; Load Backup…
+menu item
+Click
+Backup Now
+Manually creating a backup from the desktop app &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -447,7 +467,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -457,6 +478,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 Cash and Bank Transfer are the default accounts on Akaunting. Every Invoice, Bill, or Transaction is recorded in Cash or Bank Transfer.
 Creating New Account:
 Go to Banking on the Navigation Menu.
@@ -471,17 +494,34 @@
 Decide whether you want the account to be your default.
 Then, Save.
 Please note that when creating a Credit Card account, you cannot set it as Default Account.
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; Collect &lt;/Actions&gt; &lt;Data Types&gt; Name, Card Data, Phone Number, Address &lt;/Data Types&gt; &lt;Purposes&gt; Account management, Functionality &lt;/Purposes&gt; &lt;Stories&gt; 1. We collect  name, card data, Phone Number, Address for account management. We save name, card data, Phone Number, Address for Functionality. We collect  name, card data, Phone Number, Address for account management.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; Cash and Bank Transfer are the default accounts on Akaunting. Every Invoice, Bill, or Transaction is recorded in Cash or Bank Transfer.
+Creating New Account:
+Go to Banking on the Navigation Menu.
+Creating New Payment Account
+Select Accounts from the dropdown options.
+On the Accounts page, Click on New Account at the top right corner.
+Define the Account type – Bank or Credit Card (Use the credit card option for a negative opening balance)
+Creating New Payment Account: Define Account type when adding a payment account
+For Bank account type:
+Enter the required details – General (Name, Account Number, Currency, and Starting Balance) and Bank (Name, Phone, and Address).
+Adding a bank account for payment account
+Decide whether you want the account to be your default.
+Then, Save.
+Please note that when creating a Credit Card account, you cannot set it as Default Account. &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -543,7 +583,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -553,6 +594,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 Beautiful mobile friendly event pages
 Easy attendee management - Refunds, Messaging etc.
 Data export - attendees list to XLS, CSV etc.
@@ -578,17 +621,45 @@
 Ability to ask custom questions during checkout
 Browser based QR code scanner for door management
 Elegant dashboard for easy management.
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; collect,use &lt;/Actions&gt; &lt;Data Types&gt; Financial &lt;/Data Types&gt; &lt;Purposes&gt; tracking, Customization, &lt;/Purposes&gt; &lt;Stories&gt; 1. we collect Fiancial for customization. we use financial data for tracking. . &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; Beautiful mobile friendly event pages
+Easy attendee management - Refunds, Messaging etc.
+Data export - attendees list to XLS, CSV etc.
+Generate print friendly attendee list
+Ability to manage unlimited organisers / events
+Manage multiple organisers
+Real-time event statistics
+Customizable event pages
+Multiple currency support
+Quick and easy checkout process
+Customizable tickets - with QR codes, organiser logos etc.
+Fully brandable - Have your own logos on tickets etc.
+Affiliate tracking
+track sales volume / number of visits generated etc.
+Widget support - embed ticket selling widget into existing websites / WordPress blogs
+Social sharing
+Support multiple payment gateways - Stripe, PayPal &amp; Coinbase so far, with more being added
+Support for offline payments
+Refund payments - partial refund &amp; full refunds
+Ability to add service charge to tickets
+Messaging - eg. Email all attendees with X ticket
+Public event listings page for organisers
+Ability to ask custom questions during checkout
+Browser based QR code scanner for door management
+Elegant dashboard for easy management. &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -650,7 +721,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -660,6 +732,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 Edit on GitHub
 Navigation
 The Desktop App exercises relatively strict control over the user’s ability to navigate through the web. This is done for a few reasons:
@@ -790,17 +864,150 @@
 While the current window is in the custom login flow, all links that emit the
 will-navigate
 event will be allowed. Anything that opens a new window will still be restricted based on the rules for new windows. We leave the custom login flow once the app has navigated back to an URL internal to the application
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; use &lt;/Actions&gt; &lt;Data Types&gt; usage data &lt;/Data Types&gt; &lt;Purposes&gt; Functionality, security &lt;/Purposes&gt; &lt;Stories&gt; 1. We use usage data for Functionality. We use usage data for security.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; Edit on GitHub
+Navigation
+The Desktop App exercises relatively strict control over the user’s ability to navigate through the web. This is done for a few reasons:
+Security:
+Since we expose certain Electron (and therefore NodeJS) APIs to the front-end application, we want to be in control of what scripts are run in the front-end. We make a concerted effort to lock down the exposed APIs to only what is necessary; however, to avoid any privacy or security breaches, it’s best to avoid allowing the user to navigate to any page that isn’t explicitly trusted.
+User Experience:
+Our application is ONLY designed to work with the Mattermost Web App and thus allowing the user to navigate to other places that are not the Web App is not a supported use case, and could create some undesirable effects.
+Internal navigation
+The Mattermost Web App is self-contained, with the majority of links provided by
+react-router
+and thus most navigation is handled by that module. However, in the Desktop App, we have a major feature that allows users to navigate between distinct tabs bound to the same server. There are two ways that this style of navigation happens in the Web App:
+A user clicks on a link provided by the
+react-router
+Link
+component
+The application calls
+browserHistory.push
+directly within the Web App based on the user action
+Both of these methods will make use of the
+browserHistory
+module within the Web App.
+When one of the above methods is used, normally the Web App would update the browser’s URL and change the state of the page. In the Desktop App, we instead send the arguments of the call to
+browserHistory.push
+up to the Electron Main Process. The information is received at the method
+WindowManager.handleBrowserHistoryPush
+, where we perform the following actions:
+Clean the path name by removing any part of the server’s subpath pathname.
+When the arguments are sent up to the Desktop App, it includes the subpath of the server hosting it.
+As an example, if the server URL is
+http://server-1.com/mattermost
+, any path that is received will start with
+/mattermost
+and we will need to remove that component. The same would be true for any other path following the origin
+http://server-1.com
+.
+Retrieve the view matching the path name
+After removing the leading subpath (if applicable), we check to see if a portion of the path matches one of the other tabs, signally that we will need to switch to that tab.
+For server
+http://server-1.com/mattermost
+, if the pathname is
+/mattermost/boards/board1
+, we would get the
+Boards
+view matching the server.
+Display the correct view and send the cleaned path to its renderer process
+We then explicitly display the new view if it’s not currently in focus. If it’s closed, we open it and load the corresponding URL with the provided path.
+Exception
+: If we’re redirecting to the root of the application and the user is not logged in, it will generate an unnecessary refresh. In this case, we do not send the path name down.
+External navigation
+For the cases where a user wants to navigate away from the Web App to an external site, we generally want to direct the user outside of the Desktop App and have them open their default web browser and use the external site in that application.
+In order to achieve this, we need to explicitly handle every other link and method of navigation that is available to an Electron renderer process. Fortunately, Electron provides a few listeners that help us with that:
+will-navigate
+is an event that fires when the URL is changed for a given renderer process. Attaching a listener for this event allows us to prevent the navigation if desired.
+NOTE: The event will not fire for in-page navigations or updating
+window.location.hash
+.
+did-start-navigation
+is another renderer process event that will fire once the page has started navigating. We can use this event to perform any actions when a certain URL is visited.
+new-window
+is an event that will fire when the user tries to open a new window or tab. This commonly will fire when the user clicks on a link marked
+target=_blank
+. We attach this listener using the
+setWindowOpenHandler
+and will allow us to
+allow
+or
+deny
+the opening as we desire.
+In our application, we define all of these listeners in the
+webContentEvents
+module, and we attach them whenever a new
+webContents
+object is create to make sure that all renderer processes are correctly secured and set up correctly.
+New window handling
+Our new window handler will
+deny
+the opening of a new Electron window if any of the following cases are true:
+Malformed URL:
+Depending on the case, it will outright ignore it (if the URL could not be parsed), or it will open the user’s default browser if it is somehow invalid in another way.
+Untrusted Protocol:
+If the URL does not match an allowed protocol (allowed protocols include
+http
+,
+https
+, and any other protocol that was explicitly allowed by the user).
+In this case, it will ask the user whether the protocol should be allowed, and if so will open the URL in the user’s default application that corresponds to that protocol.
+Unknown Site:
+If the URL does not match the root of a configured server, it will always try to open the link in the user’s default browser.
+If the URL DOES match the root of a configured server, we still will deny the window opening for a few cases:
+If the URL matches the public files route (
+/api/v4/public/files/*
+)
+If the URL matches the image proxy route (
+/api/v4/image/*
+)
+If the URL matches the help route (
+/help/*
+)
+For these cases, we will open the link in the user’s browser.
+Deep Link Case
+: If the URL doesn’t match any of the above routes, but is still a valid configured server, we will generally treat is as the deep link cause, and will instead attempt to show the correct tab as well as navigate to the corresponding URL within the app.
+There are two cases where we do allow the application to open a new window:
+If the URL matches the
+devtools:
+protocol, so that we can open the Chrome Developer Tools.
+If the URL is a valid configured server URL that corresponds to the plugins route (
+/plugins/*
+). In these cases we allow a single popup per tab to be opened for certain plugins to do things like OAuth (e.g. GitHub or JIRA).
+Any other case will be automatically denied for security reasons.
+Links within the same window
+By default, the Mattermost Web App marks any link external to its application as
+target=_blank
+, so that the application doesn’t try to open it in the same window. Any other links should therefore be internal to the application.
+We
+deny
+any sort of in-window navigation with the following exceptions: if the link is a
+mailto:
+link (which always opens the default mail program), OR if we are in the custom login flow.
+Custom login flow
+In order to facilitate logging into to the app using an external provider (e.g. Okta) in the same way that one would in the browser, we add an exception to the navigation flow that bypasses the
+will-navigate
+check.
+When a user clicks on a login link that redirects them to a matching URL scheme (listed
+here
+), we will activate the custom login flow. The URL
+MUST
+still be internal to the application before we activate this flow, or any URL matching this pattern would allow the app to circumvent the navigation protection.
+While the current window is in the custom login flow, all links that emit the
+will-navigate
+event will be allowed. Anything that opens a new window will still be restricted based on the rules for new windows. We leave the custom login flow once the app has navigated back to an URL internal to the application &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -862,7 +1069,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -872,6 +1080,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 Document your life
 Docker pulls Lines of code Code coverage License
 Docs - Bug report
@@ -986,17 +1196,134 @@
 License
 Copyright © 2016–2023
 Licensed under the AGPL License.
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; Collect, Use &lt;/Actions&gt; &lt;Data Types&gt; Date of Birth, Email address , Image, Friends &lt;/Data Types&gt; &lt;Purposes&gt; Contact, customization, functionality &lt;/Purposes&gt; &lt;Stories&gt; 1. We collect date of birth, email address, image and friends for contact. We collect date of birth, email address, image and friends for customization. We collect date of birth, email address, image and friends for functionality. We use date of birth, email address, image and friends for functionality. We use date of birth, email address, image and friends for contact. We use date of birth, email address, image and friends for customization.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; Document your life
+Docker pulls Lines of code Code coverage License
+Docs - Bug report
+Monica is an open source personal relationship management system, that lets you document your life.
+Warning
+This branch is in development. It’s our beta version.
+If you want to browse the stable and current version, see the 4.x branch.
+Table of contents
+Introduction
+Features
+Who is it for?
+What Monica isn’t
+Contribute
+Contribute as a community
+Contribute as a developer
+Principles, vision, goals and strategy
+Principles
+Vision
+Goals
+Why Open Source?
+Patreon
+Contact
+Team
+Thank you, open source
+License
+Introduction
+Monica is an open-source web application that enables you to document your life, organize, and log your interactions with your family and friends. We call it a PRM, or Personal Relationship Management. Imagine a CRM—a commonly used tool by sales teams in the corporate world—for your friends and family.
+Features
+Add and manage contacts
+Define relationships between contacts
+Reminders
+Automatic reminders for birthdays
+Ability to add notes to a contact
+Ability to record how you met someone
+Management of activities with a contact
+Management of tasks
+Management of addresses and all the different ways to contact someone
+Management of contact field types
+Management of a contact’s pets
+Top of the art diary to keep track of what’s happening in your life
+Ability to record how your day went
+Upload documents and photos
+Ability to define custom genders
+Ability to define custom activity types
+Ability to favorite contacts
+Multiple vaults and users
+Labels to organize contacts
+Ability to define what section should appear on the contact sheet
+Multiple currencies
+Translated in 27 languages
+Who is it for?
+This project is for people who want to document their lives and those who have difficulty remembering details about the lives of people they care about.
+We’ve also had a lot of positive reviews from people with Asperger syndrome, Alzheimer’s disease, and introverts who use our app every day.
+What Monica isn’t
+Monica is not a social network and it never will be. It’s not meant to be social. It’s designed to be the opposite: it’s for your eyes only.
+Monica is not a smart assistant. It won’t guess what you want to do. It’s actually pretty dumb: it will only send you emails for the things you asked to be reminded of.
+Monica does not have built-in AI with integrations like ChatGPT.
+Monica is not a tool that will scan your data and do nasty things with it. It’s your data, your server, do whatever you want with it. You’re in control of your data.
+Contribute
+Do you want to lend a hand? That’s great! We accept contributions from everyone, regardless of form.
+Here are some of the things you can do to help.
+Contribute as a community
+Unlike Fight Club, the best way to help is to actually talk about Monica as much as you can in blog posts and articles, or on social media.
+You can answer questions in the issue tracker to help other community members.
+You can financially support Monica’s development on Patreon or by subscribing to a paid account.
+Contribute as a developer
+Read our Contribution Guide.
+Install the developer version locally so you can start contributing.
+Look for issues labelled ‘Bugs’ if you are looking to have an immediate impact on Monica.
+Look for issues labelled ‘Help Wanted’. These are issues that you can solve relatively easily.
+Look for issues labelled ’Good First Issue’. These issues are for people who want to contribute, but try to work on a small feature first.
+If you are an advanced developer, you can try to tackle issues labelled ‘Feature Requests’. These are harder to do and will require a lot of back-and-forth with the repository administrator to make sure we are going to the right direction with the product.
+Principles, vision, goals and strategy
+We want to use technology in a way that does not harm human relationships, unlike big social networks.
+Principles
+Monica has a few principles.
+It should help improve relationships.
+It should be simple to use, simple to contribute to, simple to understand, extremely simple to maintain.
+It is not a social network and never will be.
+It is not and never will be ad-supported.
+Users are not and never will be tracked.
+It should be transparent.
+It should be open-source.
+It should do one thing (documenting your life) extremely well, and nothing more.
+It should be well documented.
+Vision
+Monica’s vision is to help people have more meaningful relationships.
+Goals
+We want to provide a platform that is:
+really easy to use: we value simplicity over anything else.
+open-source: we believe everyone should be able to contribute to this tool, and see for themselves that nothing nasty is done behind the scenes that would go against the best interests of the users. We also want to leverage the community to build attractive features and do things that would not be possible otherwise.
+easy to contribute to: we want to keep the codebase as simple as possible. This has two big advantages: anyone can contribute, and it’s easily maintainable on the long run.
+available everywhere: Monica should be able to run on any desktop OS or mobile phone easily. This will be made possible by making sure the tool is easily installable by anyone who wants to either contribute or host the platform themselves.
+Why Open Source?
+Why is Monica open source? Is it risky? Could someone steal my code and use it to start a for-profit business that could hurt my own? Why reveal our strategy to the world? We’ve already received these kinds of questions in our emails.
+The answer is simple: yes, you can fork Monica and create a competing project, make money from it (even if the license is not ideal for that) and we won’t be aware. But that’s okay, we don’t mind.
+We wanted to open source Monica for several reasons:
+We believe that this tool can really change people’s lives. We aim to make money from this project, but also want everyone to benefit. Open sourcing it will help Monica become much bigger than we imagine. We believe the software should follow our vision, but we must be humble enough to recognize that ideas come from everywhere and people may have better ideas than us.
+You can’t make something great alone. While Monica could become a company and hire a bunch of super smart people to work on it, you can’t beat the manpower of an entire community. Open sourcing the product means bugs will be fixed faster, features will be developed faster, and more importantly, developers will be able to contribute to a tool that positively changes their own lives and the lives of other people.
+Doing things in a transparent way leads to formidable things. People respect the project more when they can see how it’s being worked on. You can’t hide nasty things in the code. You can’t do things behind the backs of your users. Doing everything in the open is a major driving force that motivates you to keep doing what’s right.
+Once you’ve created a community of passionate developers around your project, you’ve won. Developers are powerful influencers: they create apps, discuss your product on forums, and share it with their networks. Nurture your relationship with developers – users will follow.
+Patreon
+You can support the development of Monica on Patreon. Thanks for your help.
+Contact
+Team
+Our team is made of two core members:
+Regis (djaiss)
+Alexis Saettler (asbiin)
+We are also fortunate to have an amazing community of developers who help us greatly.
+Thank you, open source
+Monica makes use of numerous open-source projects and we are deeply grateful. We hope that by offering Monica as a free, open-source project, we can help others in the same way these programs have helped us.
+License
+Copyright © 2016–2023
+Licensed under the AGPL License. &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -1058,7 +1385,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -1068,6 +1396,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 @startuml
 class Track {
     -id
@@ -1155,17 +1485,107 @@
 Tracks recorded prior to OpenTracks version 3.15.0, do neither begin with a Type.SEGMENT_START_MANUAL nor end with a Type.SEGMENT_END_MANUAL.
 end note
 @enduml
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; Collect, Use, Share &lt;/Actions&gt; &lt;Data Types&gt; Location, Physical Activity, Timestamps &lt;/Data Types&gt; &lt;Purposes&gt; Health analysis, Customization &lt;/Purposes&gt; &lt;Stories&gt; 1. we collect Location, Physical Activity, Timestamps for Customization. We use  Location, Physical Activity, Timestamps for health analysis.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; @startuml
+class Track {
+    -id
+    -name
+    -description
+    -category
+    -numberOfPoints
+    -icon
+}
+Track o-- TrackPoint
+Track o-- Marker
+Track "1" - "1" TrackStatistics
+class TrackStatistics {
+    - startTime
+    - stopTime
+    - totalDistance
+    - totalTime
+    - movingTime
+    - maxSpeed
+    - totalGain
+}
+class TrackStatisticsUpdater {
+}
+TrackStatisticsUpdater ..&gt; TrackStatistics : creates/updates
+TrackStatisticsUpdater ..&gt; TrackPoint : uses
+class TrackPoint {
+    - id (database id, order)
+    - type
+    - trackId
+    - longitude
+    - latitude
+    - time
+    - altitude
+    - accuracy
+    - speed
+    - bearing
+    - sensor_heartrate
+    - sensor_cadence
+    - sensor_power
+}
+class Marker {
+    - id
+    - trackId
+    - name
+    - description
+    - category
+    - icon
+    - length
+    - duration
+    - longitude
+    - latitude
+    - photoUrl
+}
+class DataField {
+    - key
+    - title
+    - isVisible
+    - isPrimary
+    - isWide
+}
+class StatisticData {
+    - value
+    - unit
+    - description
+}
+StatisticData o-- DataField
+class Layout {
+    - profile
+}
+Layout "1" o-- "many" DataField
+note left of TrackPoint
+As of OpenTracks version 3.15.0, all times are using device time.
+Before that TrackPoint.time contained GPS time (determined by GPS hardware).
+However, start/pause/stop events (also stored as TrackPoints) used device time.
+end note
+note right of Track
+A track is an ordered collection of one or more segments (i.e., continuous parts of distance covered).
+Segments may be started by a user (i.e., start a track recording, continue a paused track, or resume a track) as well as stopped by the user (i.e., pausing or stopping a recording).
+Also segments may started automatically while recording (i.e., distance to previous location was to large).
+Note that this finishes the previous segment.
+Segment data is stored as TrackPoints (Type.SEGMENT_START_MANUAL, Type.SEGMENT_START_AUTOMATIC, or Type.SEGMENT_END_MANUAL).
+Trackpoints with Type.SEGMENT_START_AUTOMATIC also mark the end of the previous segment.
+All TrackPoints of Type.TRACKPOINT belong to the segment started by the prior TrackPoint with Type.SEGMENT_START_(MANUAL|AUTOMATIC).
+Trackpoints of Type.SEGMENT_START_MANUAL or Type.SEGMENT_END_MANUAL do not contain location data or sensor data.
+Tracks recorded prior to OpenTracks version 3.15.0, do neither begin with a Type.SEGMENT_START_MANUAL nor end with a Type.SEGMENT_END_MANUAL.
+end note
+@enduml &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -1227,7 +1647,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -1237,6 +1658,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 # Account data callbacks
 Account data callbacks allow module developers to react to changes of the account data
 of local users. Account data callbacks can be registered using the module API's
@@ -1318,17 +1741,101 @@
             }
         )
 ```
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; use, Share &lt;/Actions&gt; &lt;Data Types&gt; account information &lt;/Data Types&gt; &lt;Purposes&gt; Functionality, account management &lt;/Purposes&gt; &lt;Stories&gt; 1. We use account information for functionality. We use account information for account management. We share account information for functionality. We share account information for account management.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; # Account data callbacks
+Account data callbacks allow module developers to react to changes of the account data
+of local users. Account data callbacks can be registered using the module API's
+`register_account_data_callbacks` method.
+## Callbacks
+The available account data callbacks are:
+### `on_account_data_updated`
+_First introduced in Synapse v1.57.0_
+```python
+async def on_account_data_updated(
+    user_id: str,
+    room_id: Optional[str],
+    account_data_type: str,
+    content: "synapse.module_api.JsonDict",
+) -&gt; None:
+```
+Called after user's account data has been updated. The module is given the
+Matrix ID of the user whose account data is changing, the room ID the data is associated
+with, the type associated with the change, as well as the new content. If the account
+data is not associated with a specific room, then the room ID is `None`.
+This callback is triggered when new account data is added or when the data associated with
+a given type (and optionally room) changes. This includes deletion, since in Matrix,
+deleting account data consists of replacing the data associated with a given type
+(and optionally room) with an empty dictionary (`{}`).
+Note that this doesn't trigger when changing the tags associated with a room, as these are
+processed separately by Synapse.
+If multiple modules implement this callback, Synapse runs them all in order.
+## Example
+The example below is a module that implements the `on_account_data_updated` callback, and
+sends an event to an audit room when a user changes their account data.
+```python
+import json
+import attr
+from typing import Any, Dict, Optional
+from synapse.module_api import JsonDict, ModuleApi
+from synapse.module_api.errors import ConfigError
+@attr.s(auto_attribs=True)
+class CustomAccountDataConfig:
+    audit_room: str
+    sender: str
+class CustomAccountDataModule:
+    def __init__(self, config: CustomAccountDataConfig, api: ModuleApi):
+        self.api = api
+        self.config = config
+        self.api.register_account_data_callbacks(
+            on_account_data_updated=self.log_new_account_data,
+        )
+    @staticmethod
+    def parse_config(config: Dict[str, Any]) -&gt; CustomAccountDataConfig:
+        def check_in_config(param: str):
+            if param not in config:
+                raise ConfigError(f"'{param}' is required")
+        check_in_config("audit_room")
+        check_in_config("sender")
+        return CustomAccountDataConfig(
+            audit_room=config["audit_room"],
+            sender=config["sender"],
+        )
+    async def log_new_account_data(
+        self,
+        user_id: str,
+        room_id: Optional[str],
+        account_data_type: str,
+        content: JsonDict,
+    ) -&gt; None:
+        content_raw = json.dumps(content)
+        msg_content = f"{user_id} has changed their account data for type {account_data_type} to: {content_raw}"
+        if room_id is not None:
+            msg_content += f" (in room {room_id})"
+        await self.api.create_and_send_event_into_room(
+            {
+                "room_id": self.config.audit_room,
+                "sender": self.config.sender,
+                "type": "m.room.message",
+                "content": {
+                    "msgtype": "m.text",
+                    "body": msg_content
+                }
+            }
+        )
+``` &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -1390,7 +1897,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -1400,6 +1908,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 # Account validity callbacks
 Account validity callbacks allow module developers to add extra steps to verify the
 validity on an account, i.e. see if a user can be granted access to their account on the
@@ -1439,17 +1949,59 @@
 Called after successfully login or registration of a user for cases when module needs to perform extra operations after auth.
 represented by their Matrix user ID.
 If multiple modules implement this callback, Synapse runs them all in order.
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; use &lt;/Actions&gt; &lt;Data Types&gt; account information &lt;/Data Types&gt; &lt;Purposes&gt; Security,account management, functionality &lt;/Purposes&gt; &lt;Stories&gt; 1. We use account information for security. We use account information for functionality. We use account information for account management.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; # Account validity callbacks
+Account validity callbacks allow module developers to add extra steps to verify the
+validity on an account, i.e. see if a user can be granted access to their account on the
+Synapse instance. Account validity callbacks can be registered using the module API's
+`register_account_validity_callbacks` method.
+The available account validity callbacks are:
+### `is_user_expired`
+_First introduced in Synapse v1.39.0_
+```python
+async def is_user_expired(user: str) -&gt; Optional[bool]
+```
+Called when processing any authenticated request (except for logout requests). The module
+can return a `bool` to indicate whether the user has expired and should be locked out of
+their account, or `None` if the module wasn't able to figure it out. The user is
+represented by their Matrix user ID (e.g. `@alice:example.com`).
+If the module returns `True`, the current request will be denied with the error code
+`ORG_MATRIX_EXPIRED_ACCOUNT` and the HTTP status code 403. Note that this doesn't
+invalidate the user's access token.
+If multiple modules implement this callback, they will be considered in order. If a
+callback returns `None`, Synapse falls through to the next one. The value of the first
+callback that does not return `None` will be used. If this happens, Synapse will not call
+any of the subsequent implementations of this callback.
+### `on_user_registration`
+_First introduced in Synapse v1.39.0_
+```python
+async def on_user_registration(user: str) -&gt; None
+```
+Called after successfully registering a user, in case the module needs to perform extra
+operations to keep track of them. (e.g. add them to a database table). The user is
+represented by their Matrix user ID.
+If multiple modules implement this callback, Synapse runs them all in order.
+### `on_user_login`
+_First introduced in Synapse v1.98.0_
+```python
+async def on_user_login(user_id: str, auth_provider_type: str, auth_provider_id: str) -&gt; None
+```
+Called after successfully login or registration of a user for cases when module needs to perform extra operations after auth.
+represented by their Matrix user ID.
+If multiple modules implement this callback, Synapse runs them all in order. &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -1511,7 +2063,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -1521,6 +2074,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 # Password auth provider callbacks
 Password auth providers offer a way for server administrators to integrate
 their Synapse installation with an external authentication system. The callbacks can be
@@ -1759,17 +2314,258 @@
         if self.credentials.get(username) == login_dict.get("password"):
             return (self.api.get_qualified_user_id(username), None)
 ```
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; Collect, use &lt;/Actions&gt; &lt;Data Types&gt; account information, email address, phone number &lt;/Data Types&gt; &lt;Purposes&gt; functionality, account management &lt;/Purposes&gt; &lt;Stories&gt; 1. We collect account information, email address and phone number for functionality. We collect account information, email address and phone number for account management. We use account information, email address and phone number for functionality.   We use account information, email address and phone number for account management.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; # Password auth provider callbacks
+Password auth providers offer a way for server administrators to integrate
+their Synapse installation with an external authentication system. The callbacks can be
+registered by using the Module API's `register_password_auth_provider_callbacks` method.
+## Callbacks
+### `auth_checkers`
+_First introduced in Synapse v1.46.0_
+```python
+auth_checkers: Dict[Tuple[str, Tuple[str, ...]], Callable]
+```
+A dict mapping from tuples of a login type identifier (such as `m.login.password`) and a
+tuple of field names (such as `("password", "secret_thing")`) to authentication checking
+callbacks, which should be of the following form:
+```python
+async def check_auth(
+    user: str,
+    login_type: str,
+    login_dict: "synapse.module_api.JsonDict",
+) -&gt; Optional[
+    Tuple[
+        str, 
+        Optional[Callable[["synapse.module_api.LoginResponse"], Awaitable[None]]]
+    ]
+]
+```
+The login type and field names should be provided by the user in the
+request to the `/login` API. [The Matrix specification](https://matrix.org/docs/spec/client_server/latest#authentication-types)
+defines some types, however user defined ones are also allowed.
+The callback is passed the `user` field provided by the client (which might not be in
+`@username:server` form), the login type, and a dictionary of login secrets passed by
+the client.
+If the authentication is successful, the module must return the user's Matrix ID (e.g. 
+`@alice:example.com`) and optionally a callback to be called with the response to the
+`/login` request. If the module doesn't wish to return a callback, it must return `None`
+instead.
+If the authentication is unsuccessful, the module must return `None`.
+Note that the user is not automatically registered, the `register_user(..)` method of
+the [module API](writing_a_module.html) can be used to lazily create users.
+If multiple modules register an auth checker for the same login type but with different
+fields, Synapse will refuse to start.
+If multiple modules register an auth checker for the same login type with the same fields,
+then the callbacks will be executed in order, until one returns a Matrix User ID (and
+optionally a callback). In that case, the return value of that callback will be accepted
+and subsequent callbacks will not be fired. If every callback returns `None`, then the
+authentication fails.
+\} 
+{#s (a: collect, use) (dt: Account data, Username, password, email ) (p: Log in)
+### `check_3pid_auth`
+_First introduced in Synapse v1.46.0_
+```python
+async def check_3pid_auth(
+    medium: str, 
+    address: str,
+    password: str,
+) -&gt; Optional[
+    Tuple[
+        str, 
+        Optional[Callable[["synapse.module_api.LoginResponse"], Awaitable[None]]]
+    ]
+]
+```
+Called when a user attempts to register or log in with a third party identifier,
+such as email. It is passed the medium (eg. `email`), an address (eg. `jdoe@example.com`)
+and the user's password.
+If the authentication is successful, the module must return the user's Matrix ID (e.g. 
+`@alice:example.com`) and optionally a callback to be called with the response to the `/login` request.
+If the module doesn't wish to return a callback, it must return None instead.
+If the authentication is unsuccessful, the module must return `None`.
+If multiple modules implement this callback, they will be considered in order. If a
+callback returns `None`, Synapse falls through to the next one. The value of the first
+callback that does not return `None` will be used. If this happens, Synapse will not call
+any of the subsequent implementations of this callback. If every callback returns `None`,
+the authentication is denied.
+\} 
+{#s (a: collect, use) (dt: Account data, Username, password ) (p: Log out)
+### `on_logged_out`
+_First introduced in Synapse v1.46.0_
+```python
+async def on_logged_out(
+    user_id: str,
+    device_id: Optional[str],
+    access_token: str
+) -&gt; None
+``` 
+Called during a logout request for a user. It is passed the qualified user ID, the ID of the
+deactivated device (if any: access tokens are occasionally created without an associated
+device ID), and the (now deactivated) access token.
+Deleting the related pushers is done after calling `on_logged_out`, so you can rely on them
+to still be present.
+If multiple modules implement this callback, Synapse runs them all in order.
+\} 
+{#s (a: collect, use) (dt: Account data, Username, password, email ) (p: Account open)
+### `get_username_for_registration`
+_First introduced in Synapse v1.52.0_
+```python
+async def get_username_for_registration(
+    uia_results: Dict[str, Any],
+    params: Dict[str, Any],
+) -&gt; Optional[str]
+```
+Called when registering a new user. The module can return a username to set for the user
+being registered by returning it as a string, or `None` if it doesn't wish to force a
+username for this user. If a username is returned, it will be used as the local part of a
+user's full Matrix ID (e.g. it's `alice` in `@alice:example.com`).
+This callback is called once [User-Interactive Authentication](https://spec.matrix.org/latest/client-server-api/#user-interactive-authentication-api)
+has been completed by the user. It is not called when registering a user via SSO. It is
+passed two dictionaries, which include the information that the user has provided during
+the registration process.
+The first dictionary contains the results of the [User-Interactive Authentication](https://spec.matrix.org/latest/client-server-api/#user-interactive-authentication-api)
+flow followed by the user. Its keys are the identifiers of every step involved in the flow,
+associated with either a boolean value indicating whether the step was correctly completed,
+or additional information (e.g. email address, phone number...). A list of most existing
+identifiers can be found in the [Matrix specification](https://spec.matrix.org/v1.1/client-server-api/#authentication-types).
+Here's an example featuring all currently supported keys:
+```python
+{
+    "m.login.dummy": True,  # Dummy authentication
+    "m.login.terms": True,  # User has accepted the terms of service for the homeserver
+    "m.login.recaptcha": True,  # User has completed the recaptcha challenge
+    "m.login.email.identity": {  # User has provided and verified an email address
+        "medium": "email",
+        "address": "alice@example.com",
+        "validated_at": 1642701357084,
+    },
+    "m.login.msisdn": {  # User has provided and verified a phone number
+        "medium": "msisdn",
+        "address": "33123456789",
+        "validated_at": 1642701357084,
+    },
+    "m.login.registration_token": "sometoken",  # User has registered through a registration token
+}
+```
+The second dictionary contains the parameters provided by the user's client in the request
+to `/_matrix/client/v3/register`. See the [Matrix specification](https://spec.matrix.org/latest/client-server-api/#post_matrixclientv3register)
+for a complete list of these parameters.
+If the module cannot, or does not wish to, generate a username for this user, it must
+return `None`.
+If multiple modules implement this callback, they will be considered in order. If a
+callback returns `None`, Synapse falls through to the next one. The value of the first
+callback that does not return `None` will be used. If this happens, Synapse will not call
+any of the subsequent implementations of this callback. If every callback returns `None`,
+the username provided by the user is used, if any (otherwise one is automatically
+generated).
+### `get_displayname_for_registration`
+_First introduced in Synapse v1.54.0_
+```python
+async def get_displayname_for_registration(
+    uia_results: Dict[str, Any],
+    params: Dict[str, Any],
+) -&gt; Optional[str]
+```
+Called when registering a new user. The module can return a display name to set for the
+user being registered by returning it as a string, or `None` if it doesn't wish to force a
+display name for this user.
+This callback is called once [User-Interactive Authentication](https://spec.matrix.org/latest/client-server-api/#user-interactive-authentication-api)
+has been completed by the user. It is not called when registering a user via SSO. It is
+passed two dictionaries, which include the information that the user has provided during
+the registration use. These dictionaries are identical to the ones passed to
+[`get_username_for_registration`](#get_username_for_registration), so refer to the
+documentation of this callback for more information about them.
+If multiple modules implement this callback, they will be considered in order. If a
+callback returns `None`, Synapse falls through to the next one. The value of the first
+callback that does not return `None` will be used. If this happens, Synapse will not call
+any of the subsequent implementations of this callback. If every callback returns `None`,
+the username will be used (e.g. `alice` if the user being registered is `@alice:example.com`).
+\} 
+{#s (a: collect, use) (dt: Phone number, email, username, password ) (p: Log in)
+## `is_3pid_allowed`
+_First introduced in Synapse v1.53.0_
+```python
+async def is_3pid_allowed(self, medium: str, address: str, registration: bool) -&gt; bool
+```
+Called when attempting to bind a third-party identifier (i.e. an email address or a phone
+number). The module is given the medium of the third-party identifier (which is `email` if
+the identifier is an email address, or `msisdn` if the identifier is a phone number) and
+its address, as well as a boolean indicating whether the attempt to bind is happening as
+part of registering a new user. The module must return a boolean indicating whether the
+identifier can be allowed to be bound to an account on the local homeserver.
+If multiple modules implement this callback, they will be considered in order. If a
+callback returns `True`, Synapse falls through to the next one. The value of the first
+callback that does not return `True` will be used. If this happens, Synapse will not call
+any of the subsequent implementations of this callback.
+## Example
+The example module below implements authentication checkers for two different login types: 
+-  `my.login.type` 
+    - Expects a `my_field` field to be sent to `/login`
+    - Is checked by the method: `self.check_my_login`
+- `m.login.password` (defined in [the spec](https://matrix.org/docs/spec/client_server/latest#password-based))
+    - Expects a `password` field to be sent to `/login`
+    - Is checked by the method: `self.check_pass`
+```python
+from typing import Awaitable, Callable, Optional, Tuple
+import synapse
+from synapse import module_api
+class MyAuthProvider:
+    def __init__(self, config: dict, api: module_api):
+        self.api = api
+        self.credentials = {
+            "bob": "building",
+            "@scoop:matrix.org": "digging",
+        }
+        api.register_password_auth_provider_callbacks(
+            auth_checkers={
+                ("my.login_type", ("my_field",)): self.check_my_login,
+                ("m.login.password", ("password",)): self.check_pass,
+            },
+        )
+    async def check_my_login(
+        self,
+        username: str,
+        login_type: str,
+        login_dict: "synapse.module_api.JsonDict",
+    ) -&gt; Optional[
+        Tuple[
+            str,
+            Optional[Callable[["synapse.module_api.LoginResponse"], Awaitable[None]]],
+        ]
+    ]:
+        if login_type != "my.login_type":
+            return None
+        if self.credentials.get(username) == login_dict.get("my_field"):
+            return (self.api.get_qualified_user_id(username), None)
+    async def check_pass(
+        self,
+        username: str,
+        login_type: str,
+        login_dict: "synapse.module_api.JsonDict",
+    ) -&gt; Optional[
+        Tuple[
+            str,
+            Optional[Callable[["synapse.module_api.LoginResponse"], Awaitable[None]]],
+        ]
+    ]:
+        if login_type != "m.login.password":
+            return None
+        if self.credentials.get(username) == login_dict.get("password"):
+            return (self.api.get_qualified_user_id(username), None)
+``` &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -1831,7 +2627,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -1841,6 +2638,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 This page was a draft. See
 {#s    
 TracDev/DatabaseSchema/NotificationSystem
@@ -2011,17 +2810,190 @@
 columns?
 These are not really needed.
 /}
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; Collect, Use, Collect, Use &lt;/Actions&gt; &lt;Data Types&gt; Email, Usage Data, Email, Usage Data &lt;/Data Types&gt; &lt;Purposes&gt; Functionality, Authentication, Functionality, Authentication &lt;/Purposes&gt; &lt;Stories&gt; 1. We collect email address and Usage Data for functionality. We collect email addressand usage data for authentication. We use email address and usage data for functionality.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; This page was a draft. See
+{#s    
+TracDev/DatabaseSchema/NotificationSystem
+page now.
+The
+Open questions
+section might still contain unimplemented ideas.
+Table
+notify_subscription
+Table
+notify_watch
+Open Questions
+Trac Database Schema: Notification
+The
+TracNotification
+module stores notification event subscriptions in the database.
+Table
+notify_subscription
+Table
+Key
+notify_subscription
+id
+Columns
+Type
+Notes
+id
+auto_increment
+time
+int64
+changetime
+int64
+class
+The name of the Python class that stored this subscription.
+sid
+The
+session
+ID of the subscriber.
+authenticated
+int
+1
+for authenticated session IDs,
+0
+for anonymous session IDs
+distributor
+Identifies the distributor to used for this subscription (e.g.
+email
+)
+format
+Identifies the MIME type to be used for this subscription (e.g.
+text/plain
+or
+text/html
+)
+priority
+int
+Precedence level of this subscription. E.g.
+1
+overrules
+2
+.
+adverb
+always
+or
+never
+Indices
+sid
+,
+authenticated
+class
+Stores if a subscription rule always/never applies for a certain user, at what priority and using what distribution method/format.
+Use the
+trac.notification.model.Subscription
+model class to access this table.
+Note that this table does not store an (email) address, but the commonly used subscription tuple has an additional item
+addr
+. Usually such tuples that correspond to entries in this DB table contain a
+addr
+of
+None
+. Other tuples may contain an (email) address (e.g. retrieved from  a ticket CC field) but are missing the
+sid
+item instead.
+See
+trac.notification.model.Subscription
+​
+Table
+notify_watch
+Table
+Key
+notify_watch
+id
+Columns
+Type
+Notes
+id
+auto_increment
+sid
+The session ID of the subscriber.
+authenticated
+int
+1
+for authenticated session IDs,
+0
+for anonymous session IDs
+class
+The name of the Python class that stored this watch.
+realm
+The realm of this subscription (e.g.
+ticket
+).
+target
+The target of this subscription (e.g. a ticket id).
+Indices
+sid
+,
+authenticated
+,
+class
+class
+,
+realm
+,
+target
+Stores watches to identify the target resource(s) of a subscription (e.g. a watched ticket's id, wiki page filters, joined groups, etc.)
+Use the
+trac.notification.model.Watch
+model class to access this table.
+See
+trac.notification.model.Watch
+​
+Open Questions
+Rename
+class
+column?
+Something like
+rule
+might be more appropriate.
+See also
+INotificationSubscriber
+.
+Rename
+distributor
+column?
+transport
+might be more consistent.
+Rename tables?
+The current table names are taken from the
+​
+th:AnnouncerPlugin
+.
+Would this cause problems for users that already used that plugin?
+DONE
+Renamed
+subscription
+to
+notify_subscription
+.
+DONE
+Renamed
+subscription_attribute
+to
+notify_watch
+.
+Remove
+time
+and
+changetime
+columns?
+These are not really needed.
+/} &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -2083,7 +3055,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -2093,6 +3066,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 This page was a draft. See
 TracDev/PluginDevelopment/ExtensionPoints/trac.notification.api.INotificationDistributor
 page now.
@@ -2350,17 +3325,277 @@
 distribute()
 .
 /}
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; Collect, Use, Collect, Use &lt;/Actions&gt; &lt;Data Types&gt; Email Address, username, app interactions, session ID &lt;/Data Types&gt; &lt;Purposes&gt; Functionality, Security, Functionality, security &lt;/Purposes&gt; &lt;Stories&gt; 1. We use session ID and app interactions  for security. We collect app interactions and session ID for functionality.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; This page was a draft. See
+TracDev/PluginDevelopment/ExtensionPoints/trac.notification.api.INotificationDistributor
+page now.
+{#s   
+Extension Point :
+INotificationDistributor
+Interface
+INotificationDistributor
+Since
+1.1.3
+Module
+trac.notification
+Source
+api.py
+​
+The
+INotificationDistributor
+sends
+notification
+events over some distribution channel, like email.
+Purpose
+Trac provides an extendible and flexible notification system, that historically has sent notifications by email. Notifications could however also be distributed by XMPP, SMS or any other messaging protocol.
+Usage
+Implementing the interface follows the standard guidelines found in
+TracDev/ComponentArchitecture
+and of course
+TracDev/PluginDevelopment
+.
+A simple
+transports()
+method lists the names of the supported transports (protocols / distribution channels). The
+distribute()
+method distributes a message to one or more recipients. It receives the following parameters:
+transport
+: The name of the transports that should be used. One of those returned by
+transports()
+.
+recipients
+: A list of
+(sid, authenticated, address, format)
+tuples.
+sid
+: The Trac session ID of the recipient (or
+None
+).
+authenticated
+:
+1
+if the Trac session ID is authenticated,
+0
+otherwise.
+address
+: A protocol specific address to send the notification to. If it is
+None
+the implementation might still be able to send the message to the recipient using the
+sid
+/
+authenticated
+information somehow. (E.g. the
+EmailDistributor
+falls back to
+IEmailAddressResolver
+implementations.)
+format
+: MIME type of the message format to be used.
+event
+: A
+trac.notification.api.NotificationEvent
+instance describing the event about which the recipients should be notified.
+The
+event
+is supposed to be formatted into a message in the given
+format
+using a
+INotificationFormatter
+.
+Examples
+The following example distributes notifications by SMS. (The
+sms
+library does not exist. Several commercial SMS services provide real APIs.)
+from
+itertools
+import
+groupby
+from
+operator
+import
+itemgetter
+from
+trac.core
+import
+*
+from
+trac.notification.api
+import
+INotificationDistributor
+,
+\
+INotificationFormatter
+import
+sms
+class
+SmsNotificationDistributor
+(
+Component
+):
+implements
+(
+INotificationDistributor
+)
+formatters
+=
+ExtensionPoint
+(
+INotificationFormatter
+)
+# INotificationDistributor methods
+def
+transports
+(
+self
+):
+return
+[
+'sms'
+]
+def
+distribute
+(
+self
+,
+transport
+,
+recipients
+,
+event
+):
+if
+transport
+!=
+'sms'
+:
+return
+# Group by message format:
+for
+format
+,
+group
+in
+groupby
+(
+recipients
+,
+itemgetter
+(
+3
+)):
+formatter
+=
+None
+for
+f
+in
+self
+.
+formatters
+:
+for
+style
+in
+f
+.
+styles
+(
+transport
+,
+event
+.
+realm
+):
+if
+style
+==
+format
+:
+formatter
+=
+f
+if
+formatter
+:
+message
+=
+formatter
+.
+format
+(
+transport
+,
+format
+,
+event
+)
+for
+sid
+,
+authenticated
+,
+address
+,
+format
+in
+group
+:
+if
+address
+:
+sms
+.
+send
+(
+message
+,
+address
+)
+Available Implementations
+Only
+trac.notification.mail.EmailDistributor
+is part of core Trac.
+XmppDistributor
+will be part of
+​
+th:AnnouncerPlugin
+.
+Additional Information and References
+​
+epydoc
+​
+API Reference
+Related to the
+INotificationFormatter
+This interface originated in
+​
+th:AnnouncerPlugin
+as
+IAnnouncementDistributor
+.
+DONE
+IAnnouncerDistributor
+had no
+format
+in the
+recipients
+parameter to
+distribute()
+.
+/} &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -2422,7 +3657,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -2432,6 +3668,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 This page was a draft. See
 TracDev/PluginDevelopment/ExtensionPoints/trac.notification.api.INotificationSubscriber
 page now.
@@ -2710,17 +3948,298 @@
 rule
 string.
 /}
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; Collect, Use, Collect, Use &lt;/Actions&gt; &lt;Data Types&gt; messages, username, messages, username &lt;/Data Types&gt; &lt;Purposes&gt; Functionality, Customization, Security, Functionality, Customization, Security &lt;/Purposes&gt; &lt;Stories&gt; 1. we collect messages, username for security. We use messages, username for customization.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; This page was a draft. See
+TracDev/PluginDevelopment/ExtensionPoints/trac.notification.api.INotificationSubscriber
+page now.
+{#s   
+The
+Open questions
+section might still contain unimplemented ideas.
+Extension Point :
+INotificationSubscriber
+Interface
+INotificationSubscriber
+Since
+1.1.3
+Module
+trac.notification
+Source
+api.py
+​
+The
+INotificationSubscriber
+subscribes users to
+notification
+events.
+Purpose
+Trac provides an extendible and flexible notification system. Different people are interested in different kinds of notifications. Notification subscriptions allow administrators and / or users to configure the exact rules used that trigger sending of notifications.
+Usage
+Implementing the interface follows the standard guidelines found in
+TracDev/ComponentArchitecture
+and of course
+TracDev/PluginDevelopment
+.
+The main part of this interface is the
+match()
+function. It returns a list of subscriptions, in the form of tuples consisting of:
+class
+: The name of the Python class. (This could probably be removed.)
+distributor
+: Also known as
+transport
+. E.g. the string
+email
+. See
+INotificationDistributor
+.
+sid
+: The session ID of the subscriber. (Can be
+None
+if
+address
+is provided.)
+authenticated
+:
+1
+for authenticated session IDs,
+0
+for anonymous session IDs.
+address
+: The (email) address to use. (Can be
+None
+if
+sid
+is provided.)
+format
+: The MIME type to be used (e.g.
+text/plain
+or
+text/html
+.)
+priority
+: An integer priority. Smaller numbers have higher priority than bigger numbers.
+1
+is the highest priority.
+adverb
+: Either the string
+always
+or
+never
+.
+Since more than one component can handle the same realms and categories, the priorities and adverbs are used to resolve conflicting subscriptions.
+The implementation can use any means to determine if a user is interested in hearing about a given event.
+Most check that the appropriate conditions apply and then retrieve the required information from the
+subscription
+DB table.
+The subscriptions in that table are configured in a shared preferences panel that uses two other methods of this interface:
+The simple
+description()
+method returns a description string shown to the user in the preferences panel (or
+None
+if the plugin does use the
+subscriptions
+DB table.)
+The
+requires_authentication()
+method allows hiding the rule from unauthenticated users. (E.g. because only authenticated users can be ticket owners.)
+The
+default_subscriptions()
+method describes any  default subscriptions that automatically exist without the user configuring
+subscription
+DB entries in the preferences.
+These are also displayed on the preferences panel, but can not be directly modified there. (They usually can be overriden by non-default subscriptions.)
+The plugin still has to return the respective subscriptions from the
+matches()
+method.
+Default descriptions should be used when users can be determined by the event itself.
+For instance, ticket author has a default subscription that is controlled via trac.ini.
+Default subscriptions should be low priority (i.e. have a priority number much larger than
+1
+, like 100) so that the user can easily override them.
+Examples
+The following example implements a simple subscriber that can trigger notifications when a new ticket is created with a high priority level.
+from
+trac.core
+import
+*
+from
+trac.notification.api
+import
+INotificationSubscriber
+from
+trac.notification.model
+import
+Subscription
+class
+HighPriorityTicketNotificationSubscriber
+(
+Component
+):
+implements
+(
+INotificationSubscriber
+)
+# INotificationSubscriber methods
+def
+matches
+(
+self
+,
+event
+):
+if
+event
+.
+realm
+!=
+'ticket'
+:
+return
+if
+event
+.
+category
+!=
+'created'
+:
+return
+ticket
+=
+event
+.
+target
+if
+ticket
+[
+'priority'
+]
+not
+in
+(
+'blocker'
+,
+'critical'
+,
+'major'
+):
+return
+klass
+=
+self
+.
+__class__
+.
+__name__
+for
+i
+in
+Subscription
+.
+find_by_class
+(
+self
+.
+env
+,
+klass
+):
+yield
+i
+.
+subscription_tuple
+()
+def
+description
+(
+self
+):
+return
+"notify me when new high priority tickets are created"
+def
+requires_authentication
+(
+self
+):
+return
+False
+Available Implementations
+Several implementations are part of core Trac:
+trac.ticket.notification.AllTicketSubscriber
+Allows anyone to subscribe to all ticket change notifications.
+trac.ticket.notification.TicketOwnerSubscriber
+Allows ticket owners to subscribe to (or unsubscribe from) change notifications for owned tickets.
+trac.ticket.notification.TicketComponentOwnerSubscriber
+Allows component owners to subscribe to (or unsubscribe from) change notifications for tickets assigned to owned component.
+trac.ticket.notification.TicketUpdaterSubscriber
+Allows anyone to subscribe to (or unsubscribe from) change notifications for their own ticket changes.
+trac.ticket.notification.TicketReporterSubscriber
+Allows ticket reporters to subscribe to (or unsubscribe from) change notifications for tickets they created.
+trac.ticket.notification.CarbonCopySubscriber
+Allows anyone to subscribe to (or unsubscribe from) change notifications for tickets where they are listed in CC.
+Additional Information and References
+​
+epydoc
+​
+API Reference
+The precursor of this interface was
+IAnnouncementSubscriber
+from the
+​
+th:AnnouncerPlugin
+.
+DONE
+The
+IAnnouncementDefaultSubscriber
+from the
+​
+th:AnnouncerPlugin
+was also folded into this interface.
+Open Questions
+Merge
+description()
+and
+requires_authentication()
+These methods are both only used in the preferences panel.
+Merging them could be easier to understand and more flexible, allowing different requirement checks:
+def get_subscription_preference_description(self, req):
+        if req.is_authenticated and 'TICKET_ADMIN' in req.perm:
+            return "notify me when an admin is needed"
+Remove
+class
+name
+The
+class
+item could be removed from the tuple returned by
+matches()
+. It's not really needed and clutters up each plugin with ugly
+klass = self.__class__.__name__
+lines.
+Counter-arguments:
+It helps debugging and can be logged.
+But if that's needed the
+NotificationSystem
+should do so, to avoid mistakes and simplify plugins.
+The
+subscription
+DB table requires that anyway.
+But it should be replaced there as well, e.g. by a freely chosen
+rule
+string.
+/} &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -2782,7 +4301,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -2792,6 +4312,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 Email and password
 Zulip's default EmailAuthBackend authenticates users by verifying control over their email address, and then allowing them to set a password for their account. There are two development environment details worth understanding:
 All of our authentication flows in the development environment have special links to the /emails page (advertised in /devtools), which shows all emails that the Zulip server has "sent" (emails are not actually sent by the development environment), to make it convenient to click through the UI of signup, password reset, etc.
@@ -2859,17 +4381,87 @@
 As discussed above, it is impossible for a single app in the Google or Apple store to receive push notifications from multiple, mutually untrusted, servers. The Mobile Push Notification Service is one of the possible solutions to this problem.
 The other possible solution is for an individual Zulip server's administrators to build and distribute their own copy of the Zulip mobile apps, hardcoding a key that they possess. This solution is possible with Zulip, but it requires the server administrators to publish their own copies of the Zulip mobile apps. There's nothing the Zulip team can do to eliminate this onerous requirement.
 The main work is thus distributing your own copies of the Zulip mobile apps configured to use APNS/FCM keys that you generate. This is not for the faint of heart! If you haven't done this before, be warned that one can easily spend hundreds of dollars (on things like a DUNS number registration) and a week struggling through the hoops Apple requires to build and distribute an app through the Apple app store, even if you're making no code modifications to an app already present in the store (as would be the case here). The Zulip mobile app also gets frequent updates that you will have to either forgo or republish to the app stores yourself.
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; collect,use  &lt;/Actions&gt; &lt;Data Types&gt; usage data &lt;/Data Types&gt; &lt;Purposes&gt; tracking, security &lt;/Purposes&gt; &lt;Stories&gt; 1. We collect usage data for security. We use usage data for tracking.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; Email and password
+Zulip's default EmailAuthBackend authenticates users by verifying control over their email address, and then allowing them to set a password for their account. There are two development environment details worth understanding:
+All of our authentication flows in the development environment have special links to the /emails page (advertised in /devtools), which shows all emails that the Zulip server has "sent" (emails are not actually sent by the development environment), to make it convenient to click through the UI of signup, password reset, etc.
+There's a management command, manage.py print_initial_password username@example.com, that prints out default passwords for the development environment users. Note that if you change a user's password in the development environment, those passwords will no longer work. It also prints out the user's current API key.
+Security and privacy
+Use of the push notification bouncer is subject to the Zulip Cloud Terms of Service, Privacy Policy and Rules of Use. By using push notifications, you agree to these terms.
+We've designed this push notification bouncer service with security and privacy in mind:
+A central design goal of the Push Notification Service is to avoid any message content being stored or logged by the service, even in error cases.
+The Push Notification Service only stores the necessary metadata for delivering the notifications to the appropriate devices and otherwise operating the service:
+The APNS/FCM tokens needed to securely send mobile push notifications to iOS and Android devices, one per device registered to be notified by your Zulip server.
+User ID numbers generated by your Zulip server, needed to route a given notification to the appropriate set of mobile devices. These user ID numbers are opaque to the Push Notification Service and Kandra Labs.
+Basic organization metadata, optional usage statistics, and aggregate statistics about how many push notifications are sent by each customer.
+The Push Notification Service receives (but does not store) the contents of individual mobile push notifications:
+The numeric message ID generated by your Zulip server.
+Metadata on the message's sender (name and avatar URL).
+Metadata on the message's recipient (channel name + ID, topic, direct message recipients, etc.).
+A timestamp.
+The message's content.
+There's a PUSH_NOTIFICATION_REDACT_CONTENT setting available to disable any message content being sent via the push notification bouncer (i.e., message content will be replaced with New message). Note that this setting makes push notifications significantly less usable.
+We plan to replace that setting with end-to-end encryption which would eliminate that usability tradeoff and additionally allow us to not have any access to the other details mentioned in this section.
+All of the network requests (both from Zulip servers to the Push Notification Service and from the Push Notification Service to the relevant Google and Apple services) are encrypted over the wire with SSL/TLS.
+The code for the push notification forwarding service is 100% open source and available as part of the Zulip server project on GitHub (specifically, here).
+The push notification forwarding servers are professionally managed by a small team of security-sensitive engineers.
+If you have any questions about the security model, contact Zulip support.
+Uploading basic metadata
+All Zulip installations running Zulip 8.0 or greater that are registered for the Mobile Push Notification Service regularly upload to the service basic metadata about the organizations hosted by the installation. (Older Zulip servers upload these metadata only if uploading usage statistics is enabled).
+Uploaded metadata consists of, for each organization hosted by the installation:
+A subset of the basic metadata returned by the unauthenticated GET /server_settings API endpoint.
+The purpose of that API endpoint is to serve the minimal data needed by the Zulip mobile apps in order to:
+Verify that a given URL is indeed a valid Zulip server URL
+Present a correct login form, offering only the supported features and authentication methods for that organization and Zulip server version.
+Most of the metadata it returns is necessarily displayed to anyone with network access to the Zulip server on the login and signup pages for your Zulip organization as well.
+(Some fields returned by this endpoint, like the organization icon and description, are not included in uploaded metadata.)
+The organization type and creation date.
+The number of user accounts with each role.
+Our use of uploaded metadata is governed by the same Terms of Service and Privacy Policy that covers the Mobile Push Notification Service itself.
+Uploading usage statistics
+By default, Zulip installations that register for the Mobile Push Notification Service upload the following usage statistics. You can disable these uploads any time by setting ZULIP_SERVICE_SUBMIT_USAGE_STATISTICS=False in /etc/zulip/settings.py.
+Totals for messages sent and read with subtotals for various combinations of clients and integrations.
+Totals for active users under a few definitions (1day, 7day, 15day) and related statistics.
+Some of the graphs on your server's usage statistics page can be generated from these statistics.
+When enabled, usage statistics are submitted via an hourly cron job. If you'd like to access plan management immediately after enabling SUBMIT_USAGE_STATISTICS=True (the legacy form of this setting) on a pre-8.0 Zulip server, you can run the analytics job manually via:
+/home/zulip/deployments/current/manage.py update_analytics_counts
+Our use of uploaded usage statistics is governed by the same Terms of Service and Privacy Policy that covers the Mobile Push Notification Service itself.
+Rate limits
+The Mobile Push Notification Service API has a very high default rate limit of 1000 requests per minute. A Zulip server makes requests to this API every time it sends a push notification, which is fairly frequent, but we believe it to be unlikely that a self-hosted installation will hit this limit.
+This limit is primarily intended to protect the service against DoS attacks (intentional or otherwise). If you hit this limit or you anticipate that your server will require sending more push notifications than the limit permits, please contact support.
+Updating your server's registration
+Your server's registration includes the server's hostname and contact email address (from EXTERNAL_HOST and ZULIP_ADMINISTRATOR in /etc/zulip/settings.py, aka the --hostname and --email options in the installer). You can update your server's registration data by running manage.py register_server again.
+If you'd like to rotate your server's API key for this service (zulip_org_key), you need to use manage.py register_server --rotate-key option; it will automatically generate a new zulip_org_key and store that new key in /etc/zulip/zulip-secrets.conf.
+Deactivating your server's registration
+If you are deleting your Zulip server or otherwise no longer want to use the Mobile Push Notification Service, you can deactivate your server's registration.
+Cancel any paid plans associated with your server.
+Run the deregistration command. If you installed Zulip directly on the server (without Docker), run as root:
+su zulip -c '/home/zulip/deployments/current/manage.py register_server --deactivate'
+Or if you're using Docker, run:
+docker exec -it -u zulip &lt;container_name&gt; /home/zulip/deployments/current/manage.py register_server --deactivate
+Comment out the ZULIP_SERVICE_PUSH_NOTIFICATIONS = True line in your /etc/zulip/settings.py file (i.e., add #  at the start of the line), and restart your Zulip server.
+If you ever need to reactivate your server's registration, contact Zulip support.
+Pausing use of the Mobile Push Notification Service
+You can temporarily stop using the Mobile Push Notification Service. Comment out the PUSH_NOTIFICATION_BOUNCER_URL = 'https://push.zulipchat.com' line in your /etc/zulip/settings.py file (i.e., add #  at the start of the line), and restart your Zulip server. This approach makes it easy to start using the service again by uncommenting the same line.
+Sending push notifications directly from your server
+This section documents an alternative way to send push notifications that does not involve using the Mobile Push Notification Service at the cost of needing to compile and distribute modified versions of the Zulip mobile apps.
+We don't recommend this path -- patching and shipping a production mobile app can take dozens of hours to set up even for an experienced developer, and even more time to maintain. And it doesn't provide material privacy benefits -- your organization's push notification data would still go through Apple/Google's servers, just not Kandra Labs'. But in the interest of transparency, we document in this section roughly what's involved in doing so.
+As discussed above, it is impossible for a single app in the Google or Apple store to receive push notifications from multiple, mutually untrusted, servers. The Mobile Push Notification Service is one of the possible solutions to this problem.
+The other possible solution is for an individual Zulip server's administrators to build and distribute their own copy of the Zulip mobile apps, hardcoding a key that they possess. This solution is possible with Zulip, but it requires the server administrators to publish their own copies of the Zulip mobile apps. There's nothing the Zulip team can do to eliminate this onerous requirement.
+The main work is thus distributing your own copies of the Zulip mobile apps configured to use APNS/FCM keys that you generate. This is not for the faint of heart! If you haven't done this before, be warned that one can easily spend hundreds of dollars (on things like a DUNS number registration) and a week struggling through the hoops Apple requires to build and distribute an app through the Apple app store, even if you're making no code modifications to an app already present in the store (as would be the case here). The Zulip mobile app also gets frequent updates that you will have to either forgo or republish to the app stores yourself. &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -2931,7 +4523,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -2941,6 +4534,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 &lt;PI&gt;
 {#s   
 # Adding and removing ThreePids to an account
@@ -3179,17 +4774,258 @@
 ```
 Note that the phone number is provided without `+`, but with the country code.
 /}
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; Collect, Use, Delete, Collect, Use &lt;/Actions&gt; &lt;Data Types&gt; Email address, User ID, Login Information, mobile number, Email address, User ID, phone number &lt;/Data Types&gt; &lt;Purposes&gt; Contact, Accounts, Functionality, Contact, Account management, Functionality &lt;/Purposes&gt; &lt;Stories&gt; 1. We collect Email Address, User ID, phone number to contact. We use Email address, User ID, phone number number for account management. We use Email address, User ID, phone number number for functionality.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; &lt;PI&gt;
+{#s   
+# Adding and removing ThreePids to an account
+&lt;!--- TOC --&gt;
+* [Add email](#add-email)
+  * [User enter the email](#user-enter-the-email)
+    * [The email is already added to an account](#the-email-is-already-added-to-an-account)
+    * [The email is free](#the-email-is-free)
+* [User receives an e-mail](#user-receives-an-e-mail)
+  * [User clicks on the link](#user-clicks-on-the-link)
+  * [User returns on Element](#user-returns-on-element)
+  * [User enters his password](#user-enters-his-password)
+    * [The link has not been clicked](#the-link-has-not-been-clicked)
+    * [Wrong password](#wrong-password)
+    * [The link has been clicked and the account password is correct](#the-link-has-been-clicked-and-the-account-password-is-correct)
+* [Remove email](#remove-email)
+  * [User want to remove an email from his account](#user-want-to-remove-an-email-from-his-account)
+    * [Email was not bound to an identity server](#email-was-not-bound-to-an-identity-server)
+    * [Email was bound to an identity server](#email-was-bound-to-an-identity-server)
+* [Add phone number](#add-phone-number)
+    * [The phone number is already added to an account](#the-phone-number-is-already-added-to-an-account)
+    * [The phone number is free](#the-phone-number-is-free)
+* [User receive a text message](#user-receive-a-text-message)
+  * [User enter the code to the app](#user-enter-the-code-to-the-app)
+    * [Wrong code](#wrong-code)
+    * [Correct code](#correct-code)
+* [Remove phone number](#remove-phone-number)
+  * [User wants to remove a phone number from his account](#user-wants-to-remove-a-phone-number-from-his-account)
+&lt;!--- END --&gt;
+## Add email
+### User enter the email
+&gt; POST https://homeserver.org/_matrix/client/r0/account/3pid/email/requestToken
+```json
+{
+  "email": "alice@email-provider.org",
+  "client_secret": "TixzvOnw7nLEUdiQEmkHzkXKrY4HhiGh",
+  "send_attempt": 1
+}
+```
+#### The email is already added to an account
+400
+```json
+{
+  "errcode": "M_THREEPID_IN_USE",
+  "error": "Email is already in use"
+}
+```
+#### The email is free
+Wording: "We've sent you an email to verify your address. Please follow the instructions there and then click the button below."
+200
+```json
+{
+  "sid": "bxyDHuJKsdkjMlTJ"
+}
+```
+## User receives an e-mail
+&gt; `homeserver.org` Validate your email
+&gt;
+&gt; A request to add an email address to your Matrix account has been received. If this was you, please click the link below to confirm adding this email:
+  https://homeserver.org/_matrix/client/unstable/add_threepid/email/submit_token?token=WUnEhQAmJrXupdEbXgdWvnVIKaGYZFsU&amp;client_secret=TixzvOnw7nLEUdiQEmkHzkXKrY4HhiGh&amp;sid=bxyDHuJKsdkjMlTJ
+&gt;  
+&gt;  If this was not you, you can safely ignore this email. Thank you.
+### User clicks on the link
+The browser displays the following message:
+&gt; Your email has now been validated, please return to your client. You may now close this window.
+### User returns on Element
+User clicks on CONTINUE
+&gt; POST https://homeserver.org/_matrix/client/r0/account/3pid/add
+```json
+{
+  "sid": "bxyDHuJKsdkjMlTJ",
+  "client_secret": "TixzvOnw7nLEUdiQEmkHzkXKrY4HhiGh"
+}
+```
+401 User Interactive Authentication
+```json
+{
+  "session": "ppvvnozXCQZFaggUBlHJYPjA",
+  "flows": [
+    {
+      "stages": [
+        "m.login.password"
+      ]
+    }
+  ],
+  "params": {
+  }
+}
+```
+### User enters his password
+POST https://homeserver.org/_matrix/client/r0/account/3pid/add
+```json
+{
+  "sid": "bxyDHuJKsdkjMlTJ",
+  "client_secret": "TixzvOnw7nLEUdiQEmkHzkXKrY4HhiGh",
+  "auth": {
+    "session": "ppvvnozXCQZFaggUBlHJYPjA",
+    "type": "m.login.password",
+    "user": "@benoitx:matrix.org",
+    "password": "weak_password"
+  }
+}
+```
+#### The link has not been clicked
+400
+```json
+{
+  "errcode": "M_THREEPID_AUTH_FAILED",
+  "error": "No validated 3pid session found"
+}
+```
+#### Wrong password
+401
+```json
+{
+  "session": "fXHOvoQsPMhEebVqTnIrzZJN",
+  "flows": [
+    {
+      "stages": [
+        "m.login.password"
+      ]
+    }
+  ],
+  "params": {
+  },
+  "completed":[
+  ],
+  "error": "Invalid password",
+  "errcode": "M_FORBIDDEN"
+}
+```
+#### The link has been clicked and the account password is correct
+200
+```json
+{}
+```
+## Remove email
+### User want to remove an email from his account
+&gt; POST https://homeserver.org/_matrix/client/r0/account/3pid/delete
+```json
+{
+  "medium": "email",
+  "address": "alice@email-provider.org"
+}
+```
+#### Email was not bound to an identity server
+200
+```json
+{
+  "id_server_unbind_result": "no-support"
+}
+```
+#### Email was bound to an identity server
+200
+```json
+{
+  "id_server_unbind_result": "success"
+}
+```
+## Add phone number
+&gt; POST https://homeserver.org/_matrix/client/r0/account/3pid/msisdn/requestToken
+```json
+{
+  "country": "FR",
+  "phone_number": "611223344",
+  "client_secret": "f1K29wFZBEr4RZYatu7xj8nEbXiVpr7J",
+  "send_attempt": 1
+}
+```
+Note that the phone number is sent without `+` and without the country code
+#### The phone number is already added to an account
+400
+```json
+{
+  "errcode": "M_THREEPID_IN_USE",
+  "error": "MSISDN is already in use"
+}
+```
+#### The phone number is free
+Wording: "A text message has been sent to +33611223344. Please enter the verification code it contains."
+200
+```json
+{
+  "msisdn": "33651547677",
+  "intl_fmt": "+33 6 51 54 76 77",
+  "success": true,
+  "sid": "253299954",
+  "submit_url": "https://homeserver.org/_matrix/client/unstable/add_threepid/msisdn/submit_token"
+}
+```
+## User receive a text message
+&gt; Riot
+&gt; Your Riot validation code is 892541, please enter this into the app
+### User enter the code to the app
+#### Wrong code
+&gt; POST https://homeserver.org/_matrix/client/unstable/add_threepid/msisdn/submit_token
+```json
+{
+  "sid": "253299954",
+  "client_secret": "f1K29wFZBEr4RZYatu7xj8nEbXiVpr7J",
+  "token": "111111"
+}
+```
+400
+```json
+{
+  "errcode": "M_UNKNOWN",
+  "error": "Error contacting the identity server"
+}
+```
+This is not an ideal, but the client will display a hint to check the entered code to the user.
+#### Correct code
+&gt; POST https://homeserver.org/_matrix/client/unstable/add_threepid/msisdn/submit_token
+```json
+{
+  "sid": "253299954",
+  "client_secret": "f1K29wFZBEr4RZYatu7xj8nEbXiVpr7J",
+  "token": "892541"
+}
+```
+200
+```json
+{
+  "success": true
+}
+```
+Then the app call `https://homeserver.org/_matrix/client/r0/account/3pid/add` as per adding an email and follow the same UIS flow
+## Remove phone number
+### User wants to remove a phone number from his account
+This is the same request and response than to remove email, but with this body:
+```json
+{
+  "medium": "msisdn",
+  "address": "33611223344"
+}
+```
+Note that the phone number is provided without `+`, but with the country code.
+/} &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -3251,7 +5087,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -3261,6 +5098,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 Account Basics
 ==============
 * [Home](help)
@@ -3327,17 +5166,86 @@
 You can export a copy of your personal data in JSON format from the "Export personal data" link at the top of your settings page.
 You need this file to relocate your Friendica account to another node.
 This might be necessary, e.g. if your node suffers a severe hardware problem and is not recoverable.
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; Collect, Use &lt;/Actions&gt; &lt;Data Types&gt; email address, account information &lt;/Data Types&gt; &lt;Purposes&gt; account management, functionality &lt;/Purposes&gt; &lt;Stories&gt; 1. We collect email address and account information for account management. We collect email address and account information for functionality.  We use email address and personal information for functionality. We use email address and account information for contact.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; Account Basics
+==============
+* [Home](help)
+Registration
+---
+Not all Friendica sites allow open registration.
+If registration is allowed, you will see a "Register" link immediately below the login prompt on the site's home page.
+Following this link will take you to the site registration page.
+The strength of our network is that lots of different sites are all completely compatible with each other.
+If the site you're visiting doesn't allow registration, or you think you might prefer another one, there is a [list of public servers here](https://dir.friendica.social/servers) and hopefully you will find one that meets your needs.
+If you'd like to have your own server, you can do that too.
+Visit [the Friendica website](http://friendi.ca/) to download the code with setup instructions.
+It's a very simple installation process that anybody experienced in hosting websites, or with basic Linux experience can handle easily.
+### OpenID
+The first field on the Registration page is for an OpenID address.
+If you do not have an OpenID address or do not wish to use OpenID, leave this field blank.
+If you have an OpenID account elsewhere and wish to use it, enter the address into this field and click 'Register'.
+Friendica will attempt to extract as much information as possible from your OpenID provider and return to this page with those items already filled in.
+### Your Display Name
+Please provide your display name **as you would like it to be displayed on this system**.
+Some people use their real name for this, but you're under no obligation to do so yourself.
+### Email Address
+Please provide a valid email address.
+Your email address is **never** published.
+We need this to send you account information and your login details.
+You may also occasionally receive notifications of incoming messages or items requiring your attention, but you have the possibility to completely disable these from your Settings page once you have logged in.
+This doesn't have to be your primary email address, but it does need to be a real email address.
+You can't get your initial password, or reset a lost password later without it.
+This is the only bit of personal information that has to be accurate.
+### Nickname
+A nickname is used to generate web addresses for many of your personal pages, and is also treated like an email address when establishing communications with others.
+Due to the way that the nickname is used, it has some limitations.
+It must contain only US-ASCII text characters and numbers, and must also start with a text character.
+It also must be unique on this system.
+This is used in many places to identify your account, and once set it cannot be changed.
+### Directory Publishing
+The registration form also allows you to choose whether or not to list your account in the online directory of your node.
+This is like a "phone book" and you may choose to be unlisted.
+We recommend that you select 'Yes' so that other people (friends, family, etc.) will be able to find you.
+If you choose 'No', you will essentially be invisible and have few opportunities for interaction.
+Whichever you choose, this can be changed any time from your Settings page after you login.
+### Register
+Once you have provided the necessary details, click the 'Register' button.
+An email will be sent to you providing your account login details.
+Please check your email (including spam folders) for your registration details and initial password.
+Login Page
+---
+On the 'Login' page, please enter your login information that was provided during registration.
+You may use either your nickname or email address as a Login Name.
+If you use your account to manage other accounts and these all have the same email address, please enter the nickname for the account you wish to manage.
+If your account has been OpenID enabled, you may use your OpenID address as a login name and leave the password blank.
+You will be redirected to your OpenID provider to complete your authorisation.
+Otherwise, enter your password.
+This will have been initially provided in your registration email message.
+Your password is case-sensitive, so please check your 'Caps Lock' key if you are having difficulty logging in.
+Changing Your Password
+---
+After your first login, please visit the 'Settings' page from the top menu bar and change your password to something that you will remember.
+Getting Started
+---
+A link with ['Tips for New Members'](newmember) will show up on your network and home pages for two weeks providing key information for getting started.
+Retrieving Personal Data
+---
+You can export a copy of your personal data in JSON format from the "Export personal data" link at the top of your settings page.
+You need this file to relocate your Friendica account to another node.
+This might be necessary, e.g. if your node suffers a severe hardware problem and is not recoverable. &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -3399,7 +5307,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -3409,6 +5318,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 # New Account Sign-Ups
 If you want to allow more people than just you to have an account on your instance, you can open your instance to new account sign-ups / registrations.
 Be wary that as instance admin, like it or not, you are responsible for what people post on your instance. If users on your instance harass or annoy other people on the fediverse, you may find your instance gets a bad reputation and becomes blocked by others. Moderating a space properly takes work. As such, you should carefully consider whether or not you are willing and able to do moderation, and consider accepting sign-ups on your instance only from friends and people that you really trust.
@@ -3440,17 +5351,51 @@
 To combat spam accounts, GoToSocial account sign-ups **always** require manual approval by an administrator, and applicants must **always** confirm their email address before they are able to log in and post.
 ## Sign-Up Via Invite
 NOT IMPLEMENTED YET: in a future update, admins and moderators will be able to create and send invites that allow accounts to be created even when public sign-up is closed, and to pre-approve accounts created via invitation, and/or allow them to override the sign-up limits described above.
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; Collect, Use &lt;/Actions&gt; &lt;Data Types&gt; email address, account information  &lt;/Data Types&gt; &lt;Purposes&gt; account management, user protection, functionality &lt;/Purposes&gt; &lt;Stories&gt; 1. We collect email address and account information for account management. We collect email address and account information for functionality. We use email address and account information for account management. We use email address and account information for user protection. We use email address and account information for functionality.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; # New Account Sign-Ups
+If you want to allow more people than just you to have an account on your instance, you can open your instance to new account sign-ups / registrations.
+Be wary that as instance admin, like it or not, you are responsible for what people post on your instance. If users on your instance harass or annoy other people on the fediverse, you may find your instance gets a bad reputation and becomes blocked by others. Moderating a space properly takes work. As such, you should carefully consider whether or not you are willing and able to do moderation, and consider accepting sign-ups on your instance only from friends and people that you really trust.
+!!! warning
+    For the sign-up flow to work as intended, your instance [should be configured to send emails](../configuration/smtp.md).
+    As mentioned below, several emails are sent during the sign-up flow, both to you (as admin/moderator) and to the applicant, including an email asking them to confirm their email address.
+    If they cannot receive this email (because your instance is not configured to send emails), you will have to manually confirm the account by [using the CLI tool](../admin/cli.md#gotosocial-admin-account-confirm).
+## Opening Sign-Ups
+You can open new account sign-ups for your instance by changing the variable `accounts-registration-open` to `true` in your [configuration](../configuration/accounts.md), and restarting your GoToSocial instance.
+A sign-up form for your instance will be available at the `/signup` endpoint. For example, `https://your-instance.example.org/signup`.
+![Sign-up form, showing email, password, username, and reason fields.](../public/signup-form.png)
+Also, your instance homepage and "about" pages will be updated to reflect that registrations are open.
+When someone submits a new sign-up, they'll receive an email at the provided email address, giving them a link to confirm that the address really belongs to them.
+In the meantime, admins and moderators on your instance will receive an email and a notification that a new sign-up has been submitted.
+## Handling Sign-Ups
+Instance admins and moderators can handle a new sign-up by either approving or rejecting it via the "accounts" -&gt; "pending" section in the admin panel.
+![Admin settings panel open to "accounts" -&gt; "pending", showing one account in a list.](../public/signup-pending.png)
+If you have no sign-ups, the list pictured above will be empty. If you have a pending account sign-up, however, you can click on it to open that account in the account details screen:
+![Details of a new pending account, giving options to approve or reject the sign-up.](../public/signup-account.png)
+At the bottom, you will find actions that let you approve or reject the sign-up.
+If you **approve** the sign-up, the account will be marked as "approved", and an email will be sent to the applicant informing them their sign-up has been approved, and reminding them to confirm their email address if they haven't already done so. If they have already confirmed their email address, they will be able to log in and start using their account.
+If you **reject** the sign-up, you may wish to inform the applicant that their sign-up has been rejected, which you can do by ticking the "send email" checkbox. This will send a short email to the applicant informing them of the rejection. If you wish, you can add a custom message, which will be added at the bottom of the email. You can also add a private note that will be visible to other admins only.
+!!! warning
+    You may want to hold off on approving a sign-up until they have confirmed their email address, in case the applicant made a typo when submitting, or the email address they provided does not actually belong to them. If they cannot confirm their email address, they will not be able to log in and use their account.
+## Sign-Up Limits
+To avoid sign-up backlogs overwhelming admins and moderators, GoToSocial limits the sign-up pending backlog to 20 accounts. Once there are 20 accounts pending in the backlog waiting to be handled by an admin or moderator, new sign-ups will not be accepted via the form.
+New sign-ups will also not be accepted via the form if 10 or more new account sign-ups have been approved in the last 24 hours, to avoid instances rapidly expanding beyond the capabilities of moderators.
+In both cases, applicants will be shown an error message explaining why they could not submit the form, and inviting them to try again later.
+To combat spam accounts, GoToSocial account sign-ups **always** require manual approval by an administrator, and applicants must **always** confirm their email address before they are able to log in and post.
+## Sign-Up Via Invite
+NOT IMPLEMENTED YET: in a future update, admins and moderators will be able to create and send invites that allow accounts to be created even when public sign-up is closed, and to pre-approve accounts created via invitation, and/or allow them to override the sign-up limits described above. &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -3512,7 +5457,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -3522,6 +5468,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 User Details
 The User Details section covers account settings for the currently logged in user. A user's details help identify them among your team, help your teammates contact each other, and is relevant in Invoice Ninja if you are assigning users to tasks, projects, clients, or etc as a practice for organization and accountability.
 Details
@@ -3532,17 +5480,30 @@
 Password - You would use this field to change your user account password, it doesn't reveal your existing account password.
 Enable Two Factor - Enable two factor authentication using TOTP codes with any TOTP supported 2FA app or device. The pop-up will present a random secret code, and a matching QR code for it. It will require you test the TOTP with a one time password to verify the 2FA setup works, then save the change to your account.
 Accent Color - Accent colors are used mostly as selection highlighter, and button colors in the admin portal UI. Accent Color is a mix of user-associated, and company associated. Each user may pick all of their own accent colors, and for each company.
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; Collect, Use &lt;/Actions&gt; &lt;Data Types&gt; Name, Email address, Phone number, account information &lt;/Data Types&gt; &lt;Purposes&gt; account management, security, functionality &lt;/Purposes&gt; &lt;Stories&gt; 1. We collect Name, Email address, Phone number, account information for account management. We collect Name, Email address, Phone number, account information for security. We collect Name, Email address, Phone number, account information for functionality. We use Name, Email address, Phone number, account information for account management. We use Name, Email address, Phone number, account information for security. We use Name, Email address, Phone number, account information for functionality.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; User Details
+The User Details section covers account settings for the currently logged in user. A user's details help identify them among your team, help your teammates contact each other, and is relevant in Invoice Ninja if you are assigning users to tasks, projects, clients, or etc as a practice for organization and accountability.
+Details
+First Name
+Last Name
+Email - Used to send password reset links to when requested.
+Phone - For your reference only.
+Password - You would use this field to change your user account password, it doesn't reveal your existing account password.
+Enable Two Factor - Enable two factor authentication using TOTP codes with any TOTP supported 2FA app or device. The pop-up will present a random secret code, and a matching QR code for it. It will require you test the TOTP with a one time password to verify the 2FA setup works, then save the change to your account.
+Accent Color - Accent colors are used mostly as selection highlighter, and button colors in the admin portal UI. Accent Color is a mix of user-associated, and company associated. Each user may pick all of their own accent colors, and for each company. &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -3604,7 +5565,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -3614,6 +5576,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 Callstats
 callStatsConfigParams
 type: Object
@@ -3657,17 +5621,63 @@
 type: Number
 Controls the percentage of automatic feedback shown to participants when callstats is enabled. The default value is 100%. If set to 0, no automatic feedback will be requested
 feedbackPercentage: 100
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; Share, Collect, use &lt;/Actions&gt; &lt;Data Types&gt; email address, account information, device information, usage data &lt;/Data Types&gt; &lt;Purposes&gt; analytics, functionality &lt;/Purposes&gt; &lt;Stories&gt; 1. We share email address, account information for analytics. We collect email address, account information, device information and usage data for functionality. We collect email address, account information, device information and usage data for analytics. We use email address, account information, device information and usage data for functionality. We use email address, account information, device information and usage data for analytics.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; Callstats
+callStatsConfigParams
+type: Object
+The callstats initialize config params as described in the API here.
+callStatsConfigParams: {
+    disableBeforeUnloadHandler: true, // disables callstats.js's window.onbeforeunload parameter.
+    applicationVersion: "app_version", // Application version specified by the developer.
+    disablePrecalltest: true, // disables the pre-call test, it is enabled by default.
+    siteID: "siteID", // The name/ID of the site/campus from where the call/pre-call test is made.
+    additionalIDs: { // additionalIDs object, contains application related IDs.
+        customerID: "Customer Identifier. Example, walmart.",
+        tenantID: "Tenant Identifier. Example, monster.",
+        productName: "Product Name. Example, Jitsi.",
+        meetingsName: "Meeting Name. Example, Jitsi loves callstats.",
+        serverName: "Server/MiddleBox Name. Example, jvb-prod-us-east-mlkncws12.",
+        pbxID: "PBX Identifier. Example, walmart.",
+        pbxExtensionID: "PBX Extension Identifier. Example, 5625.",
+        fqExtensionID: "Fully qualified Extension Identifier. Example, +71 (US) +5625.",
+        sessionID: "Session Identifier. Example, session-12-34"
+    },
+    collectLegacyStats: true, //enables the collection of legacy stats in chrome browser
+    collectIP: true //enables the collection localIP address
+}
+callStatsID
+type: String
+You must provide the Application ID to enable sending statistics to callstats.io
+callStatsID: 'my-callstats-app-id'
+callStatsSecret
+type: String
+You must provide the Secret to enable sending statistics to callstats.io
+callStatsSecret: 'my-callstats-secret'
+enableDisplayNameInStats
+type: Boolean
+Enables sending participants' display names to callstats.
+enableDisplayNameInStats: false
+enableEmailInStats
+type: Boolean
+Enables sending participants' emails (if available) to callstats and other analytics
+enableEmailInStats: false
+feedbackPercentage
+type: Number
+Controls the percentage of automatic feedback shown to participants when callstats is enabled. The default value is 100%. If set to 0, no automatic feedback will be requested
+feedbackPercentage: 100 &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -3729,7 +5739,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -3739,6 +5750,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 Getting Started
 Choosing an Instance
 If you are used to sites like Reddit, then Lemmy works in a fundamentally different way. Instead of a single website like reddit.com, there are many different websites (called instances). These are operated by different people, have different topics and rules. Nevertheless, posts created in one instance can directly be seen by users who are registered on another. Its basically like email, but for social media.
@@ -3788,17 +5801,69 @@
 Finally its time to start posting! To do this it is always a good idea to read the community rules in the sidebar (below the Subscribe button). When you are ready, go to a post and type your comment in the box directly below for a top-level reply. You can also write a nested reply to an existing comment, by clicking the left-pointing arrow.
 Other than commenting on existing posts, you can also create new posts. To do this, click the button Create a post in the sidebar. Here you can optionally supply an external link or upload an image. The title field is mandatory and should describe what you are posting. The body is again optional, and gives space for long texts. You can also embed additional images here. The Community dropdown below allows choosing a different community to post in. With NSFW, posts can be marked as "not safe for work". Finally you can specify the language that the post is written in, and then click on Create.
 One more possibility is to write private messages to individual users. To do this, simply visit a user profile and click Send message. You will be notified about new private messages and comment replies with the bell icon in the top right.
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; Collect, Use &lt;/Actions&gt; &lt;Data Types&gt; Email address, account information &lt;/Data Types&gt; &lt;Purposes&gt; Account management, Functionality, authenticate &lt;/Purposes&gt; &lt;Stories&gt; 1. We collect Email Addres and account information  For account management. We use Email address and account information for authenticate. We use email address and account information for functionality.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; Getting Started
+Choosing an Instance
+If you are used to sites like Reddit, then Lemmy works in a fundamentally different way. Instead of a single website like reddit.com, there are many different websites (called instances). These are operated by different people, have different topics and rules. Nevertheless, posts created in one instance can directly be seen by users who are registered on another. Its basically like email, but for social media.
+This means before using Lemmy and registering an account, you need to pick an instance. For this you can browse the instance list and look for one that matches your topics of interest. You can also see if the rules match your expectations, and how many users there are. It is better to avoid very big or very small instances. But don't worry too much about this choice, you can always create another account on a different instance later.
+[instance list screenshot]
+Registration
+Once you choose an instance, it's time to create your account. To do this, click sign up in the top right of the page, or click the top right button on mobile to open a menu with sign up link.
+[registration page screenshot]
+On the signup page you need to enter a few things:
+Username: How do you want to be called? This name can not be changed and is unique within an instance. Later you can also set a displayname which can be freely changed. If your desired username is taken, consider choosing a different instance where it is still available.
+Email: Your email address. This is used for password resets and notifications (if enabled). Providing an email address is usually optional, but admins may choose to make it mandatory. In this case you will have to wait for a confirmation mail and click the link after completing this form.
+Password: The password for logging in to your account. Make sure to choose a long and unique password which isn't used on any other website.
+Verify password: Repeat the same password from above to ensure that it was entered correctly.
+There are also a few optional fields, which you may need to fill in depending on the instance configuration:
+Question/Answer: Instance admins can set an arbitrary question which needs to be answered in order to create an account. This is often used to prevent spam bots from signing up. After submitting the form, you will need to wait for some time until the answer is approved manually before you can login.
+Code: A captcha which is easy to solve for humans but hard for bots. Enter the letters and numbers that you see in the text box, ignoring uppercase or lowercase. Click the refresh button if you are unable to read a character. The play button plays an audio version of the captcha.
+Show NSFW content: Here you can choose if content that is "not safe for work" (or adult-only) should be shown.
+When you are done, press the sign up button.
+It depends on the instance configuration when you can login and start using the account. In case the email is mandatory, you need to wait for the confirmation email and click the link first. In case "Question/Answer" is present, you need to wait for an admin to manually review and approve your registration. If you have problems with the registration, try to get in contact with the admin for support. You can also choose a different instance to sign up if your primary choice does not work.
+Following Communities
+After logging in to your new account, its time to follow communities that you are interested in. For this you can click on the communities link at the top of the page (on mobile, you need to click the menu icon on the top right first). You will see a list of communities which can be filtered by subscribed, local or all. Local communities are those which are hosted on the same site where you are signed in, while all also contains federated communities from other instances. In any case you can directly subscribe to communities with the right-hand subscribe link. Or click on the community name to browse the community first, see what its posted and what the rules are before subscribing.
+Another way to find communities to subscribe to is by going to the front page and browsing the posts. If there is something that interests you, click on the post title to see more details and comments. Here you can subscribe to the community in the right-hand sidebar, or by clicking the "sidebar" button on mobile.
+These previous ways will only show communities that are already known to the instance. Especially if you joined a small or inactive Lemmy instance, there will be few communities to discover. You can find more communities by browsing different Lemmy instances, or using the Lemmy Explorer. When you found a community that you want to follow, enter its URL (e.g. https://feddit.org/c/main) or the identifier (e.g. !main@feddit.org) into the search field of your own Lemmy instance. Lemmy will then fetch the community from its original instance, and allow you to interact with it. The same method also works to fetch users, posts or comments from other instances.
+Setting up Your Profile
+Before you start posting, its a good idea to provide some details about yourself. Open the top-right menu and go to "settings". Here the following settings are available for your public profile:
+Displayname: An alternative username which can be changed at any time
+Bio: Long description of yourself, can be formatted with Markdown
+Matrix User: Your username on the decentralized Matrix chat
+Avatar: Profile picture that is shown next to all your posts
+Banner: A header image for your profile page
+On this page you can also change the email and password. Additionally there are many other settings available, which allow customizing of your browsing experience:
+Blocks (tab at top of the page): Here you can block users and communities, so that their posts will be hidden.
+Interface language: Which language the user interface should use.
+Languages: Select the languages that you speak to see only content in these languages. This is a new feature and many posts don't specify a language yet, so be sure to select "Undetermined" to see them.
+Theme: You can choose between different color themes for the user interface. Instance admins can add more themes.
+Type: Which timeline you want to see by default on the front page; only posts from communities that you subscribe to, posts in local communities, or all posts including federated.
+Sort type: How posts and comments should be sorted by default. See Votes and Ranking for details.
+Show NSFW content: Whether or not you want to see content that is "not safe for work" (or adult-only).
+Show Scores: Whether the number of upvotes and downvotes should be visible.
+Show Avatars: Whether profile pictures of other users should be shown.
+Bot Account: Enable this if you are using a script or program to create posts automatically
+Show Bot Accounts: Disable this to hide posts that were created by bot accounts.
+Show Read Posts: If this is disabled, posts that you already viewed are not shown in listings anymore. Useful if you want to find new content easily, but makes it difficult to follow ongoing discussion under existing posts.
+Show Notifications for New Posts: Enable this to receive a popup notification for each new post that is created.
+Send notifications to Email: Enable to receive notifications about new comment replies and private messages to your email address.
+Start Posting
+Finally its time to start posting! To do this it is always a good idea to read the community rules in the sidebar (below the Subscribe button). When you are ready, go to a post and type your comment in the box directly below for a top-level reply. You can also write a nested reply to an existing comment, by clicking the left-pointing arrow.
+Other than commenting on existing posts, you can also create new posts. To do this, click the button Create a post in the sidebar. Here you can optionally supply an external link or upload an image. The title field is mandatory and should describe what you are posting. The body is again optional, and gives space for long texts. You can also embed additional images here. The Community dropdown below allows choosing a different community to post in. With NSFW, posts can be marked as "not safe for work". Finally you can specify the language that the post is written in, and then click on Create.
+One more possibility is to write private messages to individual users. To do this, simply visit a user profile and click Send message. You will be notified about new private messages and comment replies with the bell icon in the top right. &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -3860,7 +5925,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -3870,6 +5936,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 Profile and Preferences
 To manage your profile and preferences, click on your avatar in the bottom-right corner of the screen. From here, you can manage a couple aspects of your account:
 Profile
@@ -3896,17 +5964,46 @@
 QR Code Authentication
 This tab displays a QR code that you can scan to log in to Koel Player on your phone without having to manually enter your credentials. The code refreshes every ten minutes, but you can also manually refresh it.
 &lt;script lang="ts" setup&gt; import uploadIcon from '../assets/icons/upload.svg' import timesIcon from '../assets/icons/times.svg' &lt;/script&gt;
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; Collect, Use &lt;/Actions&gt; &lt;Data Types&gt; name, email address, Account information &lt;/Data Types&gt; &lt;Purposes&gt; Functionality, customization &lt;/Purposes&gt; &lt;Stories&gt; 1. We collect name, email address, account information for Functionality.We collect name, email address, account information for customization. We use name, email address, account information for Functionality.We use name, email address, account information for customization.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; Profile and Preferences
+To manage your profile and preferences, click on your avatar in the bottom-right corner of the screen. From here, you can manage a couple aspects of your account:
+Profile
+To update your profile, you must first authenticate yourself by entering your current password. After that, you can update your name and email, and set a new password. Leaving the New Password field blank will keep your current password intact.
+:::tip Pick a strong password Koel enforces a strong password policy. Make sure to pick a password that is at least 10 characters long and contains a mix of letters, numbers, and special characters. Your password will also be checked against a list of leaked passwords for extra security. :::
+Custom Avatar
+By default, Koel uses Gravatar to fetch your avatar based on your email address. By hovering over the avatar and clicking the icon, you can select an image file from your computer, crop it, and set it as your custom avatar. Remember to click Save for the change to take effect.
+To remove your custom avatar and revert to using Gravatar, click the icon.
+Themes
+At the time of this writing, Koel comes with 17 themes built-in. You can activate a theme simply by clicking on it. The new theme will be applied immediately.
+Theme selection
+More themes are to be added in the future, along with the ability to create your own theme.
+Preferences
+Koel allows you to set a couple of preferences:
+Whether playing a song should trigger continuous playback of the entire playlist, album, artist, or genre
+Whether to show a notification whenever a new song starts playing
+Whether to confirm before closing Koel’s browser tab
+Whether to show a translucent, blurred overlay of the current album’s art
+Whether to transcode music to a lower bitrate (mobile only, useful if you have a slow connection)
+Whether to set your uploaded music as public by default
+These preferences are saved immediately upon change and synced across all of your devices.
+Service Integration Statuses
+If your Koel installation is integrated with any external services, such as Last.fm or Spotify, you can see their statuses here along with the ability to connect or disconnect them when applicable.
+QR Code Authentication
+This tab displays a QR code that you can scan to log in to Koel Player on your phone without having to manually enter your credentials. The code refreshes every ten minutes, but you can also manually refresh it.
+&lt;script lang="ts" setup&gt; import uploadIcon from '../assets/icons/upload.svg' import timesIcon from '../assets/icons/times.svg' &lt;/script&gt; &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -3968,7 +6065,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -3978,6 +6076,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 Direct Messaging with LibreEHR and EMR Direct phiMail(R)
 Version 1.3, 19 Jul 2014
 A. Purpose: To provide a secure method from within LibreEHR for sending/receiving 
@@ -4147,17 +6247,189 @@
 Documents interface.
 Trademark Notice: phiMail is a registered trademark of EMR Direct.
 Copyright (c) 2013-2014 EMR Direct.
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; Share, Collect, Use &lt;/Actions&gt; &lt;Data Types&gt; Health data, address, usage data &lt;/Data Types&gt; &lt;Purposes&gt; requirements, Functionality, security &lt;/Purposes&gt; &lt;Stories&gt; 1. We share health data and address for requirements. We share health data and address for Functionality. We collect health data and address for complaince. We collect health data and address for functionality. We use health data, address and usage data for requirements. We use health data, address and usage data for functionality. We use health data, address and usage data for security.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; Direct Messaging with LibreEHR and EMR Direct phiMail(R)
+Version 1.3, 19 Jul 2014
+A. Purpose: To provide a secure method from within LibreEHR for sending/receiving 
+protected health information to/from another Direct address using the Direct Project 
+messaging standard, as a step toward the goal of satisfying the three MU2 criteria 
+requiring the use of Direct messaging.  (For general information about Direct messaging, 
+see http://www.emrdirect.com/about-directed-exchange-and-secure-direct-messaging.html)
+B. IMPORTANT:  Please be aware of the following limitations when using the LibreEHR 
+Direct Messaging features with PHI in a production environment:
+1. the current code only supports a single shared "group" Direct Address for each LibreEHR 
+installation. Note that this model is fully compliant with the Direct Project 
+requirements for Direct messaging, but we may add additional models in the future 
+should we determine that doing so would provide a higher degree of interoperability for 
+LibreEHR users.
+2. the current code only sends the CCR or CCD XML data that is already available in LibreEHR; 
+these files as currently generated by existing LibreEHR code do not meet the requirements 
+of the MU2 criteria, and the current CCD files do not pass strict CDA validation tests.
+C. Problems Solved:
+1. Patient-initiated transmission of clinical data from the Report section of the Patient 
+Portal interface.
+2. Provider-initiated transmission of clinical data from the Report section of the Patient 
+pane in the main LibreEHR interface.
+3. Log all data transmissions including date/time, patient, and whether transmission 
+was initiated by the patient through the Patient Portal or by an LibreEHR user through the 
+main interface.
+4. Receive Direct messages from other sources.
+D. How it Works:
+Once configured, LibreEHR will interface with a phiMail Direct messaging server to complete the
+required message transactions. The phiMail platform is described on the EMR Direct website, 
+http://www.emrdirect.com and http://www.emrdirect.com/phimail-faq.html.
+E. What you need before enabling Direct Messaging in LibreEHR:
+1. Test Mode: Developers may request a complimentary test address at 
+https://www.emrdirect.com/subscribe-developer  
+Access to a sandbox server is available for testing and development purposes.
+2. Production Mode: Healthcare provider users should begin by signing up for a production 
+Direct messaging account with EMR Direct by registering at https://www.emrdirect.com/subscribe
+Subscribers will receive the username, password, and server address information with which to 
+configure LibreEHR.  
+F. How to enable the Direct Messaging Features in LibreEHR:
+Setup of phiMail Direct messaging Service is done in the Administration::Globals::Connectors 
+tab
+1. Check the "Enable phiMail Direct Messaging Service" checkbox.
+2. Enter the Server Address, Username, and Password provided to you. The server address
+will be of the form "ssl://servername.example.com:32541" - replace the hostname and port
+with the values provided to you by EMR Direct. The Username is your Direct Address. Do not 
+enter the server URL into your browser address bar, as this will not work.
+3. Specify the LibreEHR user who will receive notification of new incoming Direct messages. 
+Enter their LibreEHR username in the notification user field.
+4. Specify the interval for automatic message checking; we suggest 5 or 10 minutes as a
+starting point, but installations processing a large number of Direct messages may want a 
+shorter interval. To disable automatic message checking through LibreEHR's background service
+manager, set the interval to 0 (zero). Disabling automatic checking would be appropriate 
+if message checking is managed through another mechanism, such as a system cron job.
+5. Optionally check "phiMail Allow CCD Send" and/or "phiMail Allow CCR Send" to enable
+the Transmit feature for these data types. If you do not select at least one of these,
+LibreEHR will operate in a receive-only mode.
+6. Click the "Save" button.
+7. Confirm that a valid Notification Email Address is set in the Administration::
+Globals::Notifications tab to receive error notifications from the Direct Messaging service.
+8. Install the EMR Direct trust anchor certificate.  
+Note: This is *not* your Direct certificate; it is the trust anchor for the SSL 
+certificate issued to our servers, and is used only to validate the SSL certificate 
+presented by the phiMail server on the other side of LibreEHR's connection.  Your Direct private
+key and certificate are managed by the phiMail Server and are not installed in LibreEHR.
+Your Direct certificate is made availabe for your review by EMR Direct, but you will not
+need to install it anywhere.
+For added security, the trust anchor for the phiMail Server should be installed in the LibreEHR 
+installation tree at:
+[installation_root]/sites/[site_id]/documents/phimail_server_pem/phimail_server.pem
+This phimail_server_pem directory and its contents should be readable by the the 
+webserver process, but only writable by trusted local users. The certificate file 
+itself must be PEM encoded. You can identify a PEM encoded certificate file because 
+it begins with the text "-----BEGIN CERTIFICATE-----". Although LibreEHR will connect 
+to phiMail servers without installing this certificate, this is a required configuration 
+step for all production  accounts to ensure that you are connecting to the correct 
+server. You can obtain the correct certificate at the following URLs:
+  a. Test accounts: http://certs.emrdirect.com/EMRDirectTestCA.crt
+     Important: Don't forget to rename the file to phimail_server.pem and install it
+     in the correct directory.
+  b. Production accounts: https://www.phicert.com/certs/phiCertDirectRootCA.crt
+     Important: The production root must be converted to PEM format as follows:
+     $ openssl x509 -in phiCertDirectRootCA.crt -inform DER -out phimail_server.pem
+     Don't forget to install phimail_server.pem in the correct directory. As an added
+     security measure, please call us to confirm the thumbprint on this certificate.
+G. Debugging background connections to the server.
+You may review the connection activity to the server by Selecting Administration::Other::Logs,
+selecting "direct-message" in the "Name of events:" drop-down menu, and clicking "[Refresh]".
+If the background service is succesfully connecting, you will see "message check completed"
+events in the log as well as any message related entries (see below for instructions to
+view more detailed message related status information). If you see no entries, make sure that
+the background service is enabled (See F.4 above). If you see "could not connect to server"
+entries, each entry will also contain an error code:
+  C1: phiMail is disabled in the global configuration. Fix: enable.
+  C2: the phiMail server URL entered in the global configuration is invalid. Fix: Confirm
+      the URL has been entered correctly. It should be of the form 
+      "ssl://server.example.com:32541".
+  C3: unable to create stream context. Fix: Usually this is because the server certificate 
+      file installed in F.8 above is not the correct certificate or is in the wrong format.
+  C4: failed to open connection. Fix: Confirm you Internet service and local DNS servers are
+      online and your firewall is not blocking connections to the phiMail Server.
+H. Checking the status and history of the Direct Messaging Service in LibreEHR:
+Administrators may view the status of the service by Selecting Reports::Services::Background 
+Services from the main LibreEHR left navigation bar. The "View Log" link on this page or 
+Reports::Services::Direct Message Log will open the messaging history log showing each message 
+sent or received and the current status of that message (Received, Sent, Delivery Confirmed, 
+or Failed).
+I. Note of message status messages: Receiving message status updates requires that Direct message
+checking be enabled. When receiving messages, the phiMail back-end is fully compliant with the 
+Direct messaging protocols to notify the sender and provide final delivery confirmation, but 
+please note that  many other Direct providers do not yet support these features. If a message 
+is sent to a recipient using one of these other systems, LibreEHR probably won't ever receive a 
+final delivery confirmation for that message.
+J. How to use the Direct Messaging Features in LibreEHR:
+1. Sending:
+When the phiMail Direct Messaging service is enabled, an additional "Transmit" button will
+appear in the Continuity of Care Record (CCR) and/or Continuity of Care Document (CCD) block 
+of the Reports section in both the Patient Portal and the Patient pane of the main provider 
+interface. 
+To transmit a CCR or CCD, first click the "Transmit" button. This will open a small dialog 
+immediately below the button with a form field to enter the intended recipient's Direct Address. 
+Clicking "Transmit" again will hide the dialog.
+A Direct Address should have the same form as a regular email address, e.g. 
+jonesclinic@direct.example.com. Enter the address in the field and click the "Send" button 
+immediately to the right of the field. Only a single recipient may be specified in the field.
+The Send button will be temporarily disabled while LibreEHR is communicating with the phiMail 
+server. This will only work for properly-configured Direct addresses. Attempts to send to a 
+regular email address or Direct address outside of our test mode "trust sandbox" will fail
+during testing. Production accounts have wide interoperability with other Direct service
+providers. Should you encounter a trust community with which LibreEHR does not interoperate,
+please let us know at support@emrdirect.com.
+LibreEHR will then display a status message immediately below the Address field, the 
+success or failure of the message transmission, or an error message. If the message is
+successfully submitted to the server, the Address field will be cleared to prevent accidental
+re-transmission. If multiple recipients are required, the next recipient can now be entered.
+If you receive an error message, it will be followed by an error code. For a discussion
+of error codes beginning with the letter "C" please see section G above. Error codes
+beginning with "EC" are listed here:
+  EC 1: phiMail disabled in global configuration. Fix: enable.
+  EC 4: authentication failure. Fix: The Username and Password entered in the
+        global configuration must be corrected.
+  EC 5: request to add text failed. Fix: Confirm total message length &lt; 5MB.
+  EC 6: problem sending the text. Fix: Confirm your local network connectivity is stable.
+  EC 7: request to add clinical document failed. Fix: see EC 5.
+  EC 8: problem sending the clinical document. Fix: see EC 6.
+2. Receiving:
+When the phiMail Direct Messaging service is enabled, and message checking is enabled either 
+through the background services manager of another mechanism, LibreEHR will automatically process 
+message status updates and new messages. Status updates will be reflected immediately in the 
+Direct Messaging log. Additionally, if a "Failed" notification is received for a previously sent 
+message, a regular email message will be generated to the Notification Email Address specified 
+in the Notifications tab of the Global Settings panel (accessed by selecting Administration::
+Globals from the main left navigation menu).
+New Direct messages will be processed as follows. A new "Patient Note" will be generated and 
+sent to the phiMail notification user specified in the Connectors tab of the Global settings. 
+The patient note will contain information about the message, including any text at the beginning 
+of the message from the sender. Any attachments (and any non-text content) will be automatically 
+converted to separate LibreEHR Documents, which will be referenced in the new Patient Note.  
+The Documents and the Patient Note are initially created without an assigned patient. 
+At this time, the envisioned workflow is that the notification user will review the message text
+and any included Documents to determine which patient the content belongs to and will then set the 
+patient using the existing Patient Note interface for choosing a patient. Once the patient is sent, 
+the Patient Note can be forwarded to another provider or staff member as appropriate using the 
+existing forwarding mechanism for Patient Notes. The unassigned Documents can be viewed by Selecting 
+Miscellaneous::New Documents from the main left navigation menu, which opens a Documents list. Once 
+the specified document is opened, the user can optionally categorize the document and, when 
+appropriate, assign the document to a specific patient using the "Move to Patient #" feature in the 
+Documents interface.
+Trademark Notice: phiMail is a registered trademark of EMR Direct.
+Copyright (c) 2013-2014 EMR Direct. &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -4219,7 +6491,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -4229,6 +6502,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 Architecture
 This chapter contains an in-depth view of the architecture of the system. If you don't understand everything on the first reading, don't fret! Understanding how the basic system fits together is the most important thing you need for now.
 #Technical Overview
@@ -4295,17 +6570,86 @@
 OpenMRS makes extensive use of a number of frameworks including Spring and Hibernate.
 We use Apache Maven for build management, JIRA for issue management and Github for version control.
 Authentication/Authorisation is ensured by grouping different priviledges into roles which then are assigned to defined users and in turn it ensures the confidentiality of patients data and security of the system.
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; Use, Collect &lt;/Actions&gt; &lt;Data Types&gt; health data, account information &lt;/Data Types&gt; &lt;Purposes&gt; functionality, Requirements, security &lt;/Purposes&gt; &lt;Stories&gt; 1. We use health data and account information for functionality. We use health data and account information for requirements. We use health data and account information for security. We collect health data and account information for functionality. We collect health data and account information for security. We collect health data and account information for requirements.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; Architecture
+This chapter contains an in-depth view of the architecture of the system. If you don't understand everything on the first reading, don't fret! Understanding how the basic system fits together is the most important thing you need for now.
+#Technical Overview
+OpenMRS is a framework built upon Java and other related frameworks. It is based on a modular architecture which consists of a core application and optional modules which provide additional functionality to the core workflows.
+The key architectural components of the OpenMRS core can be depicted as follows:
+An Overview of OpenMRS
+An Overview of OpenMRS
+The backbone of OpenMRS lies in its core API. The OpenMRS API has methods for all of the basic functions such as adding/updating a patient, encounter, observation, etc. Methods which enable this functionality are provided in service layer classes.
+#The Source Code Structure
+In OpenMRS framework and modules, there are different levels in the code architecture. The OpenMRS source code is divided into three main segments:
+The User Interface (presentation)
+The Service Layer
+The Data Access layer
+This layering isolates various system responsibilities from one another, to improve both system development and maintenance.
+#The Data Access layer
+The Data Access layer is an abstraction layer from the actual data model and its changes. It uses Hibernate as the Object Relational mapping tool, and Liquibase to manage relational database changes in a database-independent way.
+The relationships between our domain objects and database tables are mapped using a mixture of Hibernate annotations and XML mapping files. The data access layer is exposed to the service layer through interfaces, thereby shielding it from implementation details such as which object relational mapping tool is being used. see openmrs DataModel at openmrs university
+#The Service layer
+The Service layer is responsible for managing the business logic of the application. It is built around the Spring framework. The OpenMRS service layer classes make extensive use of the Spring framework for a number of tasks including the following:
+Spring Aspect Oriented Programming (AOP) is used to provide separate cross cutting functions (for example: authentication, logging).
+Spring Dependency Injection (DI) is used to provide dependencies between components.
+Spring is used to manage transactions in between service layer classes
+#User Interface layer
+The User Interface layer for the legacy application is built upon Spring MVC, Direct Web Remoting (DWR), JSP and JavaScript. DWR is used for AJAX functionality and it provides the mapping between our Java objects and methods to JavaScript objects and methods respectively. JQuery is used to simplify the interactions with Javascript and the browser. Spring MVC is used to provide the Model-View-Controller design pattern. Our domain objects serve as the Model. We have a mixture of controllers that subclass Spring's SimpleFormControllers and those which use Spring's @Controller annotation. For the new reference application user interface, we no longer use Spring MVC, DWR or JSP, but heavily use Groovy, JQuery, AngularJS, and more.
+#The Modular Architecture
+At the heart of OpenMRS is a custom module framework which lets you extend and modify the default functionality of the OpenMRS core in accordance to your needs. Modules are also structured like the OpenMRS core, and consist of user interface, data access and service layers.
+Some OpenMRS functionality is pulled out into modules instead of being written into the core application. This allows users to upgrade the content in those modules without having to wait for the next OpenMRS release. Currently, the only core module used in OpenMRS is the Logic Module.
+#Associated Frameworks and Technology Stacks
+#Hibernate
+Hibernate is the object-relational mapping library used by OpenMRS. It allows users to describe the relationship between database tables and domain objects using xml configuration files or Java annotations.
+Hibernate is also useful in managing dependencies between classes. As an example, the concept domain in the data model consists of tables named concept, concept_answer, concept_set and concept_name. It would be very difficult to keep up with where to store each part of the concept object and the relations between them if a user decides to update each table individually. However, using Hibernate, developers only need to concern themselves with the Concept object, and not the tables behind that object. The concept.hbm.xml mapping file does the work of knowing that the Concept object contains a collection of ConceptSet objects, a collection of ConceptName objects, etc.
+However, also note that Hibernate enforces lazy loading - it will not load all associated objects until they are needed. For this reason, you must either fetch/save/manipulate your object in the same session (between one open/closeSession) or you must hydrate all object collections in the object by calling the getters (getConceptAnswers, getConceptNames, getSynonyms, etc).
+#Spring MVC
+OpenMRS strongly subscribes to the Model-View-Controller pattern. Most controllers included in the OpenMRS core will be SimpleFormControllers and be placed in the org.openmrs.web.controller package. However, some controllers have been rewritten to use Spring 2.5+ annotations, and we recommend that you use these in the future. The model is set up in the controller's formBackingObject, and processed/saved in the processFormSubmission and onSubmit methods. The jsp views are placed in /web/WEB-INF/view.
+Furthermore, not all files served by the webapp are run through Spring. The /web/WEB-INF/web.xml file maps certain web page extensions to the SpringController. All *.form, *.htm, and *.list pages are mapped. The SpringController then uses the mappings in the openmrs-servlet.xml file to know which pages are mapping to which Controller.
+There are no jsp pages that are accessed directly. If a page's url is /admin/patients/index.htm, the jsp will actually reside in /web/WEB-INF/view/admin/patients/index.jsp. This is necessary so that we can do the redirect with the SpringController. Because the file being accessed ends with .htm, the SpringController is invoked by the web server. When the SpringController sees the url, it simply replaces .htm with .jsp and looks for the file in /web/WEB-INF/view/ according to the jspViewResolver bean in openmrs-servlet.xml. If the page being accessed was patient.form, the mapping in the urlMapping bean would have told spring to use the PatientFormController and the patientForm.jsp file.
+#Authentication and Authorization
+OpenMRS has a very granulated permissions system. Every action is associated with a Privilege, which in turn can be grouped into Roles. Examples of such privileges are "Add Patient", "Update Patient", "Delete Patient", "Add Concept", "Update Concept", and more. A Role can also point to a list of inherited roles. The role inherits all privileges from that inherited role. In this way, hierarchies of roles are possible. A User contains only a collection of Roles, not Privileges. These privileges are enforced in the service layer using AOP annotations. In a way, this also enssures Confidentiality of patients' Data by putting restrictions on the data Access.
+#Build Management
+OpenMRS uses Apache Maven for build management of the OpenMRS core and modules.
+All information regarding the module being built, its dependencies on other external modules and components, the build order, directories, and required plug-ins are stored in the modules' pom.xml file.
+Following release, these build artifacts are uploaded and maintained in a maven repository manager. A maven repository manager is used for this purpose due to a number of advantages that it provides. These advantages include:
+Faster and more reliable builds
+Improved collaboration
+Component usage visibility
+Enforcement of component standards
+The Maven Repository used by OpenMRS is SonaType Nexus, which can be accessed at http://mavenrepo.openmrs.org/nexus/.
+Artifacts maintained in the OpenMRS repository are:
+#Releases
+Maven built releases (1.8.0 and later)
+Ant built releases (1.5.0 up to 1.7.X)
+#Snapshots
+Maven development versions
+#Modules
+Module releases
+#3rd Party Artifacts
+Libraries not found in other Maven repositories (HAPI)
+Modified libraries (DWR, Hibernate, Liquibase, Simple XML)
+Custom Maven plugins (OpenMRS omod plugin)
+#Summary
+As you read the next section, keep in mind the important parts from this chapter:
+OpenMRS consists of a core system, with a modular architecture to extend its functionality.
+There are three main layers to the system: User Interface (Presentation), Service Layer and Data Access Layer.
+OpenMRS makes extensive use of a number of frameworks including Spring and Hibernate.
+We use Apache Maven for build management, JIRA for issue management and Github for version control.
+Authentication/Authorisation is ensured by grouping different priviledges into roles which then are assigned to defined users and in turn it ensures the confidentiality of patients data and security of the system. &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -4367,7 +6711,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -4377,6 +6722,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 Manage Users &amp; Auth
 Registrations
 You can enable registrations of on your instance. To prevent SPAM, we recommend to enable to following signup settings:
@@ -4486,17 +6833,129 @@
 Daily Video Quota
 Daily Video Quota represents the max quota a user is allowed to upload by day. You can tune this parameter to adjust the resources your instance will use. For instance, if you have many users transcoding could take a long time, so limiting upload by user by day could help to share resources between them. You can change the default for new users in the configuration menu.
 Once you are satisfied with your user, you can click on the "Update User" button to save modifications.
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; Collect, use &lt;/Actions&gt; &lt;Data Types&gt; Email address, account information &lt;/Data Types&gt; &lt;Purposes&gt; account management, user protection &lt;/Purposes&gt; &lt;Stories&gt; 1. We collect email address, account information for account management. We  use email address, account information  for user protection.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; Manage Users &amp; Auth
+Registrations
+You can enable registrations of on your instance. To prevent SPAM, we recommend to enable to following signup settings:
+Require email verification
+Require approval
+Registration approval PeerTube &gt;= 5.1
+If signup require approval, users will request registration on your instance and will have to fill a Registration reason to help you to decide if you want to accept or not the user.
+Registration reason input
+Administrators and moderators can then list registration requests on the instance.
+Registration list table
+And accept or reject them. A Moderation response must be filled that will be sent to the user to explain its registration request has been accepted/rejected.
+Accepting a registration will automatically create the user.
+Registration accept modal
+Manage users
+The user menu allows you to manage all existing users on your instance.
+Window displayed when in user menu
+Users will be created when they register to your instance, but you may also create users manually using the "create user" button at the top right of the user menu.
+Under the user menu you can update or delete a user by clicking on the three dots  at the left of a user info.
+User dot button
+Edit user will allow you to update user informations - see below.
+Delete user will allow you to definitely delete this user. All of that user's videos will also be deleted.
+Ban will disable connection for this user but videos and comments will be kept as is. No one else will be able to register with the same nickname or email address.
+Editing users
+When clicking on Edit, you can update parameters for a user such as email, role, video quota and so on. You also can specify if it needs review before a video goes public.
+Window displayed when clicking on Edit user
+You have two ways to reset password:
+by sending a reset link to the user email
+by changing it manually
+Roles
+Role defines what a user is allowed to do on the instance. There are three roles on PeerTube: Administrator, Moderator, and User.
+Administrator
+Administrators can do anything, and have access to the full admin backend.
+Add, Remove, and Edit user accounts, including Admin and Moderator accounts
+View, Edit, Add and Remove instance following and followers
+Delete Local Videos
+Allow or disallow video storage redundancy for followed instances
+Configure the instance:
+instance name
+short and full descriptions
+Terms of Service (ToS)
+Whether or not the instance is dedicated to NSFW content
+default landing page
+default NSFW video display policy (which can be modified by logged-in users)
+whether signups are enabled or disabled
+default user quotas
+whether importing videos is allowed
+from YouTube
+from a torrent file or Magnet Link
+whether or not new videos are automatically blacklisted when uploaded
+whether other instances can follow your instance, and whether those followers need to be manually approved or not
+administrator email
+enable or disable the contact form
+Twitter account information for the instance link previews (optional)
+transcoding settings
+enable or disable transcoding
+enable or disable mkv, .mov, .avi, and .flv videos (this is all or none)
+allow or disallow audio file uploads
+number of threads to use for transcoding on the server
+which resolutions are enabled (240p, 360p, 480p, 720p, 1080p, 2160p)
+cache size for previews and captions
+custom JavaScript and CSS
+Search for and install Plugins and Themes
+View System Jobs, Logs, and Debugging information
+Admins also have the ability to perform any action that can be performed by a Moderator or a User
+Moderator
+Moderators have access to the "Moderation" part of the administration backend which Administrators also see.
+View user account information:
+username
+email address
+daily/total quotas
+role
+creation date
+Add accounts with the User role.
+View video abuse reports
+reporter
+abuse report date and time
+video title (with link to video)
+Delete, Comment, Accept or Reject video abuse reports
+View blacklisted videos
+video title
+whether the video is labeled as sensitive or not
+whether the video has been unfederated or not (only applies to local videos)
+date and time of the blacklist
+View muted accounts
+account username and instance
+date and time of the mute
+View muted instances
+instance domain
+date and time of the mute
+Blacklist videos
+Mute Accounts
+Mute Instances
+List, accept and reject registration requests
+Moderators can also do anything that a User account can do.
+User
+User is the default role.
+Create, Edit, and Delete channels associated with their account
+Create, Edit, and Delete playlists associated with their account
+Upload, Edit, and Delete videos to their account, associated with one of their channels
+Comment on videos
+Add videos to playlists, or remove videos from them
+Change user settings (See the Use PeerTube page for more information)
+Report videos to the moderators with a comment about why the video is being reported
+Quotas
+Video Quota
+Video Quota represents the size limit a user cannot exceed when uploading videos. Each time a user upload a video, Peertube checks if there is enough quota to store it. If not, the upload is denied. Beware, the quota after an upload is estimated only on the size of the file uploaded. However, after transcoding (which outputs videos of unpredictable size) the video resolutions resulting of the transcoding are also taken into account in a user's quota. If you have enabled multiple resolutions, a user can use more than their quota on disk. Peertube will provide you an estimation of maximal space a user will use according to your transcoding options. You can change the default for new users in the configuration menu.
+Daily Video Quota
+Daily Video Quota represents the max quota a user is allowed to upload by day. You can tune this parameter to adjust the resources your instance will use. For instance, if you have many users transcoding could take a long time, so limiting upload by user by day could help to share resources between them. You can change the default for new users in the configuration menu.
+Once you are satisfied with your user, you can click on the "Update User" button to save modifications. &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
     <t xml:space="preserve">Your mission is to annotate software documentation with privacy behaviors in the form of actions, data types and purposes to build privacy requirements in the form of privacy stories. For the given text, provide the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
-Use only the categories listed below when annotating the sections:
-Actions:
+Use only the categories listed below when annotating:
+&lt;Actions&gt;:
 Collect - The application gathers this data from the user
 Use - The application Uses this data from the user
 Share - The application shares this data from the user with another service, only use this label to indicate that the data is being shared to a third-party outside of the application
-Data Types:
+&lt;/Actions&gt;
+&lt;Data Types&gt;:
 Contact Data:
   Phone Number:
   Email address:
@@ -4558,7 +7017,8 @@
   Account Balance:
   Messages:
   Friends:
-Purposes:
+&lt;/Data Types&gt;
+&lt;Purposes&gt;:
 Contact - The application and its team is contacting the user
 Analytics - Data is being used for analysis
 Customization - Data is being used to customize the experience of the application
@@ -4568,6 +7028,8 @@
 Functionality - Data is required for functions of the application
 Accounts - Data is being used for account services
 Requirements - The application is required or obligated to handle this data
+&lt;/Purposes&gt;
+Refer to this example document and its corresponding annotations when making youre annotations:
 Analytics
 Creating analytics events
 In javascript:
@@ -4658,13 +7120,102 @@
       _gaq.push(['_trackEvent'].concat(params_array));
     }
   });
-Annotate the sections of the above text with actions, data types, and purposes using only the categories from the list provided. For each section, provide your annotations followed by your rationale, and place &lt;R&gt; and &lt;/R&gt; tags between your annotations and your rationale.
+Here are the behaviors and the privacy requirements in the form of privacy stories we found in this text:
+Privacy stories are built explicitly from our labelled privacy behaviors in the format: we (action) (data type) for (purpose).
+&lt;Actions&gt; Collect, share, use &lt;/Actions&gt; &lt;Data Types&gt; usage Data, financial, account information, identifiers &lt;/Data Types&gt; &lt;Purposes&gt; analytics &lt;/Purposes&gt; &lt;Stories&gt; 1. We collect usage data, account information, financial and account information for analytics. We Share usage data, account information, financial and account information for analytics. We use usage data, account information, financial and account information for analytics.. &lt;/Stories&gt;
+Here is youre document to annotate, when making these annotations refer only to the provided labels, only provide new labels where if they are absolutely necessary for generating the privacy requirement and explain how they would fit into the provided taxonomy of privacy behaviors. &lt;Document&gt; Analytics
+Creating analytics events
+In javascript:
+window.ST.analytics.logEvent(category, action, opt_label, props)
+Current events:
+"admin", "export", "users"
+"listing", "commented"
+"listing", "created"
+"message", "sent"
+"user", "signed up", "facebook"
+"user", "signed up", "normal form"
+In controllers:
+  record_event(flash, event_category, event_data) 
+Current events:
+"AccountConfirmed"
+"admin_email_confirmed"
+"BuyButtonClicked", {listing_id, listing_uuid, payment_process, user_logged_in}
+"GaveConsent"
+"InitiatePreauthorizedTransaction", {listing_id, listing_uuid}
+"ListingViewed", {listing_id, listing_uuid, payment_process}
+"PreauthorizedTransactionAccepted", {listing_id, listing_uuid, transaction_id}
+"PreauthorizedTransactionRejected", {listing_id, listing_uuid, transaction_id}
+"ProviderPaymentDetailsMissing", {listing_id, listing_uuid}
+"RedirectingBuyerToPayPal", { listing_id, listing_uuid, community_id, marketplace_uuid, user_logged_in}
+"SignUp", {method}
+"TransactionCreated", {listing_id, listing_uuid, transaction_id, payment_process}
+"user", {action: "deleted", opt_label: "by user"})
+"km_record", {km_event: "Onboarding cover photo uploaded"})
+"km_record", {km_event: "Onboarding filter created"})
+"km_record", {km_event: "Onboarding invitation created"})
+"km_record", {km_event: "Onboarding listing created"}
+"km_record", {km_event: "Onboarding payment disabled"})
+"km_record", {km_event: "Onboarding payments setup"})
+"km_record", {km_event: "Onboarding payments setup"})
+"km_record", {km_event: "Onboarding paypal connected"})
+"km_record", {km_event: "Onboarding slogan/description created"})
+Sending events to different engines
+All analytics events are triggered as custom jQuery "st-analytics:" events.
+st-analytics:setup
+Event is triggered on initialization, with user and community info, to send proper identification data to analytics engine:
+  window.ST.analytics.data = {
+      community_ident: "",
+      community_uuid:  "b1b3b8e4-41e6-11e7-b73b-204747729953",
+      community_id:    "1",
+      user_id:      "eIyDCQJZ-StdbCqLMC1qEA",
+      user_uuid:    "b233c084-41e6-11e7-b73b-204747729953",
+      user_is_admin: true,
+      user_email:    "admin@example.com",
+      user_name:     "Admin D",
+      user_hash:     null,
+      feature_flags: ["topbar_v1"],
+      plan_status:       "active",
+      plan_member_limit:  null,
+      plan_created_at:    1497439731,
+      plan_updated_at:    1497439731,
+      plan_expires_at:    null,
+      plan_features:      "deletable, admin_email, whitelabel",
+      identity_information: {
+        "info_user_id_old":"eIyDCQJZ-StdbCqLMC1qEA",
+        "info_marketplace_id":"b1b3b8e4-41e6-11e7-b73b-204747729953",
+        "info_marketplace_id_old":1,"
+        info_marketplace_url":"http://tribeme.lvh.me:3000",
+        "info_email_confirmed":true
+      }
+    };
+Sample handler for GTM:
+  $(document).on("st-analytics:setup", function(event, info) {
+    if (info.community_id) {
+      dataLayer.push({"event": "identify", "id": "mp-"+info.community_id+"-admin" });
+    }
+    dataLayer.push({ event: 'feature flags', featureFlags: info.feature_flags});
+  });
+st-analytics:logout
+Event is triggered on user logout, for example to clear user session if tracked.
+  $(document).on("st-analytics:logout", function(event, args){
+    ampClient.setUserId(null);
+    ampClient.regenerateDeviceid();
+  });
+st-analytics:event
+Triggered for new analytics event.
+window.ST.analytics.logEvent = function(category, action, opt_label, props) {
+  $(document).trigger('st-analytics:event', {category: category, action: action, opt_label: opt_label, props: props});
+}
+Sample handle for Google Analytics:
+  $(document).on('st-analytics:event', function(event, args) {
+    var params_array = [args.category, args.action, args.opt_label];
+    if (typeof _gaq !== 'undefined' &amp;&amp; Array.isArray(_gaq)) {
+      _gaq.push(['_trackEvent'].concat(params_array));
+    }
+  }); &lt;/Document&gt;Annotate the text with actions, data types, purposes, and stories as demonstrated, separating each category with their appropriate &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags using only the categories from the list provided, please number your stories. For each annotation, provide your rationale and place &lt;R&gt; tag between your annotations and your rationale. Make sure to use this XML format properly in your response. Review the behaviors noted and stories generated provide only those which maximize accuracy and precision. Ensure to include your numbered stories in the format of we (action) (data type) for (purpose) inside of the &lt;Stories&gt; tags
 </t>
   </si>
   <si>
-    <t>openai:chatgpt-4o-latest</t>
-  </si>
-  <si>
     <t>data/annotations\Actual_Budget\Accounts_&amp;_Transactions.txt</t>
   </si>
   <si>
@@ -4815,79 +7366,397 @@
     <t>{"file_name": "analyrics-events.txt", "full_cleaned_text": "Analytics\nCreating analytics events\nIn javascript:\n\nwindow.ST.analytics.logEvent(category, action, opt_label, props)\nCurrent events:\n\n\"admin\", \"export\", \"users\"\n\"listing\", \"commented\"\n\"listing\", \"created\"\n\"message\", \"sent\"\n\"user\", \"signed up\", \"facebook\"\n\"user\", \"signed up\", \"normal form\"\nIn controllers:\n\n  record_event(flash, event_category, event_data) \nCurrent events:\n\n\"AccountConfirmed\"\n\"admin_email_confirmed\"\n\"BuyButtonClicked\", {listing_id, listing_uuid, payment_process, user_logged_in}\n\"GaveConsent\"\n\"InitiatePreauthorizedTransaction\", {listing_id, listing_uuid}\n\"ListingViewed\", {listing_id, listing_uuid, payment_process}\n\"PreauthorizedTransactionAccepted\", {listing_id, listing_uuid, transaction_id}\n\"PreauthorizedTransactionRejected\", {listing_id, listing_uuid, transaction_id}\n\"ProviderPaymentDetailsMissing\", {listing_id, listing_uuid}\n\"RedirectingBuyerToPayPal\", { listing_id, listing_uuid, community_id, marketplace_uuid, user_logged_in}\n\"SignUp\", {method}\n\"TransactionCreated\", {listing_id, listing_uuid, transaction_id, payment_process}\n\"user\", {action: \"deleted\", opt_label: \"by user\"})\n\"km_record\", {km_event: \"Onboarding cover photo uploaded\"})\n\"km_record\", {km_event: \"Onboarding filter created\"})\n\"km_record\", {km_event: \"Onboarding invitation created\"})\n\"km_record\", {km_event: \"Onboarding listing created\"}\n\"km_record\", {km_event: \"Onboarding payment disabled\"})\n\"km_record\", {km_event: \"Onboarding payments setup\"})\n\"km_record\", {km_event: \"Onboarding payments setup\"})\n\"km_record\", {km_event: \"Onboarding paypal connected\"})\n\"km_record\", {km_event: \"Onboarding slogan/description created\"})\nSending events to different engines\nAll analytics events are triggered as custom jQuery \"st-analytics:\" events.\n\nst-analytics:setup\nEvent is triggered on initialization, with user and community info, to send proper identification data to analytics engine:\n\n  window.ST.analytics.data = {\n      community_ident: \"\",\n      community_uuid:  \"b1b3b8e4-41e6-11e7-b73b-204747729953\",\n      community_id:    \"1\",\n    \n      user_id:      \"eIyDCQJZ-StdbCqLMC1qEA\",\n      user_uuid:    \"b233c084-41e6-11e7-b73b-204747729953\",\n      user_is_admin: true,\n      user_email:    \"admin@example.com\",\n      user_name:     \"Admin D\",\n      user_hash:     null,\n    \n      feature_flags: [\"topbar_v1\"],\n    \n      plan_status:       \"active\",\n      plan_member_limit:  null,\n      plan_created_at:    1497439731,\n      plan_updated_at:    1497439731,\n      plan_expires_at:    null,\n      plan_features:      \"deletable, admin_email, whitelabel\",\n    \n      identity_information: {\n        \"info_user_id_old\":\"eIyDCQJZ-StdbCqLMC1qEA\",\n        \"info_marketplace_id\":\"b1b3b8e4-41e6-11e7-b73b-204747729953\",\n        \"info_marketplace_id_old\":1,\"\n        info_marketplace_url\":\"http://tribeme.lvh.me:3000\",\n        \"info_email_confirmed\":true\n      }\n    };\n\nSample handler for GTM:\n\n  $(document).on(\"st-analytics:setup\", function(event, info) {\n    if (info.community_id) {\n      dataLayer.push({\"event\": \"identify\", \"id\": \"mp-\"+info.community_id+\"-admin\" });\n    }\n\n    dataLayer.push({ event: 'feature flags', featureFlags: info.feature_flags});\n  });\nst-analytics:logout\nEvent is triggered on user logout, for example to clear user session if tracked.\n\n  $(document).on(\"st-analytics:logout\", function(event, args){\n    ampClient.setUserId(null);\n    ampClient.regenerateDeviceid();\n  });\nst-analytics:event\nTriggered for new analytics event.\n\nwindow.ST.analytics.logEvent = function(category, action, opt_label, props) {\n  $(document).trigger('st-analytics:event', {category: category, action: action, opt_label: opt_label, props: props});\n}\nSample handle for Google Analytics:\n\n  $(document).on('st-analytics:event', function(event, args) {\n    var params_array = [args.category, args.action, args.opt_label];\n    if (typeof _gaq !== 'undefined' &amp;&amp; Array.isArray(_gaq)) {\n      _gaq.push(['_trackEvent'].concat(params_array));\n    }\n  });", "metadata": {"actions": ["Collect, share, use"], "data_types": ["usage Data, financial, account information, identifiers"], "purposes": ["analytics"], "stories": ["We collect usage data, account information, financial and account information for analytics. We Share usage data, account information, financial and account information for analytics. We use usage data, account information, financial and account information for analytics."]}}</t>
   </si>
   <si>
-    <t>"### Using Actual  \n#### Accounts &amp; Transactions  \n\n#### Overview  \n**Annotations:**  \n- **&lt;Actions&gt;:** Use  \n- **&lt;Data Types&gt;:** Financial (Account Balance)  \n- **&lt;Purposes&gt;:** Functionality  \n\n**&lt;R&gt;**  \nThe text describes how users can add various financial accounts (including mortgages) to get an overview of their finances. The action here is **Use** since the system utilizes financial data to provide an overview. The primary **Data Type** involved is **Account Balance** as it tracks financial holdings. The **Purpose** is **Functionality** because the system requires this data to function properly and provide financial insights.  \n**&lt;/R&gt;**  \n\n---\n\n#### Off-budget accounts  \n**Annotations:**  \n- **&lt;Actions&gt;:** Use  \n- **&lt;Data Types&gt;:** Financial (Account Balance)  \n- **&lt;Purposes&gt;:** Functionality  \n\n**&lt;R&gt;**  \nThe section explains the distinction between budget and off-budget accounts, highlighting that off-budget accounts track balances over time without affecting budget calculations. The system **Uses** the **Account Balance** to provide insights into financial tracking. This is primarily for **Functionality**, helping users track investments and mortgages.  \n**&lt;/R&gt;**  \n\n---\n\n#### Adding a new account  \n**Annotations:**  \n- **&lt;Actions&gt;:** Collect  \n- **&lt;Data Types&gt;:** Financial (Account Balance, Bank Account)  \n- **&lt;Purposes&gt;:** Functionality  \n\n**&lt;R&gt;**  \nWhen adding a new account, users must enter details such as account name and balance. The system **Collects** **Bank Account** and **Account Balance** data. The purpose is **Functionality**, as this data is necessary for managing budgets and transactions.  \n**&lt;/R&gt;**  \n\n---\n\n#### Closing or deleting an account  \n**Annotations:**  \n- **&lt;Actions&gt;:** Use  \n- **&lt;Data Types&gt;:** Financial (Account Balance, Bank Account)  \n- **&lt;Purposes&gt;:** Functionality  \n\n**&lt;R&gt;**  \nThe process of closing or deleting an account involves transferring balances and managing funds. The system **Uses** the **Bank Account** and **Account Balance** data to facilitate closing operations. The purpose remains **Functionality**, ensuring proper financial management when accounts are closed.  \n**&lt;/R&gt;**  \n\n---\n\n#### Renaming an existing account  \n**Annotations:**  \n- **&lt;Actions&gt;:** Use  \n- **&lt;Data Types&gt;:** Financial (Bank Account)  \n- **&lt;Purposes&gt;:** Functionality  \n\n**&lt;R&gt;**  \nRenaming an account involves modifying account-related metadata. The system **Uses** the **Bank Account** information for this operation. The purpose is **Functionality**, ensuring users can manage account names effectively.  \n**&lt;/R&gt;**  \n\n---\n\n### Privacy Stories:  \n1. **As a user, I want to add my financial accounts so that I can track my overall financial situation.**  \n2. **As a user, I want to categorize my accounts as budget or off-budget so that I can manage my finances accordingly.**  \n3. **As a user, I want to close or delete an account while ensuring my financial data is transferred correctly.**  \n4. **As a user, I want to rename my accounts to keep my financial records organized.**"</t>
-  </si>
-  <si>
-    <t>"**Annotations:**  \n\n**Backing up your Actual budget**  \n\n_Actions:_ Use  \n_Data Types:_ Financial (Orders, Payment History, Purchase History)  \n_Purposes:_ Functionality  \n\n**&lt;R&gt;**  \nThe section describes the process of backing up budget data, which involves using previously stored financial data. Since the text refers to an Actual budget, it likely includes financial records such as orders, payment history, and purchase history. The purpose of this action is to support the functionality of the application, ensuring users can back up and restore their financial data when needed.  \n**&lt;/R&gt;**  \n\n---\n\n**You can export your data from Actual at any time.**  \n\n_Actions:_ Use  \n_Data Types:_ Financial (Orders, Payment History, Purchase History)  \n_Purposes:_ Functionality  \n\n**&lt;R&gt;**  \nExporting data suggests that the application allows users to retrieve their stored financial records for external use. This action involves using financial data, including orders, payment history, and purchase history. The primary purpose of this functionality is to allow users to retain control over their data and use it outside of the application.  \n**&lt;/R&gt;**  \n\n---\n\n**Manually creating a backup from the desktop app**  \n\n_Actions:_ Use  \n_Data Types:_ Financial (Orders, Payment History, Purchase History)  \n_Purposes:_ Functionality  \n\n**&lt;R&gt;**  \nManually creating a backup involves using existing financial data to generate a copy for restoration purposes. This ensures that users can revert to a previous state if needed. The action applies to financial data, and the purpose aligns with maintaining the application's functionality by providing users with control over their backups.  \n**&lt;/R&gt;**  \n\n---\n\n**Privacy Stories:**  \n\n1. As a user, I want to back up my financial data so that I can restore it in case of data loss.  \n2. As a user, I want to export my financial data so that I can keep a local copy for my records.  \n3. As a user, I want to manually create a backup so that I can revert changes if necessary.  \n\n**&lt;R&gt;**  \nThese privacy stories summarize how financial data is being used for functionality purposes. The application allows users to back up, export, and manually save financial data, ensuring they have access and control over their records. The actions align with the purpose of maintaining the application's core functionality.  \n**&lt;/R&gt;**"</t>
-  </si>
-  <si>
-    <t>"1. **Annotations**  \n\n- **&lt;Actions&gt;**: Collect, Use  \n- **&lt;Data Types&gt;**:  \n  - Account Information: Account Balance  \n  - Financial: Bank Account, Card Data  \n  - Contact Data: Name, Phone Number, Address  \n- **&lt;Purposes&gt;**: Functionality  \n\n- **&lt;Stories&gt;**:  \n  - The application collects and uses the user's bank account and card data to facilitate the creation of a new payment account.  \n  - The application collects and uses the user's name, phone number, and address as required details for setting up a bank account within the system.  \n  - The application collects and uses account balance information to maintain financial records and ensure accurate account creation.  \n\n**&lt;R&gt;**  \nThe text describes the process of creating a new payment account in Akaunting, which involves entering details such as the account name, account number, currency, starting balance, bank name, phone number, and address. These details align with the defined data types of **Bank Account, Card Data, Name, Phone Number, and Address**.  \n\nThe action **Collect** applies because the application gathers this data from the user during account creation. **Use** is also appropriate because the application processes the data to configure the payment account.  \n\nThe purpose **Functionality** is relevant because the data is required for the core function of creating and managing financial accounts within the application. The application does not indicate that it shares this data externally, nor does it mention any analytical, tracking, or advertising purposes.  \n\nThe privacy stories summarize how the actions, data types, and purposes interact, emphasizing the role of collected financial and contact data in account setup and management.  \n**&lt;/R&gt;**"</t>
-  </si>
-  <si>
-    <t>"Beautiful mobile friendly event pages  \n&lt;R&gt; No personal data is explicitly referenced in this section, so no annotations are necessary. &lt;/R&gt;  \n\nEasy attendee management - Refunds, Messaging etc.  \n**&lt;Actions&gt;: Use**  \n**&lt;Data Types&gt;: Contact Data (Email address, Name), Financial (Orders, Payment History, Purchase History)**  \n**&lt;Purposes&gt;: Functionality**  \n&lt;R&gt; Managing attendees includes handling refunds and messaging, which implies using contact data such as email addresses and names to communicate with attendees. Refund management involves financial data such as orders, payment history, and purchase history. The purpose is functionality, as these processes are necessary for the event management system to operate. &lt;/R&gt;  \n\nData export - attendees list to XLS, CSV etc.  \n**&lt;Actions&gt;: Use**  \n**&lt;Data Types&gt;: Contact Data (Name, Email address, User ID)**  \n**&lt;Purposes&gt;: Functionality**  \n&lt;R&gt; Exporting attendee lists suggests using contact data such as names, email addresses, and user IDs so that event organizers can access and manage attendee information. The purpose is functionality, as this feature supports event management. &lt;/R&gt;  \n\nGenerate print friendly attendee list  \n**&lt;Actions&gt;: Use**  \n**&lt;Data Types&gt;: Contact Data (Name, Email address, User ID)**  \n**&lt;Purposes&gt;: Functionality**  \n&lt;R&gt; Generating a print-friendly attendee list involves using contact data like names, email addresses, and user IDs to create a list for organizers. The purpose is functionality, as this helps organizers manage their events. &lt;/R&gt;  \n\nAbility to manage unlimited organisers / events  \n&lt;R&gt; No personal data is explicitly referenced in this section, so no annotations are necessary. &lt;/R&gt;  \n\nManage multiple organisers  \n&lt;R&gt; No personal data is explicitly referenced in this section, so no annotations are necessary. &lt;/R&gt;  \n\nReal-time event statistics  \n**&lt;Actions&gt;: Use**  \n**&lt;Data Types&gt;: Usage Data (Pages Visited, Timestamps, User Engagement, Session ID)**  \n**&lt;Purposes&gt;: Analytics**  \n&lt;R&gt; Real-time event statistics likely involve analyzing user engagement, pages visited, timestamps, and session IDs to provide insights. The purpose is analytics, as this data is used for event performance tracking. &lt;/R&gt;  \n\nCustomizable event pages  \n&lt;R&gt; No personal data is explicitly referenced in this section, so no annotations are necessary. &lt;/R&gt;  \n\nMultiple currency support  \n&lt;R&gt; No personal data is explicitly referenced in this section, so no annotations are necessary. &lt;/R&gt;  \n\nQuick and easy checkout process  \n**&lt;Actions&gt;: Use**  \n**&lt;Data Types&gt;: Financial (Orders, Payment History, Purchase History, Card Data, Bank Account)**  \n**&lt;Purposes&gt;: Functionality**  \n&lt;R&gt; A checkout process involves handling financial data such as orders, payment history, purchase history, and payment methods like card data and bank accounts. The purpose is functionality, as these processes support payments. &lt;/R&gt;  \n\nCustomizable tickets - with QR codes, organiser logos etc.  \n&lt;R&gt; No personal data is explicitly referenced in this section, so no annotations are necessary. &lt;/R&gt;  \n\nFully brandable - Have your own logos on tickets etc.  \n&lt;R&gt; No personal data is explicitly referenced in this section, so no annotations are necessary. &lt;/R&gt;  \n\nAffiliate tracking  \n**&lt;Actions&gt;: Use**  \n**&lt;Data Types&gt;: Tracking (Cookies, Web Beacons, Tags), Usage Data (User Engagement, Pages Visited, Interaction with Ads)**  \n**&lt;Purposes&gt;: Tracking**  \n&lt;R&gt; Affiliate tracking likely involves tracking user interactions using cookies, web beacons, and tags, as well as measuring user engagement, pages visited, and ad interactions. The purpose is tracking, as this data is used to track referrals and performance. &lt;/R&gt;  \n\nTrack sales volume / number of visits generated etc.  \n**&lt;Actions&gt;: Use**  \n**&lt;Data Types&gt;: Usage Data (Pages Visited, User Engagement)**  \n**&lt;Purposes&gt;: Analytics**  \n&lt;R&gt; Tracking sales volume and visits involves using page visit and user engagement data to analyze performance. The purpose is analytics, as this data helps understand business performance. &lt;/R&gt;  \n\nWidget support - embed ticket selling widget into existing websites / WordPress blogs  \n&lt;R&gt; No personal data is explicitly referenced in this section, so no annotations are necessary. &lt;/R&gt;  \n\nSocial sharing  \n**&lt;Actions&gt;: Share**  \n**&lt;Data Types&gt;: Social Media**  \n**&lt;Purposes&gt;: Functionality**  \n&lt;R&gt; Social sharing suggests sharing event-related information through social media. The purpose is functionality, as this feature allows users to promote events. &lt;/R&gt;  \n\nSupport multiple payment gateways - Stripe, PayPal &amp; Coinbase so far, with more being added  \n**&lt;Actions&gt;: Use, Share**  \n**&lt;Data Types&gt;: Financial (Orders, Payment History, Purchase History, Card Data, Bank Account)**  \n**&lt;Purposes&gt;: Functionality**  \n&lt;R&gt; Supporting multiple payment gateways involves using financial data such as orders, payment history, purchase history, and payment methods. Since third-party payment providers are used, financial data is also shared with them. The purpose is functionality, as these processes enable payments. &lt;/R&gt;  \n\nSupport for offline payments  \n**&lt;Actions&gt;: Use**  \n**&lt;Data Types&gt;: Financial (Orders, Payment History, Purchase History)**  \n**&lt;Purposes&gt;: Functionality**  \n&lt;R&gt; Offline payments still require using financial data such as orders, payment history, and purchase history. The purpose is functionality, as this supports transactions. &lt;/R&gt;  \n\nRefund payments - partial refund &amp; full refunds  \n**&lt;Actions&gt;: Use**  \n**&lt;Data Types&gt;: Financial (Orders, Payment History, Purchase History)**  \n**&lt;Purposes&gt;: Functionality**  \n&lt;R&gt; Refunds require using financial data such as orders, payment history, and purchase history to process transactions. The purpose is functionality, as this supports event management. &lt;/R&gt;  \n\nAbility to add service charge to tickets  \n&lt;R&gt; No personal data is explicitly referenced in this section, so no annotations are necessary. &lt;/R&gt;  \n\nMessaging - eg. Email all attendees with X ticket  \n**&lt;Actions&gt;: Use**  \n**&lt;Data Types&gt;: Contact Data (Email address, Name)**  \n**&lt;Purposes&gt;: Contact**  \n&lt;R&gt; Messaging attendees involves using contact data such as email addresses and names to communicate with them. The purpose is contact, as this feature is meant to facilitate communication. &lt;/R&gt;  \n\nPublic event listings page for organisers  \n&lt;R&gt; No personal data is explicitly referenced in this section, so no annotations are necessary. &lt;/R&gt;  \n\nAbility to ask custom questions during checkout  \n**&lt;Actions&gt;: Collect, Use**  \n**&lt;Data Types&gt;: Contact Data (Name, Email address), Financial (Orders, Payment History, Purchase History)**  \n**&lt;Purposes&gt;: Functionality**  \n&lt;R&gt; Custom questions during checkout involve collecting and using contact and financial data. The purpose is functionality, as this supports event management needs. &lt;/R&gt;  \n\nBrowser based QR code scanner for door management  \n**&lt;Actions&gt;: Use**  \n**&lt;Data Types&gt;: Contact Data (User ID, Name)**  \n**&lt;Purposes&gt;: Functionality**  \n&lt;R&gt; A QR code scanner for door management involves using contact data such as user IDs and names to verify attendees. The purpose is functionality, as this feature is required for"</t>
-  </si>
-  <si>
-    <t>"### Annotations:\n\n#### **Security:**\n- **&lt;Actions&gt;:** Use  \n- **&lt;Data Types&gt;:** Usage Data (App Interactions: Pages Visited)  \n- **&lt;Purposes&gt;:** Security  \n- **&lt;Stories&gt;:** The application Uses Pages Visited data to restrict navigation to explicitly trusted pages for security purposes.  \n\n&lt;R&gt;  \nThe text discusses how the application limits navigation to certain pages to prevent security breaches. This implies the application is Using Pages Visited data to enforce these restrictions, ensuring only trusted pages are accessed. The purpose is explicitly stated as Security.  \n&lt;/R&gt;  \n\n---\n\n#### **User Experience:**\n- **&lt;Actions&gt;:** Use  \n- **&lt;Data Types&gt;:** Usage Data (App Interactions: Pages Visited)  \n- **&lt;Purposes&gt;:** Functionality  \n- **&lt;Stories&gt;:** The application Uses Pages Visited data to maintain the intended user experience by restricting navigation to the Mattermost Web App.  \n\n&lt;R&gt;  \nThe text explains that the application is designed to work exclusively with the Mattermost Web App and restricts navigation elsewhere to prevent undesirable effects. This indicates that Pages Visited data is being Used to maintain intended functionality.  \n&lt;/R&gt;  \n\n---\n\n#### **Internal Navigation:**\n- **&lt;Actions&gt;:** Use  \n- **&lt;Data Types&gt;:** Usage Data (App Interactions: Pages Visited, Session ID)  \n- **&lt;Purposes&gt;:** Functionality  \n\n- **&lt;Stories&gt;:** The application Uses Pages Visited and Session ID data to manage navigation between tabs within the same server, ensuring proper state handling.  \n\n&lt;R&gt;  \nThe text describes the process of managing navigation within the Web App, where the application processes navigation actions and maintains session state. This suggests that Pages Visited and Session ID data are Used to determine how navigation should be handled within the app for Functionality.  \n&lt;/R&gt;  \n\n---\n\n#### **External Navigation:**\n- **&lt;Actions&gt;:** Use  \n- **&lt;Data Types&gt;:** Usage Data (App Interactions: Pages Visited)  \n- **&lt;Purposes&gt;:** Security  \n\n- **&lt;Stories&gt;:** The application Uses Pages Visited data to determine whether to redirect users to an external browser for security reasons.  \n\n&lt;R&gt;  \nThe text states that the application explicitly handles external navigation to ensure users are redirected securely. This indicates that Pages Visited data is Used to enforce navigation rules, ensuring security.  \n&lt;/R&gt;  \n\n---\n\n#### **New Window Handling:**\n- **&lt;Actions&gt;:** Use  \n- **&lt;Data Types&gt;:** Usage Data (App Interactions: Pages Visited)  \n- **&lt;Purposes&gt;:** Security  \n\n- **&lt;Stories&gt;:** The application Uses Pages Visited data to determine whether to allow or deny new windows for security purposes.  \n\n&lt;R&gt;  \nThe text specifies conditions under which new windows are allowed or denied, particularly restricting navigation to untrusted URLs or protocols. This suggests that Pages Visited data is Used to enforce security restrictions.  \n&lt;/R&gt;  \n\n---\n\n#### **Custom Login Flow:**\n- **&lt;Actions&gt;:** Use  \n- **&lt;Data Types&gt;:** Usage Data (App Interactions: Pages Visited)  \n- **&lt;Purposes&gt;:** Accounts  \n\n- **&lt;Stories&gt;:** The application Uses Pages Visited data to facilitate authentication via external providers while maintaining internal navigation protections.  \n\n&lt;R&gt;  \nThe text describes how the custom login flow bypasses security restrictions to enable authentication via external providers. This suggests that Pages Visited data is Used to manage authentication while ensuring users remain within the application’s navigation framework.  \n&lt;/R&gt;"</t>
-  </si>
-  <si>
-    <t>"### Annotations:\n\n#### **Introduction**\n**Actions:** Collect, Use  \n**Data Types:** Contact Data (Name, Address, Email address, Phone Number), Usage Data (App Interactions, Session ID)  \n**Purposes:** Functionality, Accounts  \n\n**Stories:**  \n1. As a user, I want to add and manage contacts so that I can keep track of my relationships.  \n2. As a user, I want to document my interactions with my family and friends so that I can refer back to them later.  \n\n&lt;R&gt;  \nThe introduction describes Monica as a personal relationship management tool, indicating that it collects and allows users to document their interactions. This implies the collection and use of contact details and usage data for functionality and account purposes.  \n&lt;/R&gt;  \n\n---\n\n#### **Features**\n**Actions:** Collect, Use  \n**Data Types:** Contact Data (Name, Address, Email address, Phone Number, Image), Usage Data (App Interactions, Session ID), Financial (Orders, Payment History), Account Information (User ID, Password)  \n**Purposes:** Functionality, Accounts  \n\n**Stories:**  \n1. As a user, I want to add and manage my contacts so that I can organize my relationships.  \n2. As a user, I want to set reminders for birthdays so that I do not forget important dates.  \n3. As a user, I want to upload documents and photos to Monica so that I can keep track of important memories.  \n4. As a user, I want to manage my financial transactions within Monica to support its development.  \n\n&lt;R&gt;  \nThe features section elaborates on functionalities such as managing contacts, reminders, and document uploads, which require collecting and using personal contact data and images. Additionally, financial transactions for supporting the software imply the collection of payment and order history for account management.  \n&lt;/R&gt;  \n\n---\n\n#### **Who is it for?**\n**Actions:** Use  \n**Data Types:** Contact Data (Biographical Data – Employment, Education)  \n**Purposes:** Functionality  \n\n**Stories:**  \n1. As a user, I want to document my life to improve my relationships and memory.  \n\n&lt;R&gt;  \nThis section explains why Monica is useful for individuals who want to document personal details. It implies the use of biographical data for personal organization.  \n&lt;/R&gt;  \n\n---\n\n#### **What Monica isn’t**\n**Actions:** Use  \n**Data Types:** Contact Data (Email address)  \n**Purposes:** Functionality  \n\n**Stories:**  \n1. As a user, I want to receive email reminders for events I have scheduled in Monica.  \n\n&lt;R&gt;  \nThe section clarifies that Monica does not track or analyze user data but does use stored information to send email reminders. This implies the use of contact data (email addresses) for functionality.  \n&lt;/R&gt;  \n\n---\n\n#### **Contribute**\n**Actions:** Use, Share  \n**Data Types:** Contact Data (Name, Email address, User ID)  \n**Purposes:** Functionality, Contact  \n\n**Stories:**  \n1. As a contributor, I want to participate in the community discussions so that I can help improve Monica.  \n2. As a user, I want to financially support Monica’s development so that I can ensure its continued support.  \n\n&lt;R&gt;  \nThe contribution section discusses ways users can support Monica, including community discussions and financial contributions. This implies the use and sharing of contact data for community involvement and functionality.  \n&lt;/R&gt;  \n\n---\n\n#### **Patreon**\n**Actions:** Collect, Use, Share  \n**Data Types:** Financial (Orders, Payment History), Contact Data (Email address, Name)  \n**Purposes:** Functionality, Accounts  \n\n**Stories:**  \n1. As a user, I want to support Monica financially so that I can ensure its continued development.  \n\n&lt;R&gt;  \nSince Patreon is used for financial support, it involves collecting and using payment information and user contact details for account and functionality purposes.  \n&lt;/R&gt;  \n\n---\n\n#### **Contact**\n**Actions:** Collect, Use  \n**Data Types:** Contact Data (Name, Email address)  \n**Purposes:** Contact  \n\n**Stories:**  \n1. As a user, I want to contact Monica’s team so that I can ask questions or provide feedback.  \n\n&lt;R&gt;  \nThis section provides contact information for reaching out to the Monica team, implying the collection and use of names and email addresses for communication.  \n&lt;/R&gt;  \n\n---\n\n#### **License**\n**Actions:** Use  \n**Data Types:** None  \n**Purposes:** Requirements  \n\n**Stories:**  \n1. As a user, I want to understand the licensing terms so that I can use Monica according to legal requirements.  \n\n&lt;R&gt;  \nThe license section does not involve the collection or use of personal data but serves a legal requirement purpose.  \n&lt;/R&gt;"</t>
-  </si>
-  <si>
-    <t>"### Annotations:\n\n#### Track Class:\n- **Actions**: Collect, Use  \n- **Data Types**: Usage Data (App Interactions: User Engagement), Location (Precise Location)  \n- **Purposes**: Functionality  \n\n#### TrackStatistics Class:\n- **Actions**: Collect, Use  \n- **Data Types**: Usage Data (App Interactions: Timestamps), Location (Precise Location), Usage Data (App Interactions: User Engagement)  \n- **Purposes**: Functionality, Analytics  \n\n#### TrackStatisticsUpdater Class:\n- **Actions**: Use  \n- **Data Types**: Usage Data (App Interactions: Timestamps), Location (Precise Location)  \n- **Purposes**: Functionality  \n\n#### TrackPoint Class:\n- **Actions**: Collect, Use  \n- **Data Types**: Location (Precise Location), Usage Data (Device Information: Sensor Data, Speed, Bearing), Health Data (Physical Activity)  \n- **Purposes**: Functionality, Analytics  \n\n#### Marker Class:\n- **Actions**: Collect, Use  \n- **Data Types**: Location (Precise Location), Contact Data (Image)  \n- **Purposes**: Functionality  \n\n#### DataField &amp; StatisticData Classes:\n- **Actions**: Use  \n- **Data Types**: Usage Data (App Interactions: User Engagement)  \n- **Purposes**: Functionality  \n\n#### Layout Class:\n- **Actions**: Use  \n- **Data Types**: Usage Data (App Interactions: User Engagement)  \n- **Purposes**: Customization  \n\n#### Notes on TrackPoint Time Use:\n- **Actions**: Use  \n- **Data Types**: Usage Data (App Interactions: Timestamps)  \n- **Purposes**: Functionality  \n\n#### Notes on Track Segments:\n- **Actions**: Collect, Use  \n- **Data Types**: Location (Precise Location), Usage Data (App Interactions: User Engagement)  \n- **Purposes**: Functionality  \n\n### Privacy Stories:\n\n1. As a user, I understand that my **precise location** is **collected and used** to track my movement and segment my recorded tracks, ensuring the application's **functionality**.  \n2. As a user, I acknowledge that my **timestamps and sensor data** are **collected and used** to provide **analytics** on my movement and performance.  \n3. As a user, I realize that my **images and markers** may be **collected and used** to enhance my experience with track recording, supporting the application's **functionality**.  \n4. As a user, I expect my **app interactions and engagement data** to be **used** to **customize** my interface and improve usability.  \n\n&lt;R&gt;  \n### Rationale:\n\n1. **Track &amp; TrackStatistics Classes**: These classes store and process information about recorded tracks, which inherently requires **precise location collection and usage**. The presence of timestamps and distances indicates **analytics** purposes.  \n2. **TrackStatisticsUpdater Class**: This class **uses** timestamps and location data, which are essential for **functionality**.  \n3. **TrackPoint Class**: This class contains **precise location data, sensor readings, and speed**, which are relevant for **both functionality and analytics** of tracking activities.  \n4. **Marker Class**: This class includes **precise location and images**, which are used to mark points on a track for **functionality**.  \n5. **DataField &amp; StatisticData Classes**: These elements are used to store and display user interaction data, which supports **functionality**.  \n6. **Layout Class**: This class references a profile setup, suggesting **customization** of the interface based on user preferences.  \n7. **TrackPoint Time Use Note**: The note indicates that timestamps are used for **functionality**, ensuring consistency in time tracking.  \n8. **Track Segments Note**: The note explains how segments are determined based on **precise location changes** and **user interactions**, reinforcing **functionality**.  \n\nBy structuring the privacy behaviors this way, we provide a clear mapping of what data is being collected, how it's being used, and for what purpose, ensuring transparency in privacy expectations.  \n&lt;/R&gt;"</t>
-  </si>
-  <si>
-    <t>"### Annotations:\n\n#### **Account data callbacks section**\n**Annotations:**\n- **&lt;Actions&gt;**: Use\n- **&lt;Data Types&gt;**: Account Information (User ID)\n- **&lt;Purposes&gt;**: Functionality\n\n**Rationale:**  \n&lt;R&gt;  \nThis section describes how account data callbacks allow module developers to react to changes in user account data. The application is using account data (User ID) to trigger actions when changes occur. The purpose is functionality, as this mechanism enables modules to perform necessary operations when account data updates happen.  \n&lt;/R&gt;  \n\n---\n\n#### **`on_account_data_updated` callback section**\n**Annotations:**\n- **&lt;Actions&gt;**: Use\n- **&lt;Data Types&gt;**: Account Information (User ID, Messages)\n- **&lt;Purposes&gt;**: Functionality\n\n**Rationale:**  \n&lt;R&gt;  \nThis section explains that the callback is triggered when user account data is updated, including deletions. The application uses the User ID to determine which user's data changed and processes that information accordingly. The mention of replacing data with an empty dictionary suggests that messages or other structured account data may be affected. The purpose is functionality, as this callback allows the system to respond to changes in account data.  \n&lt;/R&gt;  \n\n---\n\n#### **Example implementation section**\n**Annotations:**\n- **&lt;Actions&gt;**: Use, Collect\n- **&lt;Data Types&gt;**: Account Information (User ID, Messages)\n- **&lt;Purposes&gt;**: Functionality, Security\n\n**Rationale:**  \n&lt;R&gt;  \nThe example module registers a callback that logs user account data updates. The system collects the User ID and changed account data, processes it, and sends an event to an audit room. This indicates a security purpose, as logging changes to account data helps maintain an audit trail. The functionality purpose is also present, as the system needs to process and handle account data updates for the application to work correctly.  \n&lt;/R&gt;  \n\n---\n\n#### **Logging user account data changes section**\n**Annotations:**\n- **&lt;Actions&gt;**: Use, Collect, Share\n- **&lt;Data Types&gt;**: Account Information (User ID, Messages)\n- **&lt;Purposes&gt;**: Security\n\n**Rationale:**  \n&lt;R&gt;  \nThe function `log_new_account_data` collects and uses user account data to create an audit trail. It then shares this information by sending an event to a designated audit room. This implies a security purpose, as logging and sharing account data updates in an audit room helps with monitoring and accountability.  \n&lt;/R&gt;  \n\n---\n\n### Privacy Stories:\n\n1. **When a user's account data is updated, the system collects and uses their User ID to trigger callbacks, ensuring the application functions correctly.**  \n2. **When a user modifies their account data, the system logs the change and shares it with an audit room for security monitoring.**  \n3. **When new account data is added or deleted, the application processes the update and ensures that appropriate modules react to the change for functionality purposes.**  \n\n---\n\nThese annotations and stories help clarify how user account data is handled in the system, ensuring transparency in its privacy behaviors."</t>
-  </si>
-  <si>
-    <t>"### `is_user_expired`\n\n**Annotations:**\n- **&lt;Actions&gt;:** Use  \n- **&lt;Data Types&gt;:** Account Information (User ID)  \n- **&lt;Purposes&gt;:** Security  \n\n**&lt;R&gt;**  \nThe `is_user_expired` callback is used to determine whether a user's account should be locked due to expiration. The function takes a user identifier (`user: str`), which corresponds to the **User ID** under **Account Information**. The purpose of this action is to verify account validity and enforce security measures, such as preventing unauthorized access, which falls under **Security**.  \n**&lt;/R&gt;**  \n\n---\n\n### `on_user_registration`\n\n**Annotations:**\n- **&lt;Actions&gt;:** Use  \n- **&lt;Data Types&gt;:** Account Information (User ID)  \n- **&lt;Purposes&gt;:** Accounts  \n\n**&lt;R&gt;**  \nThe `on_user_registration` callback is triggered after a user successfully registers. Its purpose is to allow additional operations related to the new account, such as tracking or storing the user in a database. The **User ID** is used to identify the newly registered user. The purpose of this action aligns with **Accounts**, as it pertains to managing and maintaining account-related functionality.  \n**&lt;/R&gt;**  \n\n---\n\n### `on_user_login`\n\n**Annotations:**\n- **&lt;Actions&gt;:** Use  \n- **&lt;Data Types&gt;:** Account Information (User ID), Account Information (Username)  \n- **&lt;Purposes&gt;:** Security, Accounts  \n\n**&lt;R&gt;**  \nThe `on_user_login` callback is executed after a successful login or registration. It uses the **User ID** and additional authentication provider details to perform extra operations after authentication. This aligns with **Security**, as verifying login details ensures account protection, and **Accounts**, as it helps manage user authentication and access.  \n**&lt;/R&gt;**"</t>
-  </si>
-  <si>
-    <t>"```plaintext\n{#s (a: collect, use) (dt: Username, Password) (p: Log in) \n### `auth_checkers`\n&lt;R&gt;\nThe `auth_checkers` callback is responsible for verifying user authentication credentials during login. The application collects and uses `Username` and `Password` as part of this process to authenticate the user. The primary purpose of this action is to enable users to log in.\n&lt;/R&gt;\n\n{#s (a: collect, use) (dt: Username, Password, Email) (p: Log in) \n### `check_3pid_auth`\n&lt;R&gt;\nThe `check_3pid_auth` function handles authentication using third-party identifiers such as an `Email address`. It collects the `Username`, `Password`, and `Email` when a user attempts to log in using a third-party authentication method. The purpose is to facilitate user login.\n&lt;/R&gt;\n\n{#s (a: collect, use) (dt: Username, Password, Email) (p: Log out) \n### `on_logged_out`\n&lt;R&gt;\nThe `on_logged_out` function is executed when a user logs out. It collects and uses the `Username`, `Password`, and `Email` to process the logout request. The purpose of this function is to handle the log-out process for the user.\n&lt;/R&gt;\n\n{#s (a: collect, use) (dt: Username, Email, Phone Number, Password) (p: Account open) \n### `get_username_for_registration`\n&lt;R&gt;\nThe `get_username_for_registration` function collects and uses `Username`, `Email`, `Phone Number`, and `Password` as part of the user registration process. This function is responsible for setting a username for the new user, ensuring that the registration process is handled correctly.\n&lt;/R&gt;\n\n{#s (a: collect, use) (dt: Username, Email, Phone Number, Password) (p: Account open) \n### `get_displayname_for_registration`\n&lt;R&gt;\nSimilar to `get_username_for_registration`, this function collects and uses `Username`, `Email`, `Phone Number`, and `Password` to determine a display name for the user during registration. This function helps facilitate account creation.\n&lt;/R&gt;\n\n{#s (a: collect, use) (dt: Email, Phone Number) (p: Log in) \n### `is_3pid_allowed`\n&lt;R&gt;\nThe `is_3pid_allowed` function collects and uses `Email` and `Phone Number` to determine if a third-party identifier can be bound to an account. The purpose of this function is to support authentication using third-party identifiers.\n&lt;/R&gt;\n```\n\n### Rationale:\nEach section of the text describes a function that processes user authentication or registration. These functions require the collection and use of user data such as `Username`, `Password`, `Email`, and `Phone Number`. The purposes are determined based on whether the function is used for logging in, logging out, or account creation. The chosen annotations align with the described functionalities in the provided documentation."</t>
-  </si>
-  <si>
-    <t>"```\n&lt;Actions&gt;\nCollect\nUse\n&lt;/Actions&gt;\n\n&lt;Data Types&gt;\nAccount Information:\n  User id\n  Username\n&lt;/Data Types&gt;\n\n&lt;Purposes&gt;\nFunctionality\n&lt;/Purposes&gt;\n\n&lt;Stories&gt;\nThe application collects and uses user IDs and session IDs to manage notification subscriptions and watches, ensuring that users receive relevant notifications based on their preferences.\n&lt;/Stories&gt;\n\n&lt;R&gt;\n### Rationale:\n1. **Actions:**\n   - **Collect:** The system gathers user session IDs (`sid`) to manage notification subscriptions and watches.\n   - **Use:** The collected session IDs are used to manage notification settings, such as priority, format, and distribution.\n\n2. **Data Types:**\n   - **User ID:** The session ID (`sid`) uniquely identifies a user in the notification system.\n   - **Username:** Although not explicitly mentioned, session IDs typically map to user accounts, implying the use of usernames.\n\n3. **Purposes:**\n   - **Functionality:** The system needs this data to correctly manage notification preferences and ensure users receive the intended notifications.\n\n4. **Stories:**\n   - The story captures the interaction between the actions (collect, use), data types (user id, session id), and purpose (functionality) to describe how the application manages notification subscriptions effectively.\n&lt;/R&gt;\n```"</t>
-  </si>
-  <si>
-    <t>"**Annotations:**\n\n1. **Actions:**  \n   - Use  \n\n2. **Data Types:**  \n   - Contact Data: Email Address  \n\n3. **Purposes:**  \n   - Functionality  \n\n4. **Stories:**  \n   - The application Uses the user's Email Address to send notifications via email for the purpose of Functionality.  \n\n&lt;R&gt;  \nThe documentation describes the `INotificationDistributor` interface, which is responsible for sending notification events using different distribution channels, such as email. Since the primary function of this interface is to distribute notifications, this involves the **Use** of the recipient's **Email Address**. The purpose is **Functionality**, as the notification system is a core function of the application.  \n&lt;/R&gt;  \n\n---\n\n1. **Actions:**  \n   - Use  \n\n2. **Data Types:**  \n   - Contact Data: Phone Number  \n\n3. **Purposes:**  \n   - Functionality  \n\n4. **Stories:**  \n   - The application Uses the user's Phone Number to distribute notifications via SMS for the purpose of Functionality.  \n\n&lt;R&gt;  \nThe documentation includes an example implementation of an SMS-based notification distributor. This implementation retrieves recipients' addresses and sends messages via SMS. The **Use** action is appropriate here since the application utilizes the **Phone Number** to send messages. The purpose remains **Functionality**, as this feature enables users to receive notifications through SMS.  \n&lt;/R&gt;  \n\n---\n\n1. **Actions:**  \n   - Use  \n\n2. **Data Types:**  \n   - Contact Data: User ID  \n\n3. **Purposes:**  \n   - Accounts  \n\n4. **Stories:**  \n   - The application Uses the User ID to identify recipients and authenticate notification distribution for the purpose of Accounts.  \n\n&lt;R&gt;  \nThe documentation mentions that the `distribute()` method receives a list of recipients, which includes a **User ID** (`sid`). This ID helps determine whether the recipient is authenticated. Since this relates to user identification and authentication, the **Accounts** purpose is appropriate. The **Use** action is selected because the application processes the **User ID** for internal operations.  \n&lt;/R&gt;"</t>
-  </si>
-  <si>
-    <t>"```json\n{\n  \"Annotations\": [\n    {\n      \"Actions\": [\"Collect\"],\n      \"Data Types\": [\"Account Information: User id\", \"Account Information: Messages\"],\n      \"Purposes\": [\"Functionality\"],\n      \"Stories\": [\n        \"The system collects user IDs and messages to manage notification subscriptions and determine appropriate notification recipients.\"\n      ]\n    },\n    {\n      \"Actions\": [\"Use\"],\n      \"Data Types\": [\"Account Information: User id\", \"Contact Data: Email address\"],\n      \"Purposes\": [\"Functionality\"],\n      \"Stories\": [\n        \"The system uses user IDs and email addresses to send notifications based on subscription settings.\"\n      ]\n    },\n    {\n      \"Actions\": [\"Use\"],\n      \"Data Types\": [\"Usage Data: Session ID\"],\n      \"Purposes\": [\"Security\"],\n      \"Stories\": [\n        \"The system uses session IDs to authenticate users and determine subscription access settings.\"\n      ]\n    }\n  ],\n  \"Rationale\": \"&lt;R&gt; The documentation describes a notification subscription system that collects user IDs and messages from a database to determine notification recipients, fulfilling a functionality purpose. Email addresses are used for delivering notifications, which aligns with the functionality purpose. Additionally, session IDs are used to authenticate users and manage subscription access, which falls under security. &lt;/R&gt;\"\n}\n```"</t>
-  </si>
-  <si>
-    <t>"### Email and password\n\n**Annotations:**\n- **&lt;Actions&gt;:** Collect, Use  \n- **&lt;Data Types&gt;:** Contact Data: Email Address, Account Information: Password, Account Information: User ID  \n- **&lt;Purposes&gt;:** Security, Accounts  \n\n**Privacy Stories:**\n1. Zulip collects and uses the user's email address to authenticate accounts and allow users to manage their passwords for security purposes.  \n2. Zulip collects and uses user IDs and passwords to facilitate secure account access and management.  \n\n&lt;R&gt;  \nThe section describes how Zulip authenticates users using their email addresses and allows them to set passwords. Since authentication involves collecting and using email addresses and passwords, these are marked under **Contact Data** and **Account Information**. The purposes are **Security** (as authentication ensures secure access) and **Accounts** (since account management is a core function).  \n&lt;/R&gt;  \n\n---\n\n### Security and privacy\n\n**Annotations:**\n- **&lt;Actions&gt;:** Collect, Use  \n- **&lt;Data Types&gt;:** Account Information: User ID, Device Information: Device ID  \n- **&lt;Purposes&gt;:** Security, Functionality  \n\n**Privacy Stories:**\n1. Zulip collects and uses user IDs and device IDs to securely route push notifications to the correct mobile devices.  \n2. Zulip ensures that the push notification service only stores necessary metadata to maintain secure and functional notification delivery.  \n\n&lt;R&gt;  \nThe section describes how the push notification service collects and uses user IDs and device IDs to ensure that notifications are securely delivered. Since the service is designed with privacy and security in mind, the purposes include **Security** and **Functionality**.  \n&lt;/R&gt;  \n\n---\n\n### Uploading basic metadata\n\n**Annotations:**\n- **&lt;Actions&gt;:** Collect, Use  \n- **&lt;Data Types&gt;:** Account Information: User ID, Contact Data: Company  \n- **&lt;Purposes&gt;:** Functionality  \n\n**Privacy Stories:**\n1. Zulip collects and uses metadata about organizations using the service, including user counts and organization types, to ensure proper functionality of the mobile apps.  \n\n&lt;R&gt;  \nThis section discusses how Zulip installations upload metadata about organizations. The company name and number of user accounts are collected and used for functionality-related purposes, such as verifying server URLs and displaying correct login forms.  \n&lt;/R&gt;  \n\n---\n\n### Uploading usage statistics\n\n**Annotations:**\n- **&lt;Actions&gt;:** Collect, Use  \n- **&lt;Data Types&gt;:** Usage Data: App Interactions (Messages Sent, Messages Read, User Engagement)  \n- **&lt;Purposes&gt;:** Analytics  \n\n**Privacy Stories:**\n1. Zulip collects and uses aggregated statistics about messages sent and read to analyze user engagement and system usage trends.  \n2. Zulip collects and uses active user statistics over various time periods for analytics purposes.  \n\n&lt;R&gt;  \nThis section describes how Zulip collects and uploads usage statistics, including message counts and active user metrics. Since this information is used for analysis purposes, the purpose is **Analytics**.  \n&lt;/R&gt;  \n\n---\n\n### Updating your server's registration\n\n**Annotations:**\n- **&lt;Actions&gt;:** Collect, Use  \n- **&lt;Data Types&gt;:** Contact Data: Email Address, Account Information: User ID  \n- **&lt;Purposes&gt;:** Functionality, Accounts  \n\n**Privacy Stories:**\n1. Zulip collects and uses the server administrator's contact email to maintain registration and account management functionality.  \n2. Zulip collects and uses server registration data, including user IDs, for ensuring proper server functionality.  \n\n&lt;R&gt;  \nThis section involves the process of updating a server's registration, which includes collecting and using an email address and user ID. The purposes of these actions are **Functionality** (ensuring the server operates correctly) and **Accounts** (maintaining account integrity).  \n&lt;/R&gt;  \n\n---\n\n### Deactivating your server's registration\n\n**Annotations:**\n- **&lt;Actions&gt;:** Use  \n- **&lt;Data Types&gt;:** Contact Data: Email Address  \n- **&lt;Purposes&gt;:** Functionality  \n\n**Privacy Stories:**\n1. Zulip uses the server administrator’s email to process the deactivation of a server’s registration.  \n\n&lt;R&gt;  \nThe section describes how Zulip deactivates server registrations, which involves using the administrator's email address. This action falls under **Functionality**, as it ensures the correct operation of the registration and deregistration processes.  \n&lt;/R&gt;  \n\n---\n\n### Pausing use of the Mobile Push Notification Service\n\n**Annotations:**\n- **&lt;Actions&gt;:** Use  \n- **&lt;Data Types&gt;:** Usage Data: App Interactions (Push Notifications)  \n- **&lt;Purposes&gt;:** Functionality  \n\n**Privacy Stories:**\n1. Zulip uses push notification interaction data to allow administrators to pause and resume notification services as needed.  \n\n&lt;R&gt;  \nThis section discusses pausing push notifications, which involves using data related to push notification interactions. The purpose here is **Functionality**, as it ensures users can control notification service operations.  \n&lt;/R&gt;"</t>
-  </si>
-  <si>
-    <t>"&lt;PI&gt;\n### Add email\n\n#### User enter the email\n- **Actions**: Collect\n- **Data Types**: Contact Data (Email Address)\n- **Purposes**: Accounts\n\n#### User receives an e-mail\n- **Actions**: Use\n- **Data Types**: Contact Data (Email Address)\n- **Purposes**: Accounts\n\n#### User clicks on the link\n- **Actions**: Use\n- **Data Types**: Contact Data (Email Address)\n- **Purposes**: Accounts\n\n#### User enters his password\n- **Actions**: Use\n- **Data Types**: Account Information (Password)\n- **Purposes**: Security\n\n#### The link has been clicked and the account password is correct\n- **Actions**: Use\n- **Data Types**: Contact Data (Email Address), Account Information (Password)\n- **Purposes**: Accounts, Security\n\n### Remove email\n\n#### User wants to remove an email from his account\n- **Actions**: Use\n- **Data Types**: Contact Data (Email Address)\n- **Purposes**: Accounts\n\n### Add phone number\n\n#### User enters the phone number\n- **Actions**: Collect\n- **Data Types**: Contact Data (Phone Number)\n- **Purposes**: Accounts\n\n#### User receives a text message\n- **Actions**: Use\n- **Data Types**: Contact Data (Phone Number)\n- **Purposes**: Accounts\n\n#### User enters the code to the app\n- **Actions**: Use\n- **Data Types**: Contact Data (Phone Number)\n- **Purposes**: Accounts\n\n#### Correct code\n- **Actions**: Use\n- **Data Types**: Contact Data (Phone Number)\n- **Purposes**: Accounts\n\n### Remove phone number\n\n#### User wants to remove a phone number from his account\n- **Actions**: Use\n- **Data Types**: Contact Data (Phone Number)\n- **Purposes**: Accounts\n\n### Stories:\n\n1. As a user, when I provide my email address, the application collects it to associate it with my account.\n2. As a user, when I receive an email confirmation, the application uses my email to verify ownership for account management.\n3. As a user, when I enter my password, the application uses it to authenticate my identity for security purposes.\n4. As a user, when I request to remove my email, the application processes my request and updates my account settings.\n5. As a user, when I provide my phone number, the application collects it to associate it with my account.\n6. As a user, when I receive a verification code via SMS, the application uses my phone number to confirm ownership.\n7. As a user, when I enter my phone number removal request, the application processes it to update my account settings.\n\n&lt;R&gt;\n### Rationale:\n\n1. **Actions**: \"Collect\" is used when the application gathers a data type from the user (e.g., entering an email or phone number). \"Use\" is applied when the application processes or verifies the data (e.g., password authentication, email verification).\n2. **Data Types**: Email and phone numbers fall under \"Contact Data\" as they are essential identifiers for account management. Passwords are categorized as \"Account Information.\"\n3. **Purposes**: The primary purpose behind these actions is \"Accounts,\" as the email and phone number are linked to the user’s account. \"Security\" is relevant when passwords are used for authentication.\n4. **Stories**: These reflect user interactions with the system, showing how authentication, verification, and account management function.\n&lt;/R&gt;"</t>
-  </si>
-  <si>
-    <t>"**Annotations:**\n\n### Registration\n**Actions:** Collect  \n**Data Types:** Contact Data (Email Address, Name), Account Information (Username, Password)  \n**Purposes:** Accounts  \n\n**Stories:**  \n- As a user, I provide my email address, name, and a username to register an account on Friendica.  \n- As a user, I provide a password to secure my account during registration.  \n\n&lt;R&gt;  \n**Rationale:**  \nThe registration process requires the user to enter an email address, name, and a username, which qualifies as collecting Contact Data and Account Information. The purpose of this collection is to create an account, making \"Accounts\" the relevant purpose. The collection of a password is necessary for authentication and account security.  \n&lt;/R&gt;  \n\n---\n\n### OpenID  \n**Actions:** Collect, Use  \n**Data Types:** Contact Data (User ID)  \n**Purposes:** Accounts, Functionality  \n\n**Stories:**  \n- As a user, I can enter my OpenID address to register and log in using my existing OpenID account.  \n- As a system, Friendica attempts to extract information from an OpenID provider to pre-fill registration fields.  \n\n&lt;R&gt;  \n**Rationale:**  \nThe system collects a User ID when a user provides an OpenID address. The application then uses this information to pre-fill registration fields, which aligns with \"Use.\" The purpose of this process is to enable account creation and login functionality, which falls under \"Accounts\" and \"Functionality.\"  \n&lt;/R&gt;  \n\n---\n\n### Email Address  \n**Actions:** Collect, Use  \n**Data Types:** Contact Data (Email Address)  \n**Purposes:** Accounts, Contact  \n\n**Stories:**  \n- As a user, I provide my email address so that Friendica can send me account-related details.  \n- As a system, Friendica sends account login details and notifications to the user's email address.  \n\n&lt;R&gt;  \n**Rationale:**  \nThe system collects an email address during registration and uses it to send account details and notifications to the user. This falls under \"Collect\" and \"Use.\" The email is used for account-related purposes, making \"Accounts\" relevant, and it is also used to contact the user, which aligns with \"Contact.\"  \n&lt;/R&gt;  \n\n---\n\n### Nickname  \n**Actions:** Collect, Use  \n**Data Types:** Account Information (Username)  \n**Purposes:** Accounts, Functionality  \n\n**Stories:**  \n- As a user, I provide a unique nickname that will be used to generate personal web addresses and for communication.  \n\n&lt;R&gt;  \n**Rationale:**  \nThe nickname functions as both an identifier and a way to generate web addresses, making it an Account Information data type. The action is \"Collect\" since the user provides the nickname, and \"Use\" as Friendica utilizes it for communication and web address generation. The purpose includes \"Accounts\" for identification and \"Functionality\" as it is necessary for system operations.  \n&lt;/R&gt;  \n\n---\n\n### Directory Publishing  \n**Actions:** Collect, Use  \n**Data Types:** Account Information (Username)  \n**Purposes:** Functionality  \n\n**Stories:**  \n- As a user, I can choose to have my account listed in a public directory to be discoverable by others.  \n\n&lt;R&gt;  \n**Rationale:**  \nThe system collects and uses the user's account information to determine whether their profile should be listed in a public directory. This is necessary for the platform's functionality, making \"Functionality\" the appropriate purpose.  \n&lt;/R&gt;  \n\n---\n\n### Register  \n**Actions:** Collect, Use  \n**Data Types:** Contact Data (Email Address), Account Information (Username, Password)  \n**Purposes:** Accounts  \n\n**Stories:**  \n- As a system, Friendica collects the necessary account details and sends confirmation emails to users.  \n\n&lt;R&gt;  \n**Rationale:**  \nThe system collects email addresses, usernames, and passwords for account creation. It also uses the email address to send login details, aligning with \"Use.\" The purpose is account creation and management, making \"Accounts\" the relevant category.  \n&lt;/R&gt;  \n\n---\n\n### Login Page  \n**Actions:** Use  \n**Data Types:** Contact Data (Email Address, User ID), Account Information (Username, Password)  \n**Purposes:** Accounts, Security  \n\n**Stories:**  \n- As a user, I use my email address, username, or OpenID to log in to my account.  \n- As a system, Friendica verifies my credentials to grant access to my account.  \n\n&lt;R&gt;  \n**Rationale:**  \nThe login page uses previously collected account information, including email addresses, usernames, and passwords, to authenticate the user. OpenID addresses are also used for login. The purpose includes \"Accounts\" for access control and \"Security\" for authentication.  \n&lt;/R&gt;  \n\n---\n\n### Changing Your Password  \n**Actions:** Use  \n**Data Types:** Account Information (Password)  \n**Purposes:** Security  \n\n**Stories:**  \n- As a user, I can change my password to enhance my account security.  \n\n&lt;R&gt;  \n**Rationale:**  \nThe system allows users to update their passwords, which falls under \"Use.\" The primary purpose is security, as changing passwords helps maintain account protection.  \n&lt;/R&gt;  \n\n---\n\n### Retrieving Personal Data  \n**Actions:** Use  \n**Data Types:** Account Information (User ID, Username), Contact Data (Email Address)  \n**Purposes:** Functionality, Accounts  \n\n**Stories:**  \n- As a user, I can export my personal data in JSON format to back up or transfer my account.  \n\n&lt;R&gt;  \n**Rationale:**  \nThe system allows users to export their personal data, which includes account identifiers and email addresses. This aligns with \"Use\" since the system processes and provides this data for the user. The purpose is \"Functionality\" as it supports data portability and \"Accounts\" as it relates to managing user data.  \n&lt;/R&gt;"</t>
-  </si>
-  <si>
-    <t>"### New Account Sign-Ups\n\n**Annotations:**\n- **&lt;Actions&gt;**: Collect, Use\n- **&lt;Data Types&gt;**: Contact Data (Email address, Username, Name), Account Information (User id, Password)\n- **&lt;Purposes&gt;**: Accounts, Functionality\n\n**Privacy Story:**\nWhen a user attempts to sign up for an account, the system collects their email address, username, name, and password. This information is used to create and manage their account, ensuring they can log in and use the application.\n\n&lt;R&gt;\nThe section describes the process of enabling account sign-ups and mentions that email confirmations are sent. This implies that the system **collects** user-provided email addresses, usernames, names, and passwords. Additionally, the system **uses** this data for account creation and authentication purposes. The primary **purpose** of this data handling is to facilitate **Accounts** and ensure the **Functionality** of the service.\n&lt;/R&gt;\n\n---\n\n### Opening Sign-Ups\n\n**Annotations:**\n- **&lt;Actions&gt;**: Collect, Use\n- **&lt;Data Types&gt;**: Contact Data (Email address, Username), Account Information (Password)\n- **&lt;Purposes&gt;**: Accounts, Functionality\n\n**Privacy Story:**\nWhen an instance enables sign-ups, a form becomes available where users can enter their email, username, and password. The system collects this data to process account creation and confirm the user's email address.\n\n&lt;R&gt;\nThe section describes enabling sign-ups and mentions that users submit an email address, username, and password through a form. This indicates **Collection** of this data. Additionally, the system **uses** this information for account creation and verification. The **purpose** of this is to maintain user **Accounts** and ensure **Functionality** of the service by verifying identity before account activation.\n&lt;/R&gt;\n\n---\n\n### Handling Sign-Ups\n\n**Annotations:**\n- **&lt;Actions&gt;**: Use\n- **&lt;Data Types&gt;**: Contact Data (Email address, Username), Account Information (User id, Password)\n- **&lt;Purposes&gt;**: Accounts, Functionality\n\n**Privacy Story:**\nAdmins and moderators review submitted sign-ups, using the provided email address, username, and user ID to approve or reject accounts. If approved, the system sends an email notification to the applicant.\n\n&lt;R&gt;\nThis section details how admins and moderators process sign-ups, making decisions based on the **collected** user data. The system **uses** the provided email address, username, and user ID to facilitate account approval or rejection. The **purposes** for handling this data are **Accounts** (to manage sign-ups) and **Functionality** (ensuring only verified users can access the platform).\n&lt;/R&gt;\n\n---\n\n### Sign-Up Limits\n\n**Annotations:**\n- **&lt;Actions&gt;**: Use\n- **&lt;Data Types&gt;**: Account Information (User id)\n- **&lt;Purposes&gt;**: Functionality\n\n**Privacy Story:**\nTo prevent excessive sign-ups, the system tracks pending and approved accounts, using user IDs to enforce sign-up limits and ensure moderation capacity is not exceeded.\n\n&lt;R&gt;\nThis section describes how the system limits sign-ups based on pending and approved accounts. It does not collect new data but **uses** existing **Account Information** (User id) to enforce restrictions. The **Functionality** purpose applies here, as these limits maintain platform stability and prevent overwhelming moderators.\n&lt;/R&gt;\n\n---\n\n### Sign-Up Via Invite (Future Feature)\n\n**Annotations:**\n- **&lt;Actions&gt;**: Collect, Use\n- **&lt;Data Types&gt;**: Contact Data (Email address, Username), Account Information (User id, Password)\n- **&lt;Purposes&gt;**: Accounts, Functionality\n\n**Privacy Story:**\nIn the future, admins will be able to generate and send invitations, allowing users to sign up even when public registration is closed. The system will collect and use email addresses, usernames, and passwords for account creation.\n\n&lt;R&gt;\nThis section describes a planned feature where users may receive an invitation to sign up. While not yet implemented, it implies **Collection** of **Contact Data** (email, username) and **Account Information** (password, user id), as well as **Use** of this data for account creation. The **purposes** align with **Accounts** (managing user registrations) and **Functionality** (ensuring the system operates as intended).\n&lt;/R&gt;"</t>
-  </si>
-  <si>
-    <t>"User Details  \nThe User Details section covers account settings for the currently logged in user. A user's details help identify them among your team, help your teammates contact each other, and is relevant in Invoice Ninja if you are assigning users to tasks, projects, clients, or etc as a practice for organization and accountability.  \n\n**Annotations:**  \n- **&lt;Actions&gt;**: Use  \n- **&lt;Data Types&gt;**: Contact Data (Name, Email address, Phone Number), Account Information (User ID)  \n- **&lt;Purposes&gt;**: Functionality, Contact  \n\n**&lt;R&gt;**  \nThe application uses user details to identify users within a team, facilitate communication among teammates, and assign tasks, projects, and clients. Since this data is essential for organizational purposes and accountability, it falls under \"Functionality.\" Additionally, since teammates may use this information to contact each other, \"Contact\" is also a relevant purpose.  \n**&lt;/R&gt;**  \n\n---  \n\nDetails  \nFirst Name  \nLast Name  \nEmail - Used to send password reset links to when requested.  \n\n**Annotations:**  \n- **&lt;Actions&gt;**: Collect, Use  \n- **&lt;Data Types&gt;**: Contact Data (Name, Email address)  \n- **&lt;Purposes&gt;**: Accounts, Security  \n\n**&lt;R&gt;**  \nUser first and last names, along with email addresses, are collected to identify and manage user accounts. The email is explicitly used to send password reset links, which is a security function. \"Accounts\" is also applicable because managing user identity is fundamental to account services.  \n**&lt;/R&gt;**  \n\n---  \n\nPhone - For your reference only.  \n\n**Annotations:**  \n- **&lt;Actions&gt;**: Collect  \n- **&lt;Data Types&gt;**: Contact Data (Phone Number)  \n- **&lt;Purposes&gt;**: Functionality  \n\n**&lt;R&gt;**  \nThe phone number is collected, but it is stated to be for user reference only, meaning it is not actively used by the system for communication or security purposes. However, it is still part of the user profile, making it relevant for \"Functionality.\"  \n**&lt;/R&gt;**  \n\n---  \n\nPassword - You would use this field to change your user account password, it doesn't reveal your existing account password.  \n\n**Annotations:**  \n- **&lt;Actions&gt;**: Collect, Use  \n- **&lt;Data Types&gt;**: Account Information (Password)  \n- **&lt;Purposes&gt;**: Security, Accounts  \n\n**&lt;R&gt;**  \nThe password is collected and used for authentication purposes. Since it plays a role in securing the user account, \"Security\" is a relevant purpose. Additionally, because the password is essential for managing and accessing accounts, \"Accounts\" is also applicable.  \n**&lt;/R&gt;**  \n\n---  \n\nEnable Two Factor - Enable two factor authentication using TOTP codes with any TOTP supported 2FA app or device. The pop-up will present a random secret code, and a matching QR code for it. It will require you test the TOTP with a one time password to verify the 2FA setup works, then save the change to your account.  \n\n**Annotations:**  \n- **&lt;Actions&gt;**: Use  \n- **&lt;Data Types&gt;**: Account Information (Password)  \n- **&lt;Purposes&gt;**: Security  \n\n**&lt;R&gt;**  \nThe system uses two-factor authentication (2FA) to enhance security. This involves a one-time password (OTP) and a QR code to verify the setup, ensuring additional protection for the user's account. Since this is directly related to authentication and securing access, \"Security\" is the primary purpose.  \n**&lt;/R&gt;**  \n\n---  \n\nAccent Color - Accent colors are used mostly as selection highlighter, and button colors in the admin portal UI. Accent Color is a mix of user-associated, and company associated. Each user may pick all of their own accent colors, and for each company.  \n\n**Annotations:**  \n- **&lt;Actions&gt;**: Use  \n- **&lt;Data Types&gt;**: None  \n- **&lt;Purposes&gt;**: Customization  \n\n**&lt;R&gt;**  \nAccent colors are used solely for UI customization, allowing users to personalize their experience. No specific personal data is involved in this process, so no data type is annotated. The purpose is explicitly \"Customization.\"  \n**&lt;/R&gt;**"</t>
-  </si>
-  <si>
-    <t>"callStatsConfigParams  \ntype: Object  \n\n&lt;Actions&gt;: Collect, Use  \n&lt;Data Types&gt;: Usage Data (Session ID, Device Information (IP Address)), Contact Data (User ID)  \n&lt;Purposes&gt;: Analytics, Functionality  \n\n&lt;Stories&gt;:  \n- The application collects and uses session identifiers and IP addresses to facilitate call statistics functionality.  \n- The application collects and uses user IDs to analyze call statistics and improve functionality.  \n\n&lt;R&gt;  \nThe `callStatsConfigParams` object contains various configuration parameters for call statistics. The inclusion of `sessionID` and `collectIP` indicates that the application collects and uses session identifiers and IP addresses, which fall under Usage Data. The presence of `siteID`, `customerID`, and `tenantID` suggests that user-related identifiers are being collected. These data points are primarily used for analytics and ensuring the functionality of the call statistics system.  \n&lt;/R&gt;  \n\n---\n\ncallStatsID  \ntype: String  \n\n&lt;Actions&gt;: Collect, Use  \n&lt;Data Types&gt;: Contact Data (User ID)  \n&lt;Purposes&gt;: Functionality  \n\n&lt;Stories&gt;:  \n- The application collects and uses a unique application ID to enable call statistics functionality.  \n\n&lt;R&gt;  \nThe `callStatsID` is required to enable sending statistics to the callstats.io service. Since it is an identifier associated with the application, it is categorized as a User ID under Contact Data. The primary purpose is to ensure the functionality of the call statistics feature.  \n&lt;/R&gt;  \n\n---\n\ncallStatsSecret  \ntype: String  \n\n&lt;Actions&gt;: Collect, Use  \n&lt;Data Types&gt;: Contact Data (User ID)  \n&lt;Purposes&gt;: Security, Functionality  \n\n&lt;Stories&gt;:  \n- The application collects and uses a secret key to securely enable call statistics functionality.  \n\n&lt;R&gt;  \nThe `callStatsSecret` is required to enable sending statistics to callstats.io, indicating that it is a key used for authentication. This falls under security-related usage and is necessary for the functionality of call statistics. While it is not directly a user identifier, it functions as an access credential, making it relevant to security purposes.  \n&lt;/R&gt;  \n\n---\n\nenableDisplayNameInStats  \ntype: Boolean  \n\n&lt;Actions&gt;: Collect, Use  \n&lt;Data Types&gt;: Contact Data (Name)  \n&lt;Purposes&gt;: Analytics  \n\n&lt;Stories&gt;:  \n- The application collects and uses participants' display names for call statistics analysis.  \n\n&lt;R&gt;  \nThe `enableDisplayNameInStats` setting determines whether participants' display names are collected and sent to callstats. Since display names are a form of Contact Data under Name, and they are used for statistical purposes, the purpose is categorized as Analytics.  \n&lt;/R&gt;  \n\n---\n\nenableEmailInStats  \ntype: Boolean  \n\n&lt;Actions&gt;: Collect, Use, Share  \n&lt;Data Types&gt;: Contact Data (Email Address)  \n&lt;Purposes&gt;: Analytics  \n\n&lt;Stories&gt;:  \n- The application collects, uses, and shares participants' email addresses for call statistics analysis.  \n\n&lt;R&gt;  \nThe `enableEmailInStats` setting determines whether participants' email addresses are collected and sent to callstats and other analytics services. Since email addresses fall under Contact Data, and they are shared with an external service for analytical purposes, the appropriate actions are Collect, Use, and Share, and the purpose is Analytics.  \n&lt;/R&gt;  \n\n---\n\nfeedbackPercentage  \ntype: Number  \n\n&lt;Actions&gt;: Use  \n&lt;Data Types&gt;: None  \n&lt;Purposes&gt;: Functionality  \n\n&lt;Stories&gt;:  \n- The application uses feedback percentage settings to control the display of automatic feedback prompts.  \n\n&lt;R&gt;  \nThe `feedbackPercentage` setting determines how often feedback requests are shown to participants. This does not involve the collection of personal data but is used for functionality purposes within the application.  \n&lt;/R&gt;"</t>
-  </si>
-  <si>
-    <t>"### Getting Started  \n#### Choosing an Instance  \n**Annotations:**  \n_None_  \n&lt;R&gt;  \nThis section provides an overview of how Lemmy instances work and does not involve any personal data collection, usage, or sharing.  \n&lt;/R&gt;  \n\n---\n\n### Registration  \n**Annotations:**  \n- **Actions:** Collect  \n- **Data Types:**  \n  - Account Information: Username, Password  \n  - Contact Data: Email Address  \n- **Purposes:** Accounts, Security  \n\n&lt;R&gt;  \nThe registration process involves collecting a username, password, and optionally an email address. The username is used for account identification, the email address is used for password resets and notifications, and the password ensures account security. The presence of email verification and CAPTCHA mechanisms also supports security purposes.  \n&lt;/R&gt;  \n\n---\n\n### Following Communities  \n**Annotations:**  \n- **Actions:** Use  \n- **Data Types:**  \n  - Account Information: User ID  \n  - Usage Data: Pages Visited, User Engagement  \n- **Purposes:** Customization, Functionality  \n\n&lt;R&gt;  \nWhen a user follows communities, the platform uses their account information (User ID) to associate their account with the subscribed communities. Additionally, pages visited and engagement data influence the customization of the user experience by curating relevant content for them.  \n&lt;/R&gt;  \n\n---\n\n### Setting up Your Profile  \n**Annotations:**  \n- **Actions:** Collect, Use  \n- **Data Types:**  \n  - Account Information: Username, Password  \n  - Contact Data: Email Address  \n  - Contact Data: Image (Avatar), Biographical Data (Bio)  \n- **Purposes:** Accounts, Customization  \n\n&lt;R&gt;  \nSetting up a profile involves collecting and using user information such as a display name, bio, and avatar. The display name and bio contribute to account personalization, while the avatar provides visual representation. Additionally, email and password updates fall under account management.  \n&lt;/R&gt;  \n\n---\n\n### Start Posting  \n**Annotations:**  \n- **Actions:** Collect, Use  \n- **Data Types:**  \n  - Account Information: User ID, Messages  \n  - Usage Data: User Engagement  \n- **Purposes:** Functionality, Customization  \n\n&lt;R&gt;  \nWhen posting or commenting, the platform collects and uses User ID and message content to enable participation in discussions. User engagement data helps tailor content visibility and interaction experiences.  \n&lt;/R&gt;  \n\n---\n\n### Sending Private Messages  \n**Annotations:**  \n- **Actions:** Collect, Use  \n- **Data Types:**  \n  - Account Information: Messages  \n  - Contact Data: User ID  \n- **Purposes:** Functionality  \n\n&lt;R&gt;  \nPrivate messaging collects and uses user messages and user ID to facilitate one-on-one communication within the platform. This ensures that messages reach the intended recipient while maintaining necessary functionality.  \n&lt;/R&gt;"</t>
-  </si>
-  <si>
-    <t>"**Annotations:**\n\n### Profile\n- **&lt;Actions&gt;**: Use, Collect  \n- **&lt;Data Types&gt;**: Contact Data (Name, Email Address), Account Information (Password)  \n- **&lt;Purposes&gt;**: Accounts, Security  \n\n**&lt;Stories&gt;**:  \n1. As a user, I want to update my name and email address so that my account information remains current.  \n2. As a user, I must enter my current password before updating my profile to ensure account security.  \n\n&lt;R&gt;  \nThe text describes the process of updating a user's profile, which requires entering a password for authentication. This involves **Collecting** the password for verification and **Using** the name and email address for account management. The purposes are **Accounts** (for updating user information) and **Security** (to enforce authentication before changes).  \n&lt;/R&gt;  \n\n### Custom Avatar  \n- **&lt;Actions&gt;**: Use, Collect  \n- **&lt;Data Types&gt;**: Contact Data (Image, Email Address)  \n- **&lt;Purposes&gt;**: Customization  \n\n**&lt;Stories&gt;**:  \n1. As a user, I want to upload an image to personalize my profile avatar.  \n2. As a user, I want my avatar to be retrieved from Gravatar based on my email address.  \n\n&lt;R&gt;  \nThe system allows users to upload an image for their avatar, which indicates **Collecting** that image. The application also retrieves an avatar from Gravatar using the email address, which falls under **Using** Contact Data (Email Address, Image). The purpose is **Customization**, as this feature allows users to personalize their profile.  \n&lt;/R&gt;  \n\n### Preferences  \n- **&lt;Actions&gt;**: Use  \n- **&lt;Data Types&gt;**: Usage Data (User Engagement)  \n- **&lt;Purposes&gt;**: Functionality  \n\n**&lt;Stories&gt;**:  \n1. As a user, I want to configure my playback and notification settings so that my experience is tailored to my preferences.  \n2. As a user, I want my preferences to be saved and synced across devices for a seamless experience.  \n\n&lt;R&gt;  \nThe preferences section describes various settings that users can configure, which involves **Using** User Engagement data to apply these preferences. The purpose is **Functionality**, as these settings improve the user's experience with the application.  \n&lt;/R&gt;  \n\n### Service Integration Statuses  \n- **&lt;Actions&gt;**: Use, Share  \n- **&lt;Data Types&gt;**: Account Information (User ID)  \n- **&lt;Purposes&gt;**: Functionality  \n\n**&lt;Stories&gt;**:  \n1. As a user, I want to connect or disconnect my external service accounts to integrate additional features.  \n2. As a user, I want to view the connection statuses of my integrated services for better control.  \n\n&lt;R&gt;  \nThe text mentions integrating with external services (e.g., Last.fm, Spotify), which implies **Sharing** the User ID with these services to enable integration. The purpose is **Functionality**, as the integration enables additional features.  \n&lt;/R&gt;  \n\n### QR Code Authentication  \n- **&lt;Actions&gt;**: Use, Collect  \n- **&lt;Data Types&gt;**: Account Information (User ID, Password)  \n- **&lt;Purposes&gt;**: Security, Accounts  \n\n**&lt;Stories&gt;**:  \n1. As a user, I want to log in to Koel Player on my phone using a QR code for quick access.  \n2. As a user, I want the QR code to refresh every ten minutes to prevent unauthorized access.  \n\n&lt;R&gt;  \nThe QR code facilitates logging in without manually entering credentials, which involves **Using** the User ID and Password for authentication. The application also **Collects** login credentials when authenticating users. The purposes are **Security** (prevent unauthorized access) and **Accounts** (authentication and login).  \n&lt;/R&gt;"</t>
-  </si>
-  <si>
-    <t>"### Annotations:\n\n#### Section C. Problems Solved:\n\n**1. Patient-initiated transmission of clinical data from the Report section of the Patient Portal interface.**  \n- **&lt;Actions&gt;: Collect, Use**  \n- **&lt;Data Types&gt;: Health Data**  \n- **&lt;Purposes&gt;: Functionality**  \n\n**2. Provider-initiated transmission of clinical data from the Report section of the Patient pane in the main LibreEHR interface.**  \n- **&lt;Actions&gt;: Collect, Use**  \n- **&lt;Data Types&gt;: Health Data**  \n- **&lt;Purposes&gt;: Functionality**  \n\n**3. Log all data transmissions including date/time, patient, and whether transmission was initiated by the patient through the Patient Portal or by a LibreEHR user through the main interface.**  \n- **&lt;Actions&gt;: Collect, Use**  \n- **&lt;Data Types&gt;: Usage Data (Timestamps, User Engagement)**  \n- **&lt;Purposes&gt;: Security, Functionality**  \n\n**4. Receive Direct messages from other sources.**  \n- **&lt;Actions&gt;: Collect, Use**  \n- **&lt;Data Types&gt;: Health Data**  \n- **&lt;Purposes&gt;: Functionality**  \n\n**&lt;Stories&gt;**  \n1. As a patient, I can transmit my clinical data from the Patient Portal so that my healthcare provider can receive and review my medical records.  \n2. As a provider, I can initiate the transmission of patient clinical data to ensure that necessary medical information is shared securely.  \n3. As an administrator, I can log data transmissions, including timestamps and patient details, to track and audit system activity for security and functionality.  \n4. As a system, I can receive direct messages containing patient health information to ensure that medical data is available for processing.  \n\n**&lt;R&gt;**  \nThis section describes actions related to collecting and using health data for transmitting medical records. It explicitly mentions logging timestamps and patient details, which fall under usage data. The logging functionality serves both security and operational purposes. Receiving messages ensures the functionality of the system, as it enables healthcare providers to access medical records securely.  \n**&lt;/R&gt;**  \n\n---\n\n#### Section F. How to enable the Direct Messaging Features in LibreEHR:\n\n**3. Specify the LibreEHR user who will receive notification of new incoming Direct messages. Enter their LibreEHR username in the notification user field.**  \n- **&lt;Actions&gt;: Use**  \n- **&lt;Data Types&gt;: Contact Data (Username)**  \n- **&lt;Purposes&gt;: Functionality**  \n\n**7. Confirm that a valid Notification Email Address is set in the Administration::Globals::Notifications tab to receive error notifications from the Direct Messaging service.**  \n- **&lt;Actions&gt;: Use**  \n- **&lt;Data Types&gt;: Contact Data (Email Address)**  \n- **&lt;Purposes&gt;: Functionality**  \n\n**&lt;Stories&gt;**  \n1. As an administrator, I can specify a LibreEHR user to receive notifications about incoming messages so that they are informed about new messages promptly.  \n2. As a system, I can use a specified notification email address to send error messages to administrators to ensure they are aware of system issues.  \n\n**&lt;R&gt;**  \nThis section focuses on configuring notifications for users. The username and email address are used to ensure proper system functionality by directing messages and error reports to the appropriate users. Since these actions facilitate core messaging operations, the purpose is categorized under functionality.  \n**&lt;/R&gt;**  \n\n---\n\n#### Section J. How to use the Direct Messaging Features in LibreEHR:\n\n**1. Sending:**  \n- **&lt;Actions&gt;: Use**  \n- **&lt;Data Types&gt;: Health Data, Contact Data (Email Address)**  \n- **&lt;Purposes&gt;: Functionality**  \n\n**2. Receiving:**  \n- **&lt;Actions&gt;: Collect, Use**  \n- **&lt;Data Types&gt;: Health Data, Contact Data (Email Address)**  \n- **&lt;Purposes&gt;: Functionality**  \n\n**&lt;Stories&gt;**  \n1. As a provider, I can enter a recipient's Direct Address to send clinical documents securely.  \n2. As a system, I can collect and use Direct messages containing clinical data to ensure that providers receive the necessary medical information.  \n\n**&lt;R&gt;**  \nSending and receiving messages involve handling both health data and contact data in the form of Direct Addresses (which function as email addresses). Since these actions are necessary for the system to operate as intended, the purpose is categorized under functionality.  \n**&lt;/R&gt;**"</t>
-  </si>
-  <si>
-    <t>"# Annotations\n\n## Authentication and Authorization\n\n**&lt;Actions&gt;**  \n- Use  \n\n**&lt;Data Types&gt;**  \n- Contact Data: User ID  \n- Account Information: Username, Password  \n\n**&lt;Purposes&gt;**  \n- Security  \n\n**&lt;Stories&gt;**  \n- As a user, I want my authentication credentials (username and password) to be securely managed so that unauthorized access to patient data is prevented.  \n- As an administrator, I want access to patient records to be restricted based on assigned roles and privileges to ensure data confidentiality.  \n\n&lt;R&gt;  \n**Rationale:**  \nThis section discusses authentication and authorization mechanisms in OpenMRS. The system enforces security by grouping privileges into roles and using a role-based access control mechanism. The **Use** action is applied because the system processes and enforces security rules based on user credentials. **User ID, Username, and Password** are identified as data types since they are necessary for authentication. The **Security** purpose is relevant because the system ensures confidentiality and restricts access to data.  \n&lt;/R&gt;  \n\n---\n\n## The Data Access Layer  \n\n**&lt;Actions&gt;**  \n- Use  \n\n**&lt;Data Types&gt;**  \n- Usage Data: Device Information (Database interactions)  \n\n**&lt;Purposes&gt;**  \n- Functionality  \n\n**&lt;Stories&gt;**  \n- As a developer, I want database interactions to be abstracted through the data access layer so that data is managed efficiently without exposing low-level database details.  \n\n&lt;R&gt;  \n**Rationale:**  \nThis section describes how OpenMRS uses Hibernate for object-relational mapping and database management. The **Use** action is appropriate because the system processes and interacts with data stored in databases. **Device Information (Database interactions)** is inferred as a relevant data type since the system interacts with stored patient and system data. **Functionality** is the primary purpose because the data access layer is necessary for the core operations of OpenMRS.  \n&lt;/R&gt;  \n\n---\n\n## Authentication and Authorization (Security Enforcement)  \n\n**&lt;Actions&gt;**  \n- Use  \n\n**&lt;Data Types&gt;**  \n- Contact Data: User ID  \n- Account Information: Username, Password  \n\n**&lt;Purposes&gt;**  \n- Security  \n\n**&lt;Stories&gt;**  \n- As a system administrator, I want authentication and authorization controls to be enforced using privileges and roles to ensure the confidentiality of patient data.  \n\n&lt;R&gt;  \n**Rationale:**  \nThis section elaborates on security controls in OpenMRS, ensuring access restrictions based on roles and privileges. The **Use** action applies since the system processes authentication credentials and enforces security protocols. **User ID, Username, and Password** are relevant data types as they are required for authentication. The **Security** purpose is valid since these mechanisms protect patient data and ensure confidentiality.  \n&lt;/R&gt;  \n\n---\n\n## Summary (Authentication and Confidentiality)  \n\n**&lt;Actions&gt;**  \n- Use  \n\n**&lt;Data Types&gt;**  \n- Contact Data: User ID  \n- Account Information: Username, Password  \n\n**&lt;Purposes&gt;**  \n- Security  \n\n**&lt;Stories&gt;**  \n- As a user, I want OpenMRS to enforce authentication and authorization policies to protect my account and maintain the confidentiality of patient data.  \n\n&lt;R&gt;  \n**Rationale:**  \nThe summary reiterates security practices, reinforcing the importance of authentication and authorization in OpenMRS. The **Use** action is present as the system handles user credentials for enforcing security. **User ID, Username, and Password** are the relevant data types. The **Security** purpose is chosen because these measures are implemented to protect patient confidentiality and account information.  \n&lt;/R&gt;"</t>
-  </si>
-  <si>
-    <t>"Registrations  \n\n**Annotations:**  \n- **&lt;Actions&gt;:** Collect, Use  \n- **&lt;Data Types&gt;:** Contact Data (Email Address, Name), Account Information (Username, Password)  \n- **&lt;Purposes&gt;:** Accounts, Security  \n\n&lt;R&gt;  \n**Rationale:**  \nThe system collects user-provided data when they register, including email addresses, names, usernames, and passwords. This data is used for account creation and authentication purposes. Additionally, requiring email verification and approval helps prevent spam and enhances security.  \n&lt;/R&gt;  \n\n---\n\nManage users  \n\n**Annotations:**  \n- **&lt;Actions&gt;:** Use, Delete  \n- **&lt;Data Types&gt;:** Contact Data (Email Address, Name), Account Information (Username, Password)  \n- **&lt;Purposes&gt;:** Accounts, Security  \n\n&lt;R&gt;  \n**Rationale:**  \nAdministrators and moderators can manage users by updating, deleting, or banning them. The use of email addresses and usernames ensures proper user administration, while banning and deletion mechanisms enhance security and control over the platform.  \n&lt;/R&gt;  \n\n---\n\nEditing users  \n\n**Annotations:**  \n- **&lt;Actions&gt;:** Use, Collect  \n- **&lt;Data Types&gt;:** Contact Data (Email Address), Account Information (Username, Password)  \n- **&lt;Purposes&gt;:** Accounts, Security  \n\n&lt;R&gt;  \n**Rationale:**  \nEditing a user involves modifying email addresses, roles, and quotas. Additionally, password resets can be conducted via email or manually, indicating a collection and usage aspect for authentication and security purposes.  \n&lt;/R&gt;  \n\n---\n\nRoles  \n\n**Annotations:**  \n- **&lt;Actions&gt;:** Use  \n- **&lt;Data Types&gt;:** Contact Data (Email Address, Name), Account Information (Username, User ID)  \n- **&lt;Purposes&gt;:** Accounts, Security  \n\n&lt;R&gt;  \n**Rationale:**  \nRoles define user permissions and access levels. The system uses contact and account data to ensure appropriate user administration, including moderating content and managing other users, contributing to both account management and security.  \n&lt;/R&gt;  \n\n---\n\nModerator  \n\n**Annotations:**  \n- **&lt;Actions&gt;:** Use  \n- **&lt;Data Types&gt;:** Contact Data (Email Address, Name), Account Information (Username, User ID)  \n- **&lt;Purposes&gt;:** Accounts, Security  \n\n&lt;R&gt;  \n**Rationale:**  \nModerators access user account information to manage content and user activities. They can view usernames, email addresses, and account roles, ensuring compliance with platform policies and security considerations.  \n&lt;/R&gt;  \n\n---\n\nUser  \n\n**Annotations:**  \n- **&lt;Actions&gt;:** Use, Collect  \n- **&lt;Data Types&gt;:** Account Information (Username)  \n- **&lt;Purposes&gt;:** Accounts, Functionality  \n\n&lt;R&gt;  \n**Rationale:**  \nUsers interact with the platform by creating, editing, and deleting channels, playlists, and videos. Their username is used for account-related functionalities such as reports and comments, ensuring proper platform operation.  \n&lt;/R&gt;  \n\n---\n\nQuotas  \n\n**Annotations:**  \n- **&lt;Actions&gt;:** Use  \n- **&lt;Data Types&gt;:** Account Information (User ID)  \n- **&lt;Purposes&gt;:** Functionality  \n\n&lt;R&gt;  \n**Rationale:**  \nVideo quotas are associated with user accounts to regulate platform resource usage. The system tracks user video storage and uploads to ensure proper distribution of resources, making this necessary for functionality.  \n&lt;/R&gt;"</t>
-  </si>
-  <si>
-    <t>"### Annotations:\n\n#### Section: Creating analytics events\n\n**Annotations:**\n- **&lt;Actions&gt;**: Use\n- **&lt;Data Types&gt;**: Usage Data → App Interactions → Pages Visited, Timestamps, User Engagement\n- **&lt;Purposes&gt;**: Analytics\n\n**&lt;Stories&gt;**: The application logs user interactions such as page visits and timestamps to track engagement and generate analytics reports.\n\n**&lt;R&gt;**\nThe text describes logging events related to user interactions, such as \"listing created\" and \"message sent.\" These are classified as **Usage Data → App Interactions**, specifically **Pages Visited, Timestamps, and User Engagement**. The purpose of collecting this data is to generate analytics reports, making **Analytics** the relevant purpose.\n**&lt;/R&gt;**\n\n---\n\n#### Section: Sending events to different engines\n\n**Annotations:**\n- **&lt;Actions&gt;**: Use, Share\n- **&lt;Data Types&gt;**: \n  - Contact Data → User ID, Email Address, Name\n  - Account Information → User ID\n  - Usage Data → App Interactions → Pages Visited, Timestamps, User Engagement\n- **&lt;Purposes&gt;**: Analytics, Tracking\n\n**&lt;Stories&gt;**: The application shares user identification data, including user IDs and email addresses, with analytics engines to track user interactions and generate reports.\n\n**&lt;R&gt;**\nThe setup process sends **User ID, Email Address, and Name** to analytics engines, which qualifies as **Sharing**. Since user session activity is also tracked, it includes **Usage Data → App Interactions**. The dual purposes of **Analytics** (to generate reports) and **Tracking** (to monitor user activity) are evident from how the data is processed.\n**&lt;/R&gt;**\n\n---\n\n#### Section: st-analytics:logout\n\n**Annotations:**\n- **&lt;Actions&gt;**: Use\n- **&lt;Data Types&gt;**: \n  - Account Information → User ID\n  - Usage Data → Device Information → Device ID\n- **&lt;Purposes&gt;**: Security, Functionality\n\n**&lt;Stories&gt;**: The application clears user session data, including User ID and Device ID, to maintain security and proper functionality upon logout.\n\n**&lt;R&gt;**\nThe logout event ensures that session data is cleared by resetting the **User ID** and regenerating the **Device ID**. This serves both **Security** (preventing unauthorized session reuse) and **Functionality** (ensuring proper session control).\n**&lt;/R&gt;**\n\n---\n\n#### Section: st-analytics:event\n\n**Annotations:**\n- **&lt;Actions&gt;**: Use, Share\n- **&lt;Data Types&gt;**: \n  - Usage Data → App Interactions → Pages Visited, Timestamps, User Engagement\n- **&lt;Purposes&gt;**: Analytics, Tracking\n\n**&lt;Stories&gt;**: The application tracks and shares user engagement data, such as pages visited and timestamps, with analytics services to monitor user behavior.\n\n**&lt;R&gt;**\nThe event logging mechanism triggers analytics events and shares data with services like Google Analytics. This qualifies as **Sharing** since data is sent externally and includes **Usage Data → App Interactions**. The purpose is both **Analytics** (for monitoring user trends) and **Tracking** (for internal/external behavioral tracking).\n**&lt;/R&gt;**"</t>
+    <t>"```xml\n&lt;Actions&gt; \nCollect, Use \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nAccount Information: \n  User id, Account Balance \nFinancial: \n  Bank Account, Assets \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nAnalytics, Functionality, Accounts \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n1. We collect user id, account balance, bank account, and assets for analytics. \n2. We collect user id, account balance, bank account, and assets for functionality. \n3. We collect user id, account balance, bank account, and assets for accounts. \n4. We use user id, account balance, bank account, and assets for analytics. \n5. We use user id, account balance, bank account, and assets for functionality. \n6. We use user id, account balance, bank account, and assets for accounts. \n&lt;/Stories&gt; \n\n&lt;R&gt; \n### Rationale: \n\n1. **Actions**:  \n   - **Collect**: The application gathers account-related data when users add accounts, including account balance and linked bank accounts.  \n   - **Use**: The application utilizes this data for tracking finances, categorizing transactions, and supporting budgeting functionalities.  \n\n2. **Data Types**:  \n   - **User id**: Required for associating financial data with the correct user.  \n   - **Account Balance**: Explicitly mentioned in the document as a key metric tracked.  \n   - **Bank Account**: Users may link external accounts (e.g., via GoCardless).  \n   - **Assets**: Mentioned in the context of tracking financial resources, including investments and mortgages.  \n\n3. **Purposes**:  \n   - **Analytics**: Data is used to generate financial insights and overviews.  \n   - **Functionality**: Users need account information to manage budgets and transactions.  \n   - **Accounts**: Account data is utilized to enable financial account management.  \n\n4. **Stories**:  \n   - The six generated privacy stories accurately reflect the interactions between actions, data types, and purposes. They ensure clarity on how user data is collected and used within the application.  \n\n&lt;/R&gt;\n```"</t>
+  </si>
+  <si>
+    <t>"&lt;Actions&gt;  \nCollect  \nUse  \n&lt;/Actions&gt;  \n\n&lt;Data Types&gt;  \nAccount Information:  \n  User id  \n&lt;/Data Types&gt;  \n\n&lt;Purposes&gt;  \nFunctionality  \n&lt;/Purposes&gt;  \n\n&lt;Stories&gt;  \n1. We collect user id for functionality.  \n2. We use user id for functionality.  \n&lt;/Stories&gt;  \n\n&lt;R&gt;  \n**Rationale:**  \n\n- **Actions:**  \n  - \"Collect\" is applied because the user is required to log in to their budget, meaning the system needs to collect account credentials, which likely includes a user ID.  \n  - \"Use\" is included because the system uses the user’s account to access stored budget data and facilitate exporting or backup operations.  \n\n- **Data Types:**  \n  - \"User id\" under \"Account Information\" is selected because logging in implies authentication, which requires an identifier tied to the account.  \n\n- **Purposes:**  \n  - \"Functionality\" is used because the actions described (exporting budget data, creating a backup, restoring data) are essential functions of the application.  \n\n- **Stories:**  \n  - The generated stories effectively capture the relationship between collecting and using account credentials to ensure the application's functionality.  \n&lt;/R&gt;"</t>
+  </si>
+  <si>
+    <t>"```xml\n&lt;Actions&gt; \nCollect \nUse \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nName \nCard Data \nPhone Number \nAddress \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nAccounts \nFunctionality \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n1. We collect Name, Card Data, Phone Number, and Address for Accounts. \n2. We use Name, Card Data, Phone Number, and Address for Functionality. \n&lt;/Stories&gt; \n\n&lt;R&gt; \nThe document describes the process of creating a new payment account, which requires users to enter personal and financial details such as Name, Card Data, Phone Number, and Address. This fits under the \"Collect\" action because the application gathers this data from the user. Additionally, these data points are necessary for managing user accounts and ensuring the proper functionality of the payment system, which is why the \"Use\" action is also applied.\n\nFor data types, \"Name\" and \"Phone Number\" fall under Contact Data, while \"Card Data\" pertains to Financial Data. \"Address\" is also categorized under Contact Data. \n\nThe purposes are categorized as \"Accounts\" because this data is required to create and manage user accounts, and \"Functionality\" since it is essential for the core payment and banking features of the application.\n\nThe privacy stories are structured to reflect these relationships, ensuring clarity and alignment with the taxonomy provided. \n&lt;/R&gt;\n```"</t>
+  </si>
+  <si>
+    <t>"```xml\n&lt;Actions&gt; \ncollect, use, share \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nFinancial, Contact Data: Email address, Name, User ID, Usage Data: App Interactions: Pages Visited, Timestamps, User Engagement \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nAccounts, Contact, Analytics, Tracking, Advertisement, Functionality \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n1. We collect Financial for Accounts. \n2. We use Financial for Functionality. \n3. We collect Contact Data: Email address, Name for Contact. \n4. We use Contact Data: Email address, Name for Accounts. \n5. We collect Usage Data: App Interactions: Pages Visited, Timestamps, User Engagement for Analytics. \n6. We use Usage Data: App Interactions: Pages Visited, Timestamps, User Engagement for Tracking. \n7. We share Financial for Advertisement. \n&lt;/Stories&gt; \n\n&lt;R&gt; \n\n**Rationale:** \n\n1. **Financial Data (Orders, Payment History, Purchase History, etc.)**  \n   - The document mentions \"Support multiple payment gateways - Stripe, PayPal &amp; Coinbase\" and \"Refund payments - partial refund &amp; full refunds.\" This indicates collection and use of financial data for account and functionality purposes.  \n   - **Actions:** Collect (gathered from users), Use (processed for transactions), Share (potentially shared with payment processors).  \n   - **Purposes:** Accounts (for managing purchases and refunds), Functionality (to facilitate payments), Advertisement (potentially shared with partners for promotions).  \n\n2. **Contact Data (Email address, Name)**  \n   - The mention of \"Messaging - eg. Email all attendees with X ticket\" implies collecting and using contact data for contacting users and account-related services.  \n   - **Actions:** Collect (email addresses and names are gathered), Use (for messaging and account management).  \n   - **Purposes:** Contact (used to message attendees), Accounts (used for account-based services such as ticketing).  \n\n3. **Usage Data (App Interactions: Pages Visited, Timestamps, User Engagement)**  \n   - \"Affiliate tracking,\" \"track sales volume / number of visits generated etc.,\" and \"Real-time event statistics\" suggest collection and use of usage data for analytics and tracking.  \n   - **Actions:** Collect (gathering browsing behavior), Use (analyzing user engagement).  \n   - **Purposes:** Analytics (for insights on event statistics), Tracking (for monitoring user interactions).  \n\n4. **Sharing Financial Data for Advertisement**  \n   - \"Affiliate tracking\" indicates that financial data may be shared for promotional or advertising purposes.  \n   - **Action:** Share (potentially with third-party affiliates).  \n   - **Purpose:** Advertisement (to promote events and track sales).  \n\nThe annotations ensure that all relevant privacy behaviors are accurately reflected, providing a structured understanding of how user data is handled.  \n\n&lt;/R&gt;\n```"</t>
+  </si>
+  <si>
+    <t>"```xml\n&lt;Actions&gt; \nUse \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nUsage Data: \n  App Interactions: \n    Pages Visited \n    Timestamps \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nFunctionality \nSecurity \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n1. We use pages visited for functionality. \n2. We use timestamps for functionality. \n3. We use pages visited for security. \n4. We use timestamps for security. \n&lt;/Stories&gt; \n\n&lt;R&gt; \nThe document describes how the application controls and processes user navigation. It tracks navigation events such as URLs visited and timestamps when navigation occurs. These behaviors fall under \"Usage Data\" with subcategories \"Pages Visited\" and \"Timestamps.\" \n\nThe purpose of this data usage is primarily for \"Functionality\"—ensuring correct navigation within the application—and \"Security\"—preventing navigation to untrusted pages and mitigating security risks. \n\nThus, the generated privacy stories accurately reflect that the application uses pages visited and timestamps for both functionality and security. \n&lt;/R&gt;\n```"</t>
+  </si>
+  <si>
+    <t>"&lt;Actions&gt;  \nCollect, Use  \n&lt;/Actions&gt;  \n\n&lt;Data Types&gt;  \nContact Data:  \n  Name, Email address, Date of Birth, Address, User ID, Image, Friends  \nUsage Data:  \n  App Interactions:  \n    Pages Visited, Timestamps, User Engagement  \n  Device Information:  \n    IP Address, Device ID, Browser, Operating System  \n&lt;/Data Types&gt;  \n\n&lt;Purposes&gt;  \nContact, Customization, Functionality, Analytics, Security  \n&lt;/Purposes&gt;  \n\n&lt;Stories&gt;  \n1. We collect name, email address, date of birth, address, user ID, image, and friends for contact.  \n2. We use name, email address, date of birth, address, user ID, image, and friends for contact.  \n3. We collect name, email address, date of birth, address, user ID, image, and friends for customization.  \n4. We use name, email address, date of birth, address, user ID, image, and friends for customization.  \n5. We collect name, email address, date of birth, address, user ID, image, and friends for functionality.  \n6. We use name, email address, date of birth, address, user ID, image, and friends for functionality.  \n7. We collect pages visited, timestamps, and user engagement for analytics.  \n8. We use pages visited, timestamps, and user engagement for analytics.  \n9. We collect IP address, device ID, browser, and operating system for security.  \n10. We use IP address, device ID, browser, and operating system for security.  \n&lt;/Stories&gt;  \n\n&lt;R&gt;  \n**Rationale:**  \n\n- **Actions:** The system collects data as users input personal details to maintain their personal relationship management (PRM) records. It also uses this data for various functionalities such as reminders, managing contacts, and documenting interactions.  \n- **Data Types:**  \n  - **Contact Data:** The system collects and uses name, email address, date of birth, address, user ID, image, and friends, as it allows users to document and manage contacts.  \n  - **Usage Data:** The reference to user activity (such as pages visited, timestamps, and engagement) indicates that app interaction data is collected.  \n  - **Device Information:** The mention of transparency and security implies that IP address, device ID, browser, and operating system may be used to ensure security and proper functioning of the application.  \n- **Purposes:**  \n  - **Contact:** The system collects and uses contact data to help users manage relationships and communicate.  \n  - **Customization:** Features like reminders and organizing contacts suggest that user data is used to tailor the experience.  \n  - **Functionality:** The system requires the collected data to provide core features such as contact management and activity logging.  \n  - **Analytics:** User engagement and interaction data are likely used to improve the system.  \n  - **Security:** The collection and use of device information are necessary to ensure the security of users' data and prevent potential misuse.  \n&lt;/R&gt;"</t>
+  </si>
+  <si>
+    <t>"```xml\n&lt;Actions&gt; \nCollect, Use \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nLocation: Precise location, \nHealth Data: Physical activity, \nUsage Data: Timestamps \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nAnalytics, Customization \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n1. We collect Precise location, Physical activity, and Timestamps for Customization. \n2. We use Precise location, Physical activity, and Timestamps for Analytics. \n&lt;/Stories&gt; \n\n&lt;R&gt; \n### Rationale:\n1. **Actions:** \n   - **Collect:** The system records track data, including location, timestamps, and sensor data from activities like heart rate and cadence.\n   - **Use:** The collected data is used for statistics, analysis, and visualization of user activity.\n\n2. **Data Types:** \n   - **Location (Precise location):** The system records longitude and latitude within `TrackPoint` and `Marker`, indicating precise geographic tracking.\n   - **Health Data (Physical activity):** The system records `sensor_heartrate`, `sensor_cadence`, and `sensor_power`, indicating biometric and movement-related activity data.\n   - **Usage Data (Timestamps):** `startTime`, `stopTime`, and `time` fields are recorded, indicating when the user interacts with the tracking functionality.\n\n3. **Purposes:** \n   - **Analytics:** The data is used to generate statistics (`TrackStatistics` and `TrackStatisticsUpdater`), which implies analysis of user activity.\n   - **Customization:** The track and marker system allows for user-specific tracking and recording, which suggests the data is used for tailoring the user experience.\n\n4. **Stories:** \n   - The first story captures the **collection** of data relevant to user tracking for customization.\n   - The second story captures the **use** of the collected data for analytics to generate insights on user activity.\n&lt;/R&gt;\n```"</t>
+  </si>
+  <si>
+    <t>"```xml\n&lt;Actions&gt; \nUse, Share \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nAccount Information: \n  User ID \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nFunctionality, Accounts \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n1. We use account information for functionality.  \n2. We use account information for accounts.  \n3. We share account information for functionality.  \n4. We share account information for accounts.  \n&lt;/Stories&gt; \n\n&lt;R&gt; \n### Rationale: \n\n**Actions:**  \n- **Use**: The system accesses and processes the user's account data when it is updated. This is evident in functions that handle account data updates and log the new information.  \n- **Share**: The system sends an event to an audit room when a user changes their account data, meaning the data is shared within the system to another entity (audit logs).  \n\n**Data Types:**  \n- **Account Information - User ID**: The document explicitly states that the module receives the Matrix ID (user ID) of the user whose account data is changing.  \n\n**Purposes:**  \n- **Functionality**: The callbacks and logging mechanisms ensure that the system functions as intended by reacting to account data changes.  \n- **Accounts**: The account data updates are tied directly to user account management, ensuring that changes are properly logged and processed.  \n\n**Stories:**  \n- The stories accurately capture the relationships between the actions, data types, and purposes, ensuring precise and meaningful privacy requirements.  \n&lt;/R&gt; \n```"</t>
+  </si>
+  <si>
+    <t>"```xml\n&lt;Actions&gt; \nUse \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nAccount Information: \n  User id \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nSecurity \nAccounts \nFunctionality \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n1. We use user id for security. \n2. We use user id for functionality. \n3. We use user id for account management. \n&lt;/Stories&gt; \n\n&lt;R&gt; \nThe document describes how Synapse processes account validity callbacks, including verifying whether a user’s account is expired, handling user registration, and processing logins. The `is_user_expired` function checks if a user should be locked out, which is a security-related function. The `on_user_registration` and `on_user_login` functions involve keeping track of users, which is necessary for account management and functionality. The only relevant data type explicitly mentioned is the User ID, which is used in all of these processes. Based on this, the privacy stories describe how the system uses User ID for security, functionality, and account management. \n&lt;/R&gt; \n```"</t>
+  </si>
+  <si>
+    <t>"```xml\n&lt;Actions&gt;\nCollect, Use\n&lt;/Actions&gt;\n\n&lt;Data Types&gt;\nAccount Information, Username, Password, Email address, Phone number\n&lt;/Data Types&gt;\n\n&lt;Purposes&gt;\nAccounts, Security\n&lt;/Purposes&gt;\n\n&lt;Stories&gt;\n1. We collect username, password, email address, and phone number for account creation.\n2. We use username, password, email address, and phone number for authentication.\n3. We use username, password, email address, and phone number for security verification.\n&lt;/Stories&gt;\n\n&lt;R&gt;\n### Rationale for Annotations\n\n#### Actions:\n- **Collect**: The system gathers user credentials such as username, password, email address, and phone number during registration and authentication.\n- **Use**: The system utilizes these credentials for authentication and verification.\n\n#### Data Types:\n- **Account Information**: The system processes usernames and passwords.\n- **Email address**: Used for authentication and verification.\n- **Phone number**: Used for authentication and verification.\n\n#### Purposes:\n- **Accounts**: The data is used for managing user accounts, including registration and login.\n- **Security**: The credentials are utilized for authentication and security purposes.\n\n#### Stories:\n1. **Story 1**: This covers the collection of necessary user credentials for account creation.\n2. **Story 2**: This describes the use of collected credentials for logging in and authenticating users.\n3. **Story 3**: This ensures that authentication data is also used for security verification, ensuring access control.\n\nThe annotations are kept precise and relevant to the provided taxonomy, ensuring clarity in privacy behaviors.\n&lt;/R&gt;\n```"</t>
+  </si>
+  <si>
+    <t>"```xml\n&lt;Actions&gt; \nCollect, Use \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nContact Data: \n  User ID, Email Address \nUsage Data: \n  App Interactions: Session ID \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nFunctionality, Accounts \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n1. We collect user ID and session ID for functionality. \n2. We use user ID and session ID for functionality. \n3. We collect email address for accounts. \n4. We use email address for accounts. \n&lt;/Stories&gt; \n\n&lt;R&gt; \n### Rationale:\n\n**Actions:**\n- \"Collect\" is used because the system gathers user ID, session ID, and email address.\n- \"Use\" is applied since these data types are accessed and processed within the system.\n\n**Data Types:**\n- \"User ID\" and \"Session ID\" are categorized under \"Contact Data\" and \"Usage Data\" respectively, as they relate to user identification and tracking.\n- \"Email Address\" is explicitly mentioned in the notification system.\n\n**Purposes:**\n- \"Functionality\" is assigned because the user ID and session ID are necessary for managing subscriptions and interactions within the notification system.\n- \"Accounts\" is used for email addresses as they are essential for managing user accounts and authentication.\n\n**Stories:**\n- Each story follows the format: \"We (action) (data type) for (purpose),\" ensuring clarity and precision in describing privacy behaviors.\n&lt;/R&gt;\n```"</t>
+  </si>
+  <si>
+    <t>"&lt;Actions&gt;  \nCollect, Use  \n&lt;/Actions&gt;  \n\n&lt;Data Types&gt;  \nEmail Address, User ID, Session ID  \n&lt;/Data Types&gt;  \n\n&lt;Purposes&gt;  \nFunctionality, Security  \n&lt;/Purposes&gt;  \n\n&lt;Stories&gt;  \n1. We collect email addresses and user IDs for functionality.  \n2. We use session IDs for security.  \n&lt;/Stories&gt;  \n\n&lt;R&gt;  \n**Rationale:**  \n- **Actions:**  \n  - \"Collect\" is applied because the system needs to gather recipient information (email address, user ID) to distribute notifications.  \n  - \"Use\" is applied because the collected data (session ID) is utilized for security and authentication purposes.  \n\n- **Data Types:**  \n  - \"Email Address\" is explicitly mentioned as an address to which notifications are sent.  \n  - \"User ID\" corresponds to the \"sid\" (session ID) which is associated with recipients.  \n  - \"Session ID\" is used for authenticated messaging, ensuring security.  \n\n- **Purposes:**  \n  - \"Functionality\" is assigned because the email address and user ID are necessary for sending notifications, which is a core function of the system.  \n  - \"Security\" is assigned because session IDs are used for authentication, ensuring that messages are sent securely.  \n\n- **Stories:**  \n  - The first story captures notification-related data collection for core functionality.  \n  - The second story describes the use of session IDs for authentication and security.  \n&lt;/R&gt;"</t>
+  </si>
+  <si>
+    <t>"```xml\n&lt;Actions&gt; \nCollect, Use \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nEmail address, User ID, Messages \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nFunctionality, Accounts, Security \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n1. We collect email address, user ID for accounts. \n2. We use email address, user ID for functionality. \n3. We use messages for security. \n&lt;/Stories&gt; \n\n&lt;R&gt; \nThe document describes a notification system that allows users to subscribe to notifications. Email addresses and user IDs are collected for account creation and identification purposes, so \"Collect\" is used for these data types under the \"Accounts\" purpose. The system uses email addresses and user IDs to send notifications, making it necessary for \"Functionality.\" Additionally, messages are used to determine subscription preferences and authentication status, which ties into \"Security.\" These annotations ensure accuracy by aligning actions, data types, and purposes with the documented functionality. \n&lt;/R&gt;\n```"</t>
+  </si>
+  <si>
+    <t>"```xml\n&lt;Actions&gt; \nCollect, Use \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nContact Data: \n  Email address, User ID \nAccount Information: \n  Password \nUsage Data: \n  Timestamps, App Interactions: User Engagement \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nSecurity, Functionality, Analytics \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n1. We collect email addresses and user IDs for security. \n2. We use passwords for security. \n3. We collect and use timestamps and user engagement data for analytics. \n&lt;/Stories&gt; \n\n&lt;R&gt; \n**Rationale:**\n- **Actions:**  \n  - \"Collect\" is used because the system gathers email addresses, user IDs, and usage data.  \n  - \"Use\" is used because the system utilizes passwords for authentication and timestamps for analytics.  \n\n- **Data Types:**  \n  - \"Email address\" and \"User ID\" are collected for authentication purposes.  \n  - \"Password\" is used for authentication and security.  \n  - \"Timestamps\" and \"User Engagement\" are collected and used for analytics purposes.  \n\n- **Purposes:**  \n  - \"Security\" is relevant because authentication relies on email addresses, user IDs, and passwords.  \n  - \"Functionality\" applies because authentication is a necessary function of the application.  \n  - \"Analytics\" is relevant because timestamps and user engagement data help analyze system usage.  \n\n- **Stories:**  \n  - Story 1 reflects the collection of email addresses and user IDs for authentication and security.  \n  - Story 2 reflects the use of passwords for authentication and security purposes.  \n  - Story 3 reflects the collection and use of timestamps and engagement data for analytics.  \n&lt;/R&gt;\n```"</t>
+  </si>
+  <si>
+    <t>"```xml\n&lt;Actions&gt; \nCollect, Use, Delete \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nEmail address, User ID, Password, Phone Number \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nContact, Accounts, Functionality, Security \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n1. We collect Email Address and Phone Number for contact.  \n2. We use Email Address, Phone Number, and User ID for account functionality.  \n3. We use Password and User ID for security.  \n4. We delete Email Address and Phone Number for account management.  \n&lt;/Stories&gt; \n\n&lt;R&gt; \n### **Rationale:**\n1. **Actions Identified:**\n   - **Collect:** The application collects email addresses and phone numbers (e.g., when a user enters their email or phone number).  \n   - **Use:** The application uses the email, phone number, and user ID for account management and functionality (e.g., authentication and verification).  \n   - **Delete:** The application deletes phone numbers and email addresses upon user request.  \n\n2. **Data Types Identified:**\n   - **Email Address &amp; Phone Number:** These are collected for user contact and verification purposes.  \n   - **User ID:** Used for account association and authentication.  \n   - **Password:** Used for authentication and security purposes.  \n\n3. **Purposes Identified:**\n   - **Contact:** The collected email and phone number are used to contact the user (e.g., sending verification emails and messages).  \n   - **Accounts:** The user ID and email/phone number are used for account-related functions (e.g., linking identifiers to the account).  \n   - **Functionality:** These data points enable core app functions such as logging in and managing user credentials.  \n   - **Security:** Passwords are used to verify user identity and ensure secure access.  \n\n4. **Privacy Stories Generated:**\n   - **Story 1:** Reflects the collection of contact data (email and phone number) to facilitate communication.  \n   - **Story 2:** Covers the use of collected data for account functionality (e.g., linking identifiers for authentication).  \n   - **Story 3:** Emphasizes the use of passwords and user IDs to maintain security.  \n   - **Story 4:** Reflects the deletion of contact data when a user removes their email or phone number from their account.  \n\nThese annotations ensure precision in defining how user data is handled within the application.  \n&lt;/R&gt;\n```"</t>
+  </si>
+  <si>
+    <t>"```xml\n&lt;Actions&gt; \nCollect, Use \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nEmail address, User ID, Username, Password, Name, Account Information \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nAccounts, Contact, Functionality, Security \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n1. We collect email address, user ID, username, and password for account creation and management.  \n2. We use email address to send account information and login details for account management.  \n3. We use email address and account information for contact purposes, including notifications.  \n4. We use username and user ID to identify accounts for functionality.  \n5. We use password for authentication and security purposes.  \n&lt;/Stories&gt; \n\n&lt;R&gt; \n### Rationale:  \n\n- **Actions:**  \n  - \"Collect\" applies to the instance where users provide their email address, username, password, and other account-related details during registration.  \n  - \"Use\" applies when the system processes this data for login, account management, and notifications.  \n\n- **Data Types:**  \n  - The text explicitly mentions **email address** for login and notifications.  \n  - **User ID** and **username** are used for identification and login.  \n  - **Password** is explicitly mentioned for authentication.  \n  - **Name** is referenced in the \"Display Name\" section.  \n  - **Account Information** is inferred from references to login credentials, account settings, and exported data.  \n\n- **Purposes:**  \n  - **Accounts** is relevant because the system collects and uses data for account registration and management.  \n  - **Contact** applies since the email is used to send account details and notifications.  \n  - **Functionality** applies since usernames and user IDs are used to identify accounts and facilitate interactions.  \n  - **Security** is relevant because passwords are used for authentication.  \n\n- **Stories:**  \n  - Each story ties an action (collect or use) with a data type and a purpose.  \n  - The stories cover registration, authentication, account management, and notifications.  \n&lt;/R&gt;\n```"</t>
+  </si>
+  <si>
+    <t>"```xml\n&lt;Actions&gt; \nCollect, Use \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nEmail address, Account Information: User ID, Username, Password \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nAccounts, Security, Functionality \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n1. We collect email address and account information for accounts. \n2. We collect email address and account information for functionality. \n3. We use email address and account information for accounts. \n4. We use email address and account information for security. \n5. We use email address and account information for functionality. \n&lt;/Stories&gt; \n\n&lt;R&gt; \n### Rationale:\n\n1. **Actions:**\n   - **Collect**: The system gathers user-provided email addresses and credentials during the sign-up process.\n   - **Use**: The system utilizes this data for account creation, verification, and authentication.\n\n2. **Data Types:**\n   - **Email address**: Required for account verification and communication.\n   - **Account Information (User ID, Username, Password)**: Essential for user authentication and account management.\n\n3. **Purposes:**\n   - **Accounts**: The collected data is necessary to create and maintain user accounts.\n   - **Security**: Email verification and passwords are used to ensure secure access and prevent unauthorized use.\n   - **Functionality**: The system relies on this data to manage user sign-ups and enforce access policies.\n\n4. **Stories:**\n   - Stories were formulated to reflect how the collected and used data supports account creation, security, and system functionality.\n   - Each story captures the interaction between actions, data types, and purposes based on the sign-up process described in the document.\n&lt;/R&gt;\n```"</t>
+  </si>
+  <si>
+    <t>"```xml\n&lt;Actions&gt; \nCollect, Use \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nName, Email address, Phone Number, Password, User ID \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nAccounts, Security, Functionality \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n1. We collect Name, Email address, Phone Number, Password, and User ID for accounts.  \n2. We collect Name, Email address, Phone Number, Password, and User ID for security.  \n3. We collect Name, Email address, Phone Number, Password, and User ID for functionality.  \n4. We use Name, Email address, Phone Number, Password, and User ID for accounts.  \n5. We use Name, Email address, Phone Number, Password, and User ID for security.  \n6. We use Name, Email address, Phone Number, Password, and User ID for functionality.  \n&lt;/Stories&gt; \n\n&lt;R&gt; \n\n### Rationale:\n1. **Actions**:  \n   - **Collect**: The system collects user details such as Name, Email, Phone Number, and User ID as part of the account setup and management.  \n   - **Use**: The system uses this data for authentication, security, and account management.  \n\n2. **Data Types**:  \n   - **Name**: First and Last Name are explicitly listed as part of user details.  \n   - **Email Address**: Collected and used for password reset functionality.  \n   - **Phone Number**: Mentioned as being collected for reference.  \n   - **Password**: Used for authentication purposes, including login and security verification.  \n   - **User ID**: While not explicitly mentioned, managing an account typically requires an identifier, inferred from the context.  \n\n3. **Purposes**:  \n   - **Accounts**: The data is necessary for user identification and account management.  \n   - **Security**: Passwords and two-factor authentication ensure security.  \n   - **Functionality**: The details are needed for user interactions, team communication, and account settings.  \n\n4. **Stories**:  \n   - The generated stories accurately reflect how the system collects and uses personal information for account management, security measures, and general functionality.  \n\n&lt;/R&gt;\n```"</t>
+  </si>
+  <si>
+    <t>"```xml\n&lt;Actions&gt; \nCollect, Use, Share \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nContact Data: \n  Email address \n  User ID \nUsage Data: \n  App Interactions: \n    Session ID \n  Device Information: \n    IP Address \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nAnalytics, Functionality \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n1. We collect email address, user ID, session ID, and IP address for functionality. \n2. We use email address, user ID, session ID, and IP address for functionality. \n3. We collect email address, user ID, session ID, and IP address for analytics. \n4. We use email address, user ID, session ID, and IP address for analytics. \n5. We share email address for analytics. \n&lt;/Stories&gt; \n\n&lt;R&gt; \n\n### Rationale:\n\n#### Actions:\n- **Collect**: The document mentions the collection of IP addresses (`collectIP: true`) and legacy stats, which likely include session IDs and other interaction data.\n- **Use**: The collected data is used for application functionality, such as sending statistics to `callstats.io`, enabling display names and emails in stats.\n- **Share**: The document specifically states that email addresses can be sent to `callstats.io` for analytics, which qualifies as sharing with a third party.\n\n#### Data Types:\n- **Email address**: Mentioned explicitly in `enableEmailInStats`.\n- **User ID**: The `callStatsID` and additional IDs (such as `sessionID`, `tenantID`, `customerID`) represent user identifiers.\n- **Session ID**: Found under `additionalIDs`, used to track session-based interactions.\n- **IP Address**: Explicitly collected when `collectIP: true`.\n\n#### Purposes:\n- **Functionality**: This data is required to enable `callstats.io`, track sessions, and ensure proper platform function.\n- **Analytics**: Email addresses and session data are used to analyze user behavior.\n\n#### Stories:\nEach story was formed by aligning the identified actions, data types, and purposes to reflect how data is collected, used, and shared in a privacy-aware way.\n\n&lt;/R&gt;\n```"</t>
+  </si>
+  <si>
+    <t>"```xml\n&lt;Actions&gt; \nCollect, Use \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nEmail address, Username, Password, Account Information \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nAccounts, Functionality, Security \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n1. We collect Email Address, Username, and Password for Accounts.  \n2. We use Email Address for Functionality.  \n3. We use Password for Security.  \n4. We use Account Information for Functionality.  \n&lt;/Stories&gt; \n\n&lt;R&gt; \n1. The registration process explicitly requires users to provide an email address, username, and password, which are necessary to create an account. This falls under the \"Collect\" action as the application gathers this data.  \n2. The email address is used for password resets and notifications, which are application functionalities. This qualifies as \"Use\" for \"Functionality.\"  \n3. The password is used for authentication and ensuring account security, which fits under \"Security.\"  \n4. Account information (such as username and other settings) is used to provide functionality within the platform, ensuring users can access and manage their accounts effectively.  \n&lt;/R&gt; \n\n&lt;Actions&gt; \nUse \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nEmail address \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nContact \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n5. We use Email Address for Contact.  \n&lt;/Stories&gt; \n\n&lt;R&gt; \n5. The text states that email addresses are used for notifications, password resets, and confirmation emails. Since these involve direct communication with the user, this qualifies as \"Use\" for \"Contact.\"  \n&lt;/R&gt; \n\n&lt;Actions&gt; \nUse \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nAccount Information \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nCustomization \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n6. We use Account Information for Customization.  \n&lt;/Stories&gt; \n\n&lt;R&gt; \n6. The document describes various profile settings that allow users to modify their experience, such as choosing display names, blocking users, setting interface language, and selecting content preferences. These settings are part of \"Customization,\" as they allow users to tailor their experience.  \n&lt;/R&gt; \n\n&lt;Actions&gt; \nUse \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nAccount Information \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nFunctionality \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n7. We use Account Information for Functionality.  \n&lt;/Stories&gt; \n\n&lt;R&gt; \n7. The profile setup includes settings for blocking users and communities, changing email and password, selecting themes, and managing notifications. These are necessary for the platform to function correctly, making this a \"Use\" action under \"Functionality.\"  \n&lt;/R&gt; \n\n&lt;Actions&gt; \nUse \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nEmail Address \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nSecurity \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n8. We use Email Address for Security.  \n&lt;/Stories&gt; \n\n&lt;R&gt; \n8. Email addresses are used for password resets and account verification, which ensures the security of user accounts. This qualifies as \"Use\" for \"Security.\"  \n&lt;/R&gt; \n```"</t>
+  </si>
+  <si>
+    <t>"```xml\n&lt;Actions&gt; \nCollect, Use \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nName, Email Address, Password, Image, User ID \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nFunctionality, Security, Customization \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n1. We collect name, email address, password, and user ID for functionality. \n2. We use name, email address, password, and user ID for functionality. \n3. We use password for security. \n4. We use image for customization. \n&lt;/Stories&gt; \n\n&lt;R&gt; \n### Rationale:\n\n1. **Actions**:\n   - **Collect**: The system requires users to input their name, email address, password, and user ID when updating their profile.\n   - **Use**: The system uses this information to update the profile and authenticate users.\n\n2. **Data Types**:\n   - **Name &amp; Email Address**: Users update these fields in their profile.\n   - **Password**: Required for authentication and security enforcement.\n   - **User ID**: Necessary for managing user profiles.\n   - **Image**: Used for avatars, either fetched through Gravatar or uploaded by the user.\n\n3. **Purposes**:\n   - **Functionality**: The data is necessary for core functions, such as managing profiles and account settings.\n   - **Security**: Passwords are verified and checked against a database of leaked passwords.\n   - **Customization**: Profile images are used to personalize the user experience.\n\n4. **Stories**:\n   - **Stories 1 &amp; 2**: Capturing and managing user-provided details for profile management.\n   - **Story 3**: Passwords are explicitly used for authentication and security purposes.\n   - **Story 4**: The avatar image is used for customizing the user profile.\n&lt;/R&gt;\n```"</t>
+  </si>
+  <si>
+    <t>"```xml\n&lt;Actions&gt; \nCollect, Use, Share \n&lt;/Actions&gt;\n\n&lt;Data Types&gt; \nHealth Data, Contact Data: Email Address, User ID, Name; Usage Data: Timestamps, Pages Visited, Session ID \n&lt;/Data Types&gt;\n\n&lt;Purposes&gt; \nRequirements, Functionality, Security, Accounts \n&lt;/Purposes&gt;\n\n&lt;Stories&gt; \n1. We collect health data, email address, and user ID for requirements.\n2. We use health data, email address, user ID, and name for functionality.\n3. We share health data and email address for functionality.\n4. We use timestamps, pages visited, and session ID for security.\n5. We collect timestamps and session ID for accounts.\n6. We use name and user ID for accounts.\n&lt;/Stories&gt;\n\n&lt;R&gt; \n### Rationale:\n1. **Actions Identified:**\n   - **Collect:** The application collects health data (clinical data such as CCR or CCD), user emails, and user IDs when users interact with the system.\n   - **Use:** The application uses this data for functionality related to messaging and account management.\n   - **Share:** The application shares health data and email addresses when transmitting messages.\n\n2. **Data Types Identified:**\n   - **Health Data:** The application processes and transmits clinical data.\n   - **Contact Data:** Email addresses and user IDs are collected and used for messaging.\n   - **Usage Data:** Timestamps, session IDs, and pages visited are logged for tracking user activity.\n\n3. **Purposes Identified:**\n   - **Requirements:** The application collects health data and email addresses to comply with MU2 criteria.\n   - **Functionality:** User IDs and names are used to enable messaging features.\n   - **Security:** Timestamps and session IDs are used for logging and verifying message transmissions.\n   - **Accounts:** User IDs and names are used for account-related functions.\n\n4. **Privacy Stories Generated:**\n   - Each privacy story follows the pattern of \"We (action) (data type) for (purpose),\" ensuring clarity and completeness in describing how data is handled.\n   - Stories such as \"We collect health data, email address, and user ID for requirements\" reflect the necessity of data collection for compliance.\n   - \"We share health data and email address for functionality\" highlights how data is transmitted for messaging.\n&lt;/R&gt;\n```"</t>
+  </si>
+  <si>
+    <t>"&lt;Actions&gt;  \nUse, Collect  \n&lt;/Actions&gt;  \n\n&lt;Data Types&gt;  \nHealth Data, Account Information  \n&lt;/Data Types&gt;  \n\n&lt;Purposes&gt;  \nFunctionality, Requirements, Security  \n&lt;/Purposes&gt;  \n\n&lt;Stories&gt;  \n1. We use health data and account information for functionality.  \n2. We use health data and account information for requirements.  \n3. We use health data and account information for security.  \n4. We collect health data and account information for functionality.  \n5. We collect health data and account information for security.  \n6. We collect health data and account information for requirements.  \n&lt;/Stories&gt;  \n\n&lt;R&gt;  \nThe document describes OpenMRS, a modular healthcare system that includes core functionalities like managing patients, encounters, and observations. These functionalities imply the collection and use of health data and account information in order to provide essential healthcare services.  \n\n1. **Actions:**  \n   - \"Use\" is annotated because the system processes and manages patient data and account information for its core functions.  \n   - \"Collect\" is annotated since healthcare applications inherently gather patient and account-related data.  \n\n2. **Data Types:**  \n   - \"Health Data\" is included as OpenMRS is a health-related system that manages patient interactions, observations, and records.  \n   - \"Account Information\" is relevant because the document mentions authentication, authorization, and role-based access, which involve user accounts.  \n\n3. **Purposes:**  \n   - \"Functionality\" is tagged since the system requires health data and account information to operate its core services.  \n   - \"Requirements\" is included because OpenMRS enforces authentication, roles, and privileges, which are necessary for compliance with security and operational policies.  \n   - \"Security\" is added as the document mentions access control mechanisms to ensure the confidentiality of patient data.  \n\n4. **Privacy Stories:**  \n   - These stories describe how OpenMRS collects and uses health data and account information for its stated purposes, ensuring privacy concerns are addressed.  \n&lt;/R&gt;"</t>
+  </si>
+  <si>
+    <t>"```xml\n&lt;Actions&gt; \nCollect, Use \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nEmail address, Username, Password, User ID \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nAccounts, Security \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n1. We collect email address, username, password, and user ID for account creation and management.  \n2. We use email address, username, password, and user ID for security purposes, including authentication and moderation.  \n&lt;/Stories&gt; \n\n&lt;R&gt; \nThe text describes user registration processes, requiring an email address, username, and password for account creation. These data types fall under \"Account Information\" and \"Contact Data\" as they are essential for user authentication and system functionality. Additionally, the mention of moderation, approval, and email verification implies that these data points are used for security purposes, such as preventing spam and unauthorized access. These behaviors align with the \"Collect\" and \"Use\" actions, supporting account management and security.  \n&lt;/R&gt; \n\n&lt;Actions&gt; \nUse \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nEmail address \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nContact \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n3. We use email address to contact users regarding their registration approval or rejection.  \n&lt;/Stories&gt; \n\n&lt;R&gt; \nThe document states that a moderation response is sent to users regarding their registration status. This implies the system uses the user's email address to contact them, aligning with the \"Use\" action for the \"Contact\" purpose.  \n&lt;/R&gt; \n\n&lt;Actions&gt; \nUse \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nUsername, Email address, Role \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nAccounts, Security \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n4. We use username, email address, and role to manage user accounts and permissions.  \n5. We use username and email address to enforce security measures such as banning users and preventing duplicate registrations.  \n&lt;/Stories&gt; \n\n&lt;R&gt; \nThe document explains that administrators and moderators have access to user account information, including usernames, email addresses, and roles. This data is used to manage accounts (e.g., creating, editing, deleting) and enforce security policies (e.g., banning users, preventing re-registration), which aligns with the \"Use\" action for \"Accounts\" and \"Security\" purposes.  \n&lt;/R&gt; \n\n&lt;Actions&gt; \nUse \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nUser ID, Email address, Username \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nSecurity \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n6. We use user ID, email address, and username to authenticate users and reset passwords securely.  \n&lt;/Stories&gt; \n\n&lt;R&gt; \nThe document mentions password reset options via email, indicating that email addresses and usernames are used for authentication and security. The \"Use\" action applies here as these data types are being used to verify user identity and provide secure access.  \n&lt;/R&gt; \n\n&lt;Actions&gt; \nUse \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nUser ID, Username, Email address, Role \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nAnalytics \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n7. We use user ID, username, email address, and role to track and analyze user activity for administrative insights.  \n&lt;/Stories&gt; \n\n&lt;R&gt; \nAdministrators and moderators have access to user data, including role and login history. This suggests that user data may be analyzed for administrative purposes, such as tracking user engagement and monitoring account usage. The \"Use\" action applies under the \"Analytics\" purpose.  \n&lt;/R&gt; \n```"</t>
+  </si>
+  <si>
+    <t>"```xml\n&lt;Actions&gt; \nCollect, Share, Use \n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nUsage Data:\n  App Interactions:\n    Pages Visited\n    Timestamps\n    Interaction with Ads\n    User Engagement\n    Session ID\n  Device Information:\n    IP Address\n    Device ID\n    Advertisement ID\n    Browser\n    Operating System\n    Diagnostics\n    Sensor Data\n    Audio\n    Browsing history\nAccount Information:\n  User ID\n  Username\n  Email Address\nFinancial:\n  Orders\n  Payment History\n  Purchase History\nTracking:\n  Cookies\n  Web Beacons\n  Tags\n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nAnalytics, Tracking \n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n1. We collect usage data, account information, financial data, and tracking data for analytics.  \n2. We share usage data, account information, financial data, and tracking data for analytics.  \n3. We use usage data, account information, financial data, and tracking data for analytics.  \n4. We collect tracking data and usage data for tracking.  \n5. We use tracking data and usage data for tracking.  \n&lt;/Stories&gt; \n\n&lt;R&gt; \n### Rationale:\n\n1. **Actions**:  \n   - \"Collect\" is assigned because data is gathered from users and logged for analytics tracking.  \n   - \"Share\" is assigned as analytics events are sent to third-party engines such as Google Analytics.  \n   - \"Use\" is assigned because the collected data is processed for analytics and tracking purposes.  \n\n2. **Data Types**:  \n   - **Usage Data**: Includes app interactions such as pages visited, timestamps, and session IDs extracted from logging events.  \n   - **Device Information**: Includes IP addresses, device identifiers, and browser metadata, which are typically logged for analytics.  \n   - **Account Information**: Includes user IDs, usernames, and email addresses collected in event tracking.  \n   - **Financial Data**: Includes orders, purchase history, and payment details referenced in transaction-related events.  \n   - **Tracking Data**: Includes cookies, web beacons, and tags, which are used to track users across sessions and platforms.  \n\n3. **Purposes**:  \n   - **Analytics**: The document explicitly states that this data is used for \"analytics events.\"  \n   - **Tracking**: The presence of tracking technologies (cookies, web beacons, tags) indicates that data is used for tracking purposes.  \n\n4. **Stories**:  \n   - Stories were crafted to explicitly state how collected, shared, and used data types serve analytics and tracking purposes.  \n   - The separation of \"tracking\" as a distinct purpose ensures accuracy in understanding how tracking technologies are leveraged in this document.  \n&lt;/R&gt;\n```"</t>
+  </si>
+  <si>
+    <t>We collect user id, account balance, bank account, and assets for analytics.</t>
+  </si>
+  <si>
+    <t>We collect user id, account balance, bank account, and assets for functionality.</t>
+  </si>
+  <si>
+    <t>We collect user id, account balance, bank account, and assets for accounts.</t>
+  </si>
+  <si>
+    <t>We use user id, account balance, bank account, and assets for analytics.</t>
+  </si>
+  <si>
+    <t>We use user id, account balance, bank account, and assets for functionality.</t>
+  </si>
+  <si>
+    <t>We use user id, account balance, bank account, and assets for accounts.</t>
+  </si>
+  <si>
+    <t>We collect user id for functionality.</t>
+  </si>
+  <si>
+    <t>We use user id for functionality.</t>
+  </si>
+  <si>
+    <t>We collect Name, Card Data, Phone Number, and Address for Accounts.</t>
+  </si>
+  <si>
+    <t>We use Name, Card Data, Phone Number, and Address for Functionality.</t>
+  </si>
+  <si>
+    <t>We collect Financial for Accounts.</t>
+  </si>
+  <si>
+    <t>We use Financial for Functionality.</t>
+  </si>
+  <si>
+    <t>We collect Contact Data: Email address, Name for Contact.</t>
+  </si>
+  <si>
+    <t>We use Contact Data: Email address, Name for Accounts.</t>
+  </si>
+  <si>
+    <t>We collect Usage Data: App Interactions: Pages Visited, Timestamps, User Engagement for Analytics.</t>
+  </si>
+  <si>
+    <t>We use Usage Data: App Interactions: Pages Visited, Timestamps, User Engagement for Tracking.</t>
+  </si>
+  <si>
+    <t>We share Financial for Advertisement.</t>
+  </si>
+  <si>
+    <t>We use pages visited for functionality.</t>
+  </si>
+  <si>
+    <t>We use timestamps for functionality.</t>
+  </si>
+  <si>
+    <t>We use pages visited for security.</t>
+  </si>
+  <si>
+    <t>We use timestamps for security.</t>
+  </si>
+  <si>
+    <t>We collect name, email address, date of birth, address, user ID, image, and friends for contact.</t>
+  </si>
+  <si>
+    <t>We use name, email address, date of birth, address, user ID, image, and friends for contact.</t>
+  </si>
+  <si>
+    <t>We collect name, email address, date of birth, address, user ID, image, and friends for customization.</t>
+  </si>
+  <si>
+    <t>We use name, email address, date of birth, address, user ID, image, and friends for customization.</t>
+  </si>
+  <si>
+    <t>We collect name, email address, date of birth, address, user ID, image, and friends for functionality.</t>
+  </si>
+  <si>
+    <t>We use name, email address, date of birth, address, user ID, image, and friends for functionality.</t>
+  </si>
+  <si>
+    <t>We collect pages visited, timestamps, and user engagement for analytics.</t>
+  </si>
+  <si>
+    <t>We use pages visited, timestamps, and user engagement for analytics.</t>
+  </si>
+  <si>
+    <t>We collect IP address, device ID, browser, and operating system for security.</t>
+  </si>
+  <si>
+    <t>We use IP address, device ID, browser, and operating system for security.</t>
+  </si>
+  <si>
+    <t>We collect Precise location, Physical activity, and Timestamps for Customization.</t>
+  </si>
+  <si>
+    <t>We use Precise location, Physical activity, and Timestamps for Analytics.</t>
+  </si>
+  <si>
+    <t>We use account information for functionality.</t>
+  </si>
+  <si>
+    <t>We use account information for accounts.</t>
+  </si>
+  <si>
+    <t>We share account information for functionality.</t>
+  </si>
+  <si>
+    <t>We share account information for accounts.</t>
+  </si>
+  <si>
+    <t>We use user id for security.</t>
+  </si>
+  <si>
+    <t>We use user id for account management.</t>
+  </si>
+  <si>
+    <t>We collect username, password, email address, and phone number for account creation.</t>
+  </si>
+  <si>
+    <t>We use username, password, email address, and phone number for authentication.</t>
+  </si>
+  <si>
+    <t>We use username, password, email address, and phone number for security verification.</t>
+  </si>
+  <si>
+    <t>We collect user ID and session ID for functionality.</t>
+  </si>
+  <si>
+    <t>We use user ID and session ID for functionality.</t>
+  </si>
+  <si>
+    <t>We collect email address for accounts.</t>
+  </si>
+  <si>
+    <t>We use email address for accounts.</t>
+  </si>
+  <si>
+    <t>We collect email addresses and user IDs for functionality.</t>
+  </si>
+  <si>
+    <t>We use session IDs for security.</t>
+  </si>
+  <si>
+    <t>We collect email address, user ID for accounts.</t>
+  </si>
+  <si>
+    <t>We use email address, user ID for functionality.</t>
+  </si>
+  <si>
+    <t>We use messages for security.</t>
+  </si>
+  <si>
+    <t>We collect email addresses and user IDs for security.</t>
+  </si>
+  <si>
+    <t>We use passwords for security.</t>
+  </si>
+  <si>
+    <t>We collect and use timestamps and user engagement data for analytics.</t>
+  </si>
+  <si>
+    <t>We collect Email Address and Phone Number for contact.</t>
+  </si>
+  <si>
+    <t>We use Email Address, Phone Number, and User ID for account functionality.</t>
+  </si>
+  <si>
+    <t>We use Password and User ID for security.</t>
+  </si>
+  <si>
+    <t>We delete Email Address and Phone Number for account management.</t>
+  </si>
+  <si>
+    <t>We collect email address, user ID, username, and password for account creation and management.</t>
+  </si>
+  <si>
+    <t>We use email address to send account information and login details for account management.</t>
+  </si>
+  <si>
+    <t>We use email address and account information for contact purposes, including notifications.</t>
+  </si>
+  <si>
+    <t>We use username and user ID to identify accounts for functionality.</t>
+  </si>
+  <si>
+    <t>We use password for authentication and security purposes.</t>
+  </si>
+  <si>
+    <t>We collect email address and account information for accounts.</t>
+  </si>
+  <si>
+    <t>We collect email address and account information for functionality.</t>
+  </si>
+  <si>
+    <t>We use email address and account information for accounts.</t>
+  </si>
+  <si>
+    <t>We use email address and account information for security.</t>
+  </si>
+  <si>
+    <t>We use email address and account information for functionality.</t>
+  </si>
+  <si>
+    <t>We collect Name, Email address, Phone Number, Password, and User ID for accounts.</t>
+  </si>
+  <si>
+    <t>We collect Name, Email address, Phone Number, Password, and User ID for security.</t>
+  </si>
+  <si>
+    <t>We collect Name, Email address, Phone Number, Password, and User ID for functionality.</t>
+  </si>
+  <si>
+    <t>We use Name, Email address, Phone Number, Password, and User ID for accounts.</t>
+  </si>
+  <si>
+    <t>We use Name, Email address, Phone Number, Password, and User ID for security.</t>
+  </si>
+  <si>
+    <t>We use Name, Email address, Phone Number, Password, and User ID for functionality.</t>
+  </si>
+  <si>
+    <t>We collect email address, user ID, session ID, and IP address for functionality.</t>
+  </si>
+  <si>
+    <t>We use email address, user ID, session ID, and IP address for functionality.</t>
+  </si>
+  <si>
+    <t>We collect email address, user ID, session ID, and IP address for analytics.</t>
+  </si>
+  <si>
+    <t>We use email address, user ID, session ID, and IP address for analytics.</t>
+  </si>
+  <si>
+    <t>We share email address for analytics.</t>
+  </si>
+  <si>
+    <t>We collect Email Address, Username, and Password for Accounts.</t>
+  </si>
+  <si>
+    <t>We use Email Address for Functionality.</t>
+  </si>
+  <si>
+    <t>We use Password for Security.</t>
+  </si>
+  <si>
+    <t>We use Account Information for Functionality.</t>
+  </si>
+  <si>
+    <t>We collect name, email address, password, and user ID for functionality.</t>
+  </si>
+  <si>
+    <t>We use name, email address, password, and user ID for functionality.</t>
+  </si>
+  <si>
+    <t>We use password for security.</t>
+  </si>
+  <si>
+    <t>We use image for customization.</t>
+  </si>
+  <si>
+    <t>We collect health data, email address, and user ID for requirements.</t>
+  </si>
+  <si>
+    <t>We use health data, email address, user ID, and name for functionality.</t>
+  </si>
+  <si>
+    <t>We share health data and email address for functionality.</t>
+  </si>
+  <si>
+    <t>We use timestamps, pages visited, and session ID for security.</t>
+  </si>
+  <si>
+    <t>We collect timestamps and session ID for accounts.</t>
+  </si>
+  <si>
+    <t>We use name and user ID for accounts.</t>
+  </si>
+  <si>
+    <t>We use health data and account information for functionality.</t>
+  </si>
+  <si>
+    <t>We use health data and account information for requirements.</t>
+  </si>
+  <si>
+    <t>We use health data and account information for security.</t>
+  </si>
+  <si>
+    <t>We collect health data and account information for functionality.</t>
+  </si>
+  <si>
+    <t>We collect health data and account information for security.</t>
+  </si>
+  <si>
+    <t>We collect health data and account information for requirements.</t>
+  </si>
+  <si>
+    <t>We collect email address, username, password, and user ID for account creation and management.</t>
+  </si>
+  <si>
+    <t>We use email address, username, password, and user ID for security purposes, including authentication and moderation.</t>
+  </si>
+  <si>
+    <t>We collect usage data, account information, financial data, and tracking data for analytics.</t>
+  </si>
+  <si>
+    <t>We share usage data, account information, financial data, and tracking data for analytics.</t>
+  </si>
+  <si>
+    <t>We use usage data, account information, financial data, and tracking data for analytics.</t>
+  </si>
+  <si>
+    <t>We collect tracking data and usage data for tracking.</t>
+  </si>
+  <si>
+    <t>We use tracking data and usage data for tracking.</t>
   </si>
   <si>
     <t>null</t>
@@ -4896,8 +7765,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4967,7 +7836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4984,19 +7853,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5034,7 +7917,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -5068,6 +7951,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5102,9 +7986,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5277,22 +8162,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="20.7109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="50.7109375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="30.7109375" style="3" customWidth="1"/>
-    <col min="12" max="13" width="50.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="50.7109375" style="4" customWidth="1"/>
+    <col min="1" max="4" width="20.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="50.6640625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="30.6640625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="50.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="50.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5329,819 +8216,2691 @@
       <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L8" s="7"/>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D12" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="G12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
         <v>0</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="G19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="H30" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L30" s="7"/>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
+    <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42">
+        <v>9</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44">
+        <v>9</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49">
+        <v>11</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L49" s="7"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50">
+        <v>11</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L50" s="7"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51">
+        <v>12</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L51" s="7"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52">
+        <v>12</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L52" s="7"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53">
+        <v>12</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L53" s="7"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54">
+        <v>13</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L54" s="7"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55">
+        <v>13</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L55" s="7"/>
+    </row>
+    <row r="56" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56">
+        <v>13</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L56" s="7"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57">
+        <v>14</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L57" s="7"/>
+    </row>
+    <row r="58" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58">
+        <v>14</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L58" s="7"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59">
+        <v>14</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L59" s="7"/>
+    </row>
+    <row r="60" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60">
+        <v>14</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L60" s="7"/>
+    </row>
+    <row r="61" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3">
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L61" s="7"/>
+    </row>
+    <row r="62" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62">
+        <v>15</v>
+      </c>
+      <c r="F62">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="G62" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L62" s="7"/>
+    </row>
+    <row r="63" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63">
+        <v>15</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L63" s="7"/>
+    </row>
+    <row r="64" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64">
+        <v>15</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L64" s="7"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65">
+        <v>15</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L65" s="7"/>
+    </row>
+    <row r="66" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66">
+        <v>16</v>
+      </c>
+      <c r="F66">
         <v>0</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="G66" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L66" s="7"/>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
+    <row r="67" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4">
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L67" s="7"/>
+    </row>
+    <row r="68" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68">
+        <v>16</v>
+      </c>
+      <c r="F68">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="G68" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L68" s="7"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69">
+        <v>16</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L69" s="7"/>
+    </row>
+    <row r="70" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70">
+        <v>16</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L70" s="7"/>
+    </row>
+    <row r="71" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E71">
+        <v>17</v>
+      </c>
+      <c r="F71">
         <v>0</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="G71" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L71" s="7"/>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
+    <row r="72" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5">
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L72" s="7"/>
+    </row>
+    <row r="73" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73">
+        <v>17</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L73" s="7"/>
+    </row>
+    <row r="74" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74">
+        <v>17</v>
+      </c>
+      <c r="F74">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="G74" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L74" s="7"/>
+    </row>
+    <row r="75" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75">
+        <v>17</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L75" s="7"/>
+    </row>
+    <row r="76" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76">
+        <v>17</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L76" s="7"/>
+    </row>
+    <row r="77" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E77">
+        <v>18</v>
+      </c>
+      <c r="F77">
         <v>0</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="G77" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L77" s="7"/>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
+    <row r="78" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6">
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L78" s="7"/>
+    </row>
+    <row r="79" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79">
+        <v>18</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L79" s="7"/>
+    </row>
+    <row r="80" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80">
+        <v>18</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L80" s="7"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81">
+        <v>18</v>
+      </c>
+      <c r="F81">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="G81" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L81" s="7"/>
+    </row>
+    <row r="82" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E82">
+        <v>19</v>
+      </c>
+      <c r="F82">
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="G82" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L82" s="7"/>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7">
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L83" s="7"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84">
+        <v>19</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L84" s="7"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85">
+        <v>19</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L85" s="7"/>
+    </row>
+    <row r="86" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E86">
+        <v>20</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L86" s="7"/>
+    </row>
+    <row r="87" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87">
+        <v>20</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L87" s="7"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88">
+        <v>20</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L88" s="7"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89">
+        <v>20</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L89" s="7"/>
+    </row>
+    <row r="90" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90">
+        <v>21</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L90" s="7"/>
+    </row>
+    <row r="91" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91">
+        <v>21</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L91" s="7"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92">
+        <v>21</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L92" s="7"/>
+    </row>
+    <row r="93" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93">
+        <v>21</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L93" s="7"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94">
+        <v>21</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L94" s="7"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95">
+        <v>21</v>
+      </c>
+      <c r="F95">
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="G95" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L95" s="7"/>
+    </row>
+    <row r="96" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E96">
+        <v>22</v>
+      </c>
+      <c r="F96">
         <v>0</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="G96" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L96" s="7"/>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
+    <row r="97" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97">
+        <v>22</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L97" s="7"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98">
+        <v>22</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L98" s="7"/>
+    </row>
+    <row r="99" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99">
+        <v>22</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L99" s="7"/>
+    </row>
+    <row r="100" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100">
+        <v>22</v>
+      </c>
+      <c r="F100">
+        <v>4</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L100" s="7"/>
+    </row>
+    <row r="101" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101">
+        <v>22</v>
+      </c>
+      <c r="F101">
+        <v>5</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L101" s="7"/>
+    </row>
+    <row r="102" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E102">
+        <v>23</v>
+      </c>
+      <c r="F102">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="G102" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L102" s="7"/>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9">
+    <row r="103" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103">
+        <v>23</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L103" s="7"/>
+    </row>
+    <row r="104" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E104">
+        <v>24</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="G104" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L104" s="7"/>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>140</v>
-      </c>
+    <row r="105" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105">
+        <v>24</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L105" s="7"/>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G11">
-        <v>9</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>140</v>
-      </c>
+    <row r="106" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106">
+        <v>24</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L106" s="7"/>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1" t="s">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107">
         <v>24</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L107" s="7"/>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13">
-        <v>11</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14">
-        <v>12</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15">
-        <v>13</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16">
-        <v>14</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17">
-        <v>15</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18">
-        <v>16</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19">
-        <v>17</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20">
-        <v>18</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21">
-        <v>19</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G22">
-        <v>20</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23">
-        <v>21</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24">
-        <v>22</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25">
-        <v>23</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108">
         <v>24</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L108" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Selection" error="Please choose either Yes or No from the dropdown." promptTitle="Select Yes or No" sqref="J2:J26">
-      <formula1>"null,Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Selection" error="Please choose either Yes or No from the dropdown." promptTitle="Select Yes or No" sqref="K2:K26">
+  <mergeCells count="125">
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="L104:L108"/>
+    <mergeCell ref="A96:A101"/>
+    <mergeCell ref="B96:B101"/>
+    <mergeCell ref="C96:C101"/>
+    <mergeCell ref="D96:D101"/>
+    <mergeCell ref="L96:L101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="L86:L89"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="D90:D95"/>
+    <mergeCell ref="L90:L95"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="L77:L81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="L82:L85"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="C66:C70"/>
+    <mergeCell ref="D66:D70"/>
+    <mergeCell ref="L66:L70"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="L71:L76"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="L61:L65"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="L45:L48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="L35:L38"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="C23:C32"/>
+    <mergeCell ref="D23:D32"/>
+    <mergeCell ref="L23:L32"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="C12:C18"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="L12:L18"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="L2:L7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="L8:L9"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Selection" error="Please choose either Yes or No from the dropdown." promptTitle="Select Yes or No" sqref="H2:I108" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"null,Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
